--- a/藍芽傳輸規劃0923.xlsx
+++ b/藍芽傳輸規劃0923.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
+    <sheet name="request" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="852">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,11 +872,6 @@
   <si>
     <t>byte 4
 (功能)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte1
-(reserved)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -959,10 +955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReadAppData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReturnAppData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3502,11 +3494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需告知收到為0，也就是con訊息
-不需告知收到為1，也就是non訊息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英文名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3522,13 +3509,6 @@
 Order:unsigned short 封包順序(2)
 Amount:unsigned short 封包總量(2)
 Text:char[] 內文(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前後加上Con/Non/Ack、Packet即可作為struct名稱
-con代表需要回傳的訊息(可證實)
-non代表不須回傳的訊息(不可證實)
-ack代表回傳的那個訊息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3557,6 +3537,144 @@
 Length:unsigned short 長度(2) 不可超過512b
 FileName:string 檔案名稱(16)
 Order:unsigned short 封包順序(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得用戶資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadAppData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳出command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新啟動app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartAppRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetUserRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>證實command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回傳command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得最新韌體版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載最新韌體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得新音色名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載新音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadNewFirmwareRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetNewFirmwareDataRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstrumentPackageDataRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadInstrumentPackageRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上傳電子琴log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadLogRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得譜檔資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSheetmusicDataRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載譜檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadSheetmusicRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子琴結束遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardwareFinishGameRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳送遊戲分數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostScoreRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上傳遊戲紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadPlayRecordRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需告知收到為0(con)
+不需告知收到為1(non)
+告知已收到是2(ack)
+回傳資料需告知收到是3(retcon)
+回傳資料不需告知收到是4(retnon)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte1
+(內容類型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json為0
+binary為1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面加上Con/Non/Ack/Ret即可作為struct名稱
+con代表需要回傳的訊息(可證實)
+non代表不須回傳的訊息(不可證實)
+ack代表告知收到的那個訊息
+ret代表回傳資訊的訊息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3675,7 +3793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3733,15 +3851,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3759,6 +3868,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4047,20 +4171,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="37.21875" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7.21875" customWidth="1"/>
     <col min="10" max="10" width="41.33203125" customWidth="1"/>
@@ -4068,24 +4192,24 @@
     <col min="12" max="12" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>818</v>
+        <v>814</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>815</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>197</v>
+        <v>849</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>815</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>195</v>
@@ -4103,21 +4227,23 @@
         <v>66</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
       <c r="C2" s="16" t="s">
-        <v>820</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="16"/>
+        <v>851</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="16" t="s">
+        <v>850</v>
+      </c>
       <c r="F2" s="16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -4126,90 +4252,90 @@
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
         <v>204</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="K4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="K5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="K4" t="s">
-        <v>198</v>
-      </c>
-      <c r="M4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="K5" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>328</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -4226,56 +4352,56 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" t="s">
         <v>210</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" t="s">
-        <v>212</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4300,15 +4426,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4329,19 +4455,19 @@
         <v>39</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="28"/>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4366,15 +4492,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="28"/>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4399,15 +4525,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>821</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4432,15 +4558,15 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4461,19 +4587,19 @@
         <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4498,15 +4624,15 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4527,19 +4653,19 @@
         <v>39</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4560,19 +4686,19 @@
         <v>39</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="28"/>
       <c r="B17" t="s">
         <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4600,17 +4726,17 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4632,15 +4758,15 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="29"/>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4662,15 +4788,15 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="29"/>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4692,15 +4818,15 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="29"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4722,15 +4848,15 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="29"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4752,15 +4878,15 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="29"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4782,15 +4908,15 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="29"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4812,15 +4938,15 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="29"/>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4845,17 +4971,17 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4873,19 +4999,19 @@
         <v>39</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="28"/>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4907,15 +5033,15 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="28"/>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4937,15 +5063,15 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="28"/>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4967,15 +5093,15 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4997,15 +5123,15 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="28"/>
       <c r="B33" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -5027,15 +5153,15 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="28"/>
       <c r="B34" t="s">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -5057,15 +5183,15 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="28"/>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5087,15 +5213,15 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="28"/>
       <c r="B36" t="s">
         <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5117,15 +5243,15 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="28"/>
       <c r="B37" t="s">
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5150,17 +5276,17 @@
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C39" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5182,15 +5308,15 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="29"/>
       <c r="B40" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C40" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5212,15 +5338,15 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="29"/>
       <c r="B41" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C41" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5242,15 +5368,15 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="29"/>
       <c r="B42" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C42" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5272,15 +5398,15 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="29"/>
       <c r="B43" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C43" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5302,15 +5428,15 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="29"/>
       <c r="B44" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C44" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -5332,15 +5458,15 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="29"/>
       <c r="B45" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C45" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5362,15 +5488,15 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="29"/>
       <c r="B46" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C46" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5392,15 +5518,15 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="29"/>
       <c r="B47" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C47" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5422,15 +5548,15 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="29"/>
       <c r="B48" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C48" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5452,15 +5578,15 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="29"/>
       <c r="B49" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C49" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -5482,15 +5608,15 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="29"/>
       <c r="B50" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C50" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5512,15 +5638,15 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="29"/>
       <c r="B51" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C51" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5542,15 +5668,15 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="29"/>
       <c r="B52" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C52" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -5572,15 +5698,15 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="29"/>
       <c r="B53" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -5602,15 +5728,15 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="29"/>
       <c r="B54" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C54" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5632,15 +5758,15 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="29"/>
       <c r="B55" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C55" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5662,15 +5788,15 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="29"/>
       <c r="B56" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C56" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5692,15 +5818,15 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="29"/>
       <c r="B57" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C57" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -5722,15 +5848,15 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="29"/>
       <c r="B58" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C58" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5752,15 +5878,15 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="29"/>
       <c r="B59" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C59" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5778,19 +5904,19 @@
         <v>39</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C60" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -5812,15 +5938,15 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
+      <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C61" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -5838,19 +5964,19 @@
         <v>39</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C62" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5872,15 +5998,15 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C63" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5902,15 +6028,15 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C64" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -5932,15 +6058,15 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C65" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -5962,15 +6088,15 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C66" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -5992,15 +6118,15 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C67" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6022,15 +6148,15 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C68" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -6052,15 +6178,15 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="29"/>
       <c r="B69" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C69" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -6082,15 +6208,15 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C70" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6112,15 +6238,15 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="29"/>
       <c r="B71" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C71" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6142,15 +6268,15 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="29"/>
       <c r="B72" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C72" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -6172,15 +6298,15 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="29"/>
       <c r="B73" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C73" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -6202,15 +6328,15 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
+      <c r="A74" s="29"/>
       <c r="B74" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C74" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6232,15 +6358,15 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="29"/>
       <c r="B75" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C75" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6262,15 +6388,15 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
+      <c r="A76" s="29"/>
       <c r="B76" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C76" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -6292,15 +6418,15 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
+      <c r="A77" s="29"/>
       <c r="B77" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C77" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6322,15 +6448,15 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
+      <c r="A78" s="29"/>
       <c r="B78" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C78" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6352,15 +6478,15 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
+      <c r="A79" s="29"/>
       <c r="B79" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C79" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6380,15 +6506,15 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
+      <c r="A80" s="29"/>
       <c r="B80" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C80" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -6406,19 +6532,19 @@
         <v>39</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
+      <c r="A81" s="29"/>
       <c r="B81" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C81" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -6438,15 +6564,15 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
+      <c r="A82" s="29"/>
       <c r="B82" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C82" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6464,19 +6590,19 @@
         <v>39</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
+      <c r="A83" s="29"/>
       <c r="B83" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C83" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6498,15 +6624,15 @@
       </c>
     </row>
     <row r="84" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="23"/>
+      <c r="A84" s="29"/>
       <c r="B84" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C84" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -6524,19 +6650,19 @@
         <v>39</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
+      <c r="A85" s="29"/>
       <c r="B85" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C85" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -6558,15 +6684,15 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
+      <c r="A86" s="29"/>
       <c r="B86" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C86" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6584,19 +6710,19 @@
         <v>39</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
+      <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C87" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6616,15 +6742,15 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="23"/>
+      <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C88" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -6644,15 +6770,15 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
+      <c r="A89" s="29"/>
       <c r="B89" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C89" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -6672,15 +6798,15 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
+      <c r="A90" s="29"/>
       <c r="B90" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C90" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6700,15 +6826,15 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
+      <c r="A91" s="29"/>
       <c r="B91" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C91" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6728,15 +6854,15 @@
       </c>
     </row>
     <row r="92" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
+      <c r="A92" s="29"/>
       <c r="B92" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C92" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -6758,15 +6884,15 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
+      <c r="A93" s="29"/>
       <c r="B93" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -6786,15 +6912,15 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
+      <c r="A94" s="29"/>
       <c r="B94" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C94" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6816,15 +6942,15 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
+      <c r="A95" s="29"/>
       <c r="B95" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C95" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -6842,15 +6968,15 @@
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
+      <c r="A96" s="29"/>
       <c r="B96" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C96" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -6866,19 +6992,19 @@
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="23"/>
+      <c r="A97" s="29"/>
       <c r="B97" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C97" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -6896,15 +7022,15 @@
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="23"/>
+      <c r="A98" s="29"/>
       <c r="B98" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C98" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -6920,19 +7046,19 @@
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="23"/>
+      <c r="A99" s="29"/>
       <c r="B99" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C99" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -6948,19 +7074,19 @@
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="23"/>
+      <c r="A100" s="29"/>
       <c r="B100" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C100" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -6978,15 +7104,15 @@
       <c r="K100" s="1"/>
     </row>
     <row r="101" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="23"/>
+      <c r="A101" s="29"/>
       <c r="B101" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C101" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -7002,19 +7128,19 @@
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="23"/>
+      <c r="A102" s="29"/>
       <c r="B102" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C102" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7032,15 +7158,15 @@
       <c r="K102" s="1"/>
     </row>
     <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="23"/>
+      <c r="A103" s="29"/>
       <c r="B103" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C103" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7056,19 +7182,19 @@
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="23"/>
+      <c r="A104" s="29"/>
       <c r="B104" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C104" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -7086,15 +7212,15 @@
       <c r="K104" s="1"/>
     </row>
     <row r="105" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="23"/>
+      <c r="A105" s="29"/>
       <c r="B105" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C105" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -7110,19 +7236,19 @@
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="23"/>
+      <c r="A106" s="29"/>
       <c r="B106" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C106" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7140,15 +7266,15 @@
       <c r="K106" s="1"/>
     </row>
     <row r="107" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
+      <c r="A107" s="29"/>
       <c r="B107" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C107" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -7164,19 +7290,19 @@
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="23"/>
+      <c r="A108" s="29"/>
       <c r="B108" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C108" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -7195,19 +7321,19 @@
         <v>58</v>
       </c>
       <c r="L108" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="23"/>
+      <c r="A109" s="29"/>
       <c r="B109" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C109" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -7223,19 +7349,19 @@
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="23"/>
+      <c r="A110" s="29"/>
       <c r="B110" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C110" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -7253,12 +7379,12 @@
       <c r="K110" s="1"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
+      <c r="A111" s="29"/>
       <c r="J111" s="4"/>
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="23"/>
+      <c r="A112" s="29"/>
       <c r="J112" s="4"/>
       <c r="K112" s="1"/>
     </row>
@@ -7266,17 +7392,17 @@
       <c r="D113" s="9"/>
     </row>
     <row r="114" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -7294,19 +7420,19 @@
         <v>39</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="22"/>
+      <c r="A115" s="28"/>
       <c r="B115" t="s">
         <v>38</v>
       </c>
       <c r="C115" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -7328,15 +7454,15 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="22"/>
+      <c r="A116" s="28"/>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C116" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -7351,22 +7477,22 @@
         <v>1</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A117" s="22"/>
+      <c r="A117" s="28"/>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C117" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -7381,25 +7507,25 @@
         <v>1</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A118" s="22"/>
+      <c r="A118" s="28"/>
       <c r="B118" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -7414,25 +7540,25 @@
         <v>2</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="22"/>
+      <c r="A119" s="28"/>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -7447,22 +7573,22 @@
         <v>3</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A120" s="22"/>
+      <c r="A120" s="28"/>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C120" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -7477,25 +7603,25 @@
         <v>3</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="22"/>
+      <c r="A121" s="28"/>
       <c r="B121" t="s">
         <v>46</v>
       </c>
       <c r="C121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -7510,22 +7636,22 @@
         <v>4</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A122" s="22"/>
+      <c r="A122" s="28"/>
       <c r="B122" t="s">
         <v>47</v>
       </c>
       <c r="C122" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -7543,19 +7669,19 @@
         <v>39</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A123" s="22"/>
+      <c r="A123" s="28"/>
       <c r="B123" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C123" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -7573,19 +7699,19 @@
         <v>39</v>
       </c>
       <c r="K123" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A124" s="28"/>
+      <c r="B124" t="s">
+        <v>531</v>
+      </c>
+      <c r="C124" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A124" s="22"/>
-      <c r="B124" t="s">
-        <v>533</v>
-      </c>
-      <c r="C124" t="s">
-        <v>531</v>
-      </c>
       <c r="D124" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -7603,19 +7729,19 @@
         <v>42</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A125" s="22"/>
+      <c r="A125" s="28"/>
       <c r="B125" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C125" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -7630,22 +7756,22 @@
         <v>9</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A126" s="22"/>
+      <c r="A126" s="28"/>
       <c r="B126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -7660,25 +7786,25 @@
         <v>9</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="22"/>
+      <c r="A127" s="28"/>
       <c r="B127" t="s">
         <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -7693,22 +7819,22 @@
         <v>10</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A128" s="22"/>
+      <c r="A128" s="28"/>
       <c r="B128" t="s">
         <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -7726,19 +7852,19 @@
         <v>39</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="22"/>
+      <c r="A129" s="28"/>
       <c r="B129" t="s">
         <v>50</v>
       </c>
       <c r="C129" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -7756,19 +7882,19 @@
         <v>39</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A130" s="22"/>
+      <c r="A130" s="28"/>
       <c r="B130" t="s">
         <v>51</v>
       </c>
       <c r="C130" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -7786,19 +7912,19 @@
         <v>39</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A131" s="22"/>
+      <c r="A131" s="28"/>
       <c r="B131" t="s">
         <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -7816,19 +7942,19 @@
         <v>39</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A132" s="22"/>
+      <c r="A132" s="28"/>
       <c r="B132" t="s">
         <v>44</v>
       </c>
       <c r="C132" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -7846,19 +7972,19 @@
         <v>39</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A133" s="22"/>
+      <c r="A133" s="28"/>
       <c r="B133" t="s">
         <v>45</v>
       </c>
       <c r="C133" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -7876,19 +8002,19 @@
         <v>39</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="22"/>
+      <c r="A134" s="28"/>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -7906,22 +8032,22 @@
         <v>39</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="22"/>
+      <c r="A135" s="28"/>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C135" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -7936,22 +8062,22 @@
         <v>15</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A136" s="22"/>
+      <c r="A136" s="28"/>
       <c r="B136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C136" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -7966,7 +8092,7 @@
         <v>15</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>40</v>
@@ -7979,17 +8105,17 @@
       <c r="D137" s="9"/>
     </row>
     <row r="138" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B138" t="s">
         <v>55</v>
       </c>
       <c r="C138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -8004,22 +8130,22 @@
         <v>0</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="23"/>
+      <c r="A139" s="29"/>
       <c r="B139" t="s">
         <v>57</v>
       </c>
       <c r="C139" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -8041,15 +8167,15 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="23"/>
+      <c r="A140" s="29"/>
       <c r="B140" t="s">
         <v>54</v>
       </c>
       <c r="C140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -8071,15 +8197,15 @@
       </c>
     </row>
     <row r="141" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="23"/>
+      <c r="A141" s="29"/>
       <c r="B141" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C141" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -8094,22 +8220,22 @@
         <v>2</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A142" s="23"/>
+      <c r="A142" s="29"/>
       <c r="B142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C142" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -8124,7 +8250,7 @@
         <v>2</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>40</v>
@@ -8134,15 +8260,15 @@
       </c>
     </row>
     <row r="143" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="23"/>
+      <c r="A143" s="29"/>
       <c r="B143" t="s">
         <v>59</v>
       </c>
       <c r="C143" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -8157,22 +8283,22 @@
         <v>3</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="23"/>
+      <c r="A144" s="29"/>
       <c r="B144" t="s">
         <v>61</v>
       </c>
       <c r="C144" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -8194,15 +8320,15 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="23"/>
+      <c r="A145" s="29"/>
       <c r="B145" t="s">
         <v>62</v>
       </c>
       <c r="C145" t="s">
+        <v>402</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>404</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>406</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -8224,15 +8350,15 @@
       </c>
     </row>
     <row r="146" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="23"/>
+      <c r="A146" s="29"/>
       <c r="B146" t="s">
         <v>63</v>
       </c>
       <c r="C146" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -8254,15 +8380,15 @@
       </c>
     </row>
     <row r="147" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A147" s="23"/>
+      <c r="A147" s="29"/>
       <c r="B147" t="s">
         <v>67</v>
       </c>
       <c r="C147" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -8284,15 +8410,15 @@
       </c>
     </row>
     <row r="148" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="23"/>
+      <c r="A148" s="29"/>
       <c r="B148" t="s">
         <v>68</v>
       </c>
       <c r="C148" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -8314,15 +8440,15 @@
       </c>
     </row>
     <row r="149" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="23"/>
+      <c r="A149" s="29"/>
       <c r="B149" t="s">
         <v>69</v>
       </c>
       <c r="C149" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -8344,15 +8470,15 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="23"/>
+      <c r="A150" s="29"/>
       <c r="B150" t="s">
         <v>71</v>
       </c>
       <c r="C150" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -8376,13 +8502,13 @@
     <row r="151" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
       <c r="B151" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C151" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -8407,17 +8533,17 @@
       <c r="D152" s="9"/>
     </row>
     <row r="153" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="22" t="s">
+      <c r="A153" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B153" t="s">
         <v>73</v>
       </c>
       <c r="C153" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -8439,15 +8565,15 @@
       </c>
     </row>
     <row r="154" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="22"/>
+      <c r="A154" s="28"/>
       <c r="B154" t="s">
         <v>74</v>
       </c>
       <c r="C154" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -8469,15 +8595,15 @@
       </c>
     </row>
     <row r="155" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="22"/>
+      <c r="A155" s="28"/>
       <c r="B155" t="s">
         <v>75</v>
       </c>
       <c r="C155" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -8495,19 +8621,19 @@
         <v>42</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="22"/>
+      <c r="A156" s="28"/>
       <c r="B156" t="s">
         <v>76</v>
       </c>
       <c r="C156" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -8525,19 +8651,19 @@
         <v>42</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="22"/>
+      <c r="A157" s="28"/>
       <c r="B157" t="s">
         <v>77</v>
       </c>
       <c r="C157" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -8559,15 +8685,15 @@
       </c>
     </row>
     <row r="158" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A158" s="22"/>
+      <c r="A158" s="28"/>
       <c r="B158" t="s">
         <v>78</v>
       </c>
       <c r="C158" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -8592,17 +8718,17 @@
       <c r="D159" s="9"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="23" t="s">
+      <c r="A160" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B160" t="s">
         <v>88</v>
       </c>
       <c r="C160" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -8624,15 +8750,15 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="23"/>
+      <c r="A161" s="29"/>
       <c r="B161" t="s">
         <v>89</v>
       </c>
       <c r="C161" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -8653,19 +8779,19 @@
         <v>90</v>
       </c>
       <c r="L161" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="23"/>
+      <c r="A162" s="29"/>
       <c r="B162" t="s">
         <v>98</v>
       </c>
       <c r="C162" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -8687,15 +8813,15 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="23"/>
+      <c r="A163" s="29"/>
       <c r="B163" t="s">
         <v>99</v>
       </c>
       <c r="C163" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -8713,19 +8839,19 @@
         <v>39</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="23"/>
+      <c r="A164" s="29"/>
       <c r="B164" t="s">
         <v>91</v>
       </c>
       <c r="C164" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -8747,15 +8873,15 @@
       </c>
     </row>
     <row r="165" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="23"/>
+      <c r="A165" s="29"/>
       <c r="B165" t="s">
         <v>92</v>
       </c>
       <c r="C165" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -8777,15 +8903,15 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A166" s="23"/>
+      <c r="A166" s="29"/>
       <c r="B166" t="s">
         <v>100</v>
       </c>
       <c r="C166" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -8807,15 +8933,15 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="23"/>
+      <c r="A167" s="29"/>
       <c r="B167" t="s">
         <v>101</v>
       </c>
       <c r="C167" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -8833,19 +8959,19 @@
         <v>39</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="23"/>
+      <c r="A168" s="29"/>
       <c r="B168" t="s">
         <v>93</v>
       </c>
       <c r="C168" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -8867,15 +8993,15 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="23"/>
+      <c r="A169" s="29"/>
       <c r="B169" t="s">
         <v>95</v>
       </c>
       <c r="C169" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -8900,7 +9026,7 @@
       <c r="D170" s="9"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="22" t="s">
+      <c r="A171" s="28" t="s">
         <v>102</v>
       </c>
       <c r="B171" s="8" t="s">
@@ -8918,15 +9044,15 @@
       <c r="L171" s="8"/>
     </row>
     <row r="172" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A172" s="22"/>
+      <c r="A172" s="28"/>
       <c r="B172" t="s">
         <v>103</v>
       </c>
       <c r="C172" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -8944,19 +9070,19 @@
         <v>39</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A173" s="22"/>
+      <c r="A173" s="28"/>
       <c r="B173" t="s">
         <v>104</v>
       </c>
       <c r="C173" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -8974,22 +9100,22 @@
         <v>39</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="22"/>
+      <c r="A174" s="28"/>
       <c r="B174" t="s">
         <v>105</v>
       </c>
       <c r="C174" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -9007,22 +9133,22 @@
         <v>39</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L174" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="22"/>
+      <c r="A175" s="28"/>
       <c r="B175" t="s">
         <v>106</v>
       </c>
       <c r="C175" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -9040,22 +9166,22 @@
         <v>39</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L175" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="22"/>
+      <c r="A176" s="28"/>
       <c r="B176" t="s">
         <v>107</v>
       </c>
       <c r="C176" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -9073,22 +9199,22 @@
         <v>39</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L176" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A177" s="22"/>
+      <c r="A177" s="28"/>
       <c r="B177" t="s">
         <v>108</v>
       </c>
       <c r="C177" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -9106,22 +9232,22 @@
         <v>39</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L177" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A178" s="22"/>
+      <c r="A178" s="28"/>
       <c r="B178" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C178" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -9136,22 +9262,22 @@
         <v>3</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A179" s="22"/>
+      <c r="A179" s="28"/>
       <c r="B179" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C179" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -9166,25 +9292,25 @@
         <v>3</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L179" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="22"/>
+      <c r="A180" s="28"/>
       <c r="B180" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C180" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -9199,22 +9325,22 @@
         <v>4</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A181" s="22"/>
+      <c r="A181" s="28"/>
       <c r="B181" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C181" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -9229,22 +9355,22 @@
         <v>5</v>
       </c>
       <c r="J181" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A182" s="22"/>
+      <c r="A182" s="28"/>
       <c r="B182" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C182" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -9259,25 +9385,25 @@
         <v>5</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L182" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A183" s="22"/>
+      <c r="A183" s="28"/>
       <c r="B183" t="s">
         <v>109</v>
       </c>
       <c r="C183" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -9292,22 +9418,22 @@
         <v>6</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A184" s="22"/>
+      <c r="A184" s="28"/>
       <c r="B184" t="s">
         <v>110</v>
       </c>
       <c r="C184" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -9325,19 +9451,19 @@
         <v>39</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="22"/>
+      <c r="A185" s="28"/>
       <c r="B185" t="s">
         <v>112</v>
       </c>
       <c r="C185" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -9355,19 +9481,19 @@
         <v>39</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="22"/>
+      <c r="A186" s="28"/>
       <c r="B186" t="s">
         <v>114</v>
       </c>
       <c r="C186" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -9389,15 +9515,15 @@
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A187" s="22"/>
+      <c r="A187" s="28"/>
       <c r="B187" t="s">
         <v>115</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -9419,15 +9545,15 @@
       </c>
     </row>
     <row r="188" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="22"/>
+      <c r="A188" s="28"/>
       <c r="B188" t="s">
         <v>116</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -9449,7 +9575,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A189" s="22"/>
+      <c r="A189" s="28"/>
       <c r="B189" s="8" t="s">
         <v>117</v>
       </c>
@@ -9465,15 +9591,15 @@
       <c r="L189" s="8"/>
     </row>
     <row r="190" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A190" s="22"/>
+      <c r="A190" s="28"/>
       <c r="B190" t="s">
         <v>148</v>
       </c>
       <c r="C190" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -9491,19 +9617,19 @@
         <v>39</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="22"/>
+      <c r="A191" s="28"/>
       <c r="B191" t="s">
         <v>149</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -9525,15 +9651,15 @@
       </c>
     </row>
     <row r="192" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="22"/>
+      <c r="A192" s="28"/>
       <c r="B192" t="s">
         <v>120</v>
       </c>
       <c r="C192" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -9558,15 +9684,15 @@
       </c>
     </row>
     <row r="193" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="22"/>
+      <c r="A193" s="28"/>
       <c r="B193" t="s">
         <v>119</v>
       </c>
       <c r="C193" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -9591,15 +9717,15 @@
       </c>
     </row>
     <row r="194" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="22"/>
+      <c r="A194" s="28"/>
       <c r="B194" t="s">
         <v>122</v>
       </c>
       <c r="C194" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -9621,15 +9747,15 @@
       </c>
     </row>
     <row r="195" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="22"/>
+      <c r="A195" s="28"/>
       <c r="B195" t="s">
         <v>125</v>
       </c>
       <c r="C195" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -9654,15 +9780,15 @@
       </c>
     </row>
     <row r="196" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="22"/>
+      <c r="A196" s="28"/>
       <c r="B196" t="s">
         <v>124</v>
       </c>
       <c r="C196" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -9684,15 +9810,15 @@
       </c>
     </row>
     <row r="197" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A197" s="22"/>
+      <c r="A197" s="28"/>
       <c r="B197" t="s">
         <v>126</v>
       </c>
       <c r="C197" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -9717,15 +9843,15 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="22"/>
+      <c r="A198" s="28"/>
       <c r="B198" t="s">
         <v>128</v>
       </c>
       <c r="C198" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -9747,15 +9873,15 @@
       </c>
     </row>
     <row r="199" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="22"/>
+      <c r="A199" s="28"/>
       <c r="B199" t="s">
+        <v>305</v>
+      </c>
+      <c r="C199" t="s">
         <v>307</v>
       </c>
-      <c r="C199" t="s">
-        <v>309</v>
-      </c>
       <c r="D199" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -9775,15 +9901,15 @@
       </c>
     </row>
     <row r="200" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="22"/>
+      <c r="A200" s="28"/>
       <c r="B200" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C200" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -9803,15 +9929,15 @@
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A201" s="22"/>
+      <c r="A201" s="28"/>
       <c r="B201" t="s">
         <v>129</v>
       </c>
       <c r="C201" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -9833,15 +9959,15 @@
       </c>
     </row>
     <row r="202" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="22"/>
+      <c r="A202" s="28"/>
       <c r="B202" t="s">
         <v>130</v>
       </c>
       <c r="C202" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -9863,15 +9989,15 @@
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A203" s="22"/>
+      <c r="A203" s="28"/>
       <c r="B203" t="s">
         <v>131</v>
       </c>
       <c r="C203" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -9893,15 +10019,15 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="22"/>
+      <c r="A204" s="28"/>
       <c r="B204" t="s">
         <v>132</v>
       </c>
       <c r="C204" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -9923,15 +10049,15 @@
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A205" s="22"/>
+      <c r="A205" s="28"/>
       <c r="B205" t="s">
         <v>133</v>
       </c>
       <c r="C205" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -9953,15 +10079,15 @@
       </c>
     </row>
     <row r="206" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="22"/>
+      <c r="A206" s="28"/>
       <c r="B206" t="s">
         <v>134</v>
       </c>
       <c r="C206" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -9983,15 +10109,15 @@
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A207" s="22"/>
+      <c r="A207" s="28"/>
       <c r="B207" t="s">
         <v>135</v>
       </c>
       <c r="C207" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -10013,15 +10139,15 @@
       </c>
     </row>
     <row r="208" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="22"/>
+      <c r="A208" s="28"/>
       <c r="B208" t="s">
         <v>136</v>
       </c>
       <c r="C208" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -10043,15 +10169,15 @@
       </c>
     </row>
     <row r="209" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="22"/>
+      <c r="A209" s="28"/>
       <c r="B209" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C209" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -10069,19 +10195,19 @@
         <v>39</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A210" s="22"/>
+      <c r="A210" s="28"/>
       <c r="B210" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C210" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -10099,19 +10225,19 @@
         <v>39</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A211" s="22"/>
+      <c r="A211" s="28"/>
       <c r="B211" t="s">
         <v>137</v>
       </c>
       <c r="C211" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -10129,22 +10255,22 @@
         <v>39</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L211" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="22"/>
+      <c r="A212" s="28"/>
       <c r="B212" t="s">
         <v>138</v>
       </c>
       <c r="C212" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -10169,15 +10295,15 @@
       </c>
     </row>
     <row r="213" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="22"/>
+      <c r="A213" s="28"/>
       <c r="B213" t="s">
         <v>141</v>
       </c>
       <c r="C213" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -10202,15 +10328,15 @@
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A214" s="22"/>
+      <c r="A214" s="28"/>
       <c r="B214" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C214" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -10230,15 +10356,15 @@
       </c>
     </row>
     <row r="215" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="22"/>
+      <c r="A215" s="28"/>
       <c r="B215" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C215" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -10258,15 +10384,15 @@
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A216" s="22"/>
+      <c r="A216" s="28"/>
       <c r="B216" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C216" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -10286,15 +10412,15 @@
       </c>
     </row>
     <row r="217" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="22"/>
+      <c r="A217" s="28"/>
       <c r="B217" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C217" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -10314,15 +10440,15 @@
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A218" s="22"/>
+      <c r="A218" s="28"/>
       <c r="B218" t="s">
+        <v>596</v>
+      </c>
+      <c r="C218" t="s">
         <v>598</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" s="10" t="s">
         <v>600</v>
-      </c>
-      <c r="D218" s="10" t="s">
-        <v>602</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -10342,15 +10468,15 @@
       </c>
     </row>
     <row r="219" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="22"/>
+      <c r="A219" s="28"/>
       <c r="B219" t="s">
+        <v>597</v>
+      </c>
+      <c r="C219" t="s">
         <v>599</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" s="10" t="s">
         <v>601</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>603</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -10370,7 +10496,7 @@
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A220" s="22"/>
+      <c r="A220" s="28"/>
       <c r="B220" s="8" t="s">
         <v>159</v>
       </c>
@@ -10386,15 +10512,15 @@
       <c r="L220" s="8"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A221" s="22"/>
+      <c r="A221" s="28"/>
       <c r="B221" t="s">
         <v>144</v>
       </c>
       <c r="C221" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -10416,15 +10542,15 @@
       </c>
     </row>
     <row r="222" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="22"/>
+      <c r="A222" s="28"/>
       <c r="B222" t="s">
         <v>145</v>
       </c>
       <c r="C222" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -10446,15 +10572,15 @@
       </c>
     </row>
     <row r="223" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A223" s="22"/>
+      <c r="A223" s="28"/>
       <c r="B223" t="s">
         <v>146</v>
       </c>
       <c r="C223" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -10472,22 +10598,22 @@
         <v>39</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A224" s="22"/>
+      <c r="A224" s="28"/>
       <c r="B224" t="s">
         <v>150</v>
       </c>
       <c r="C224" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -10509,15 +10635,15 @@
       </c>
     </row>
     <row r="225" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A225" s="22"/>
+      <c r="A225" s="28"/>
       <c r="B225" t="s">
         <v>151</v>
       </c>
       <c r="C225" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -10535,19 +10661,19 @@
         <v>39</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A226" s="22"/>
+      <c r="A226" s="28"/>
       <c r="B226" t="s">
         <v>152</v>
       </c>
       <c r="C226" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -10565,19 +10691,19 @@
         <v>39</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A227" s="22"/>
+      <c r="A227" s="28"/>
       <c r="B227" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C227" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -10592,22 +10718,22 @@
         <v>51</v>
       </c>
       <c r="J227" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A228" s="22"/>
+      <c r="A228" s="28"/>
       <c r="B228" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C228" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -10622,25 +10748,25 @@
         <v>51</v>
       </c>
       <c r="J228" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L228" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A229" s="22"/>
+      <c r="A229" s="28"/>
       <c r="B229" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C229" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -10655,22 +10781,22 @@
         <v>52</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A230" s="22"/>
+      <c r="A230" s="28"/>
       <c r="B230" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C230" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -10685,22 +10811,22 @@
         <v>53</v>
       </c>
       <c r="J230" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A231" s="22"/>
+      <c r="A231" s="28"/>
       <c r="B231" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C231" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -10715,25 +10841,25 @@
         <v>53</v>
       </c>
       <c r="J231" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L231" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A232" s="22"/>
+      <c r="A232" s="28"/>
       <c r="B232" t="s">
         <v>157</v>
       </c>
       <c r="C232" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -10748,22 +10874,22 @@
         <v>54</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A233" s="22"/>
+      <c r="A233" s="28"/>
       <c r="B233" t="s">
         <v>158</v>
       </c>
       <c r="C233" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -10781,14 +10907,14 @@
         <v>39</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="234" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D234" s="9"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A235" s="19" t="s">
+      <c r="A235" s="25" t="s">
         <v>161</v>
       </c>
       <c r="B235" s="7" t="s">
@@ -10806,85 +10932,85 @@
       <c r="L235" s="7"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A236" s="19"/>
+      <c r="A236" s="25"/>
       <c r="B236" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A237" s="19"/>
+      <c r="A237" s="25"/>
       <c r="B237" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A238" s="19"/>
+      <c r="A238" s="25"/>
       <c r="B238" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A239" s="19"/>
+      <c r="A239" s="25"/>
       <c r="B239" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A240" s="19"/>
+      <c r="A240" s="25"/>
       <c r="B240" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A241" s="19"/>
+      <c r="A241" s="25"/>
       <c r="B241" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A242" s="19"/>
+      <c r="A242" s="25"/>
       <c r="B242" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A243" s="19"/>
+      <c r="A243" s="25"/>
       <c r="B243" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A244" s="19"/>
+      <c r="A244" s="25"/>
       <c r="B244" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A245" s="19"/>
+      <c r="A245" s="25"/>
       <c r="B245" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A246" s="19"/>
+      <c r="A246" s="25"/>
       <c r="B246" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A247" s="19"/>
+      <c r="A247" s="25"/>
       <c r="B247" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A248" s="19"/>
+      <c r="A248" s="25"/>
       <c r="B248" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A249" s="19"/>
+      <c r="A249" s="25"/>
       <c r="B249" s="7" t="s">
         <v>168</v>
       </c>
@@ -10900,19 +11026,19 @@
       <c r="L249" s="7"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A250" s="19"/>
+      <c r="A250" s="25"/>
       <c r="B250" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A251" s="19"/>
+      <c r="A251" s="25"/>
       <c r="B251" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A252" s="19"/>
+      <c r="A252" s="25"/>
       <c r="B252" s="7" t="s">
         <v>171</v>
       </c>
@@ -10928,13 +11054,13 @@
       <c r="L252" s="7"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A253" s="19"/>
+      <c r="A253" s="25"/>
       <c r="B253" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A254" s="19"/>
+      <c r="A254" s="25"/>
       <c r="B254" t="s">
         <v>173</v>
       </c>
@@ -10943,14 +11069,14 @@
       <c r="D255" s="9"/>
     </row>
     <row r="256" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A256" s="20" t="s">
+      <c r="A256" s="26" t="s">
         <v>160</v>
       </c>
       <c r="B256" t="s">
         <v>174</v>
       </c>
       <c r="C256" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -10968,19 +11094,19 @@
         <v>0</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K256" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="257" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A257" s="20"/>
+      <c r="A257" s="26"/>
       <c r="B257" t="s">
         <v>175</v>
       </c>
       <c r="C257" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -11005,12 +11131,12 @@
       </c>
     </row>
     <row r="258" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A258" s="20"/>
+      <c r="A258" s="26"/>
       <c r="B258" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C258" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -11031,16 +11157,16 @@
         <v>39</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="259" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A259" s="20"/>
+      <c r="A259" s="26"/>
       <c r="B259" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C259" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -11061,19 +11187,19 @@
         <v>39</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A260" s="20"/>
+      <c r="A260" s="26"/>
       <c r="B260" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C260" t="s">
+        <v>548</v>
+      </c>
+      <c r="D260" s="10" t="s">
         <v>550</v>
-      </c>
-      <c r="D260" s="10" t="s">
-        <v>552</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -11094,22 +11220,22 @@
         <v>39</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L260" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="261" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A261" s="20"/>
+      <c r="A261" s="26"/>
       <c r="B261" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C261" t="s">
+        <v>547</v>
+      </c>
+      <c r="D261" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="D261" s="10" t="s">
-        <v>551</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -11130,22 +11256,22 @@
         <v>39</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A262" s="26"/>
+      <c r="B262" t="s">
+        <v>574</v>
+      </c>
+      <c r="C262" t="s">
         <v>579</v>
       </c>
-      <c r="L261" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A262" s="20"/>
-      <c r="B262" t="s">
-        <v>576</v>
-      </c>
-      <c r="C262" t="s">
-        <v>581</v>
-      </c>
       <c r="D262" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -11166,17 +11292,17 @@
         <v>39</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="263" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D263" s="9"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A264" s="21" t="s">
+      <c r="A264" s="27" t="s">
         <v>178</v>
       </c>
       <c r="B264" t="s">
@@ -11184,85 +11310,85 @@
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A265" s="21"/>
+      <c r="A265" s="27"/>
       <c r="B265" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A266" s="21"/>
+      <c r="A266" s="27"/>
       <c r="B266" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A267" s="21"/>
+      <c r="A267" s="27"/>
       <c r="B267" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A268" s="21"/>
+      <c r="A268" s="27"/>
       <c r="B268" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A269" s="21"/>
+      <c r="A269" s="27"/>
       <c r="B269" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A270" s="21"/>
+      <c r="A270" s="27"/>
       <c r="B270" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A271" s="21"/>
+      <c r="A271" s="27"/>
       <c r="B271" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A272" s="21"/>
+      <c r="A272" s="27"/>
       <c r="B272" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="21"/>
+      <c r="A273" s="27"/>
       <c r="B273" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="21"/>
+      <c r="A274" s="27"/>
       <c r="B274" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="21"/>
+      <c r="A275" s="27"/>
       <c r="B275" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="21"/>
+      <c r="A276" s="27"/>
       <c r="B276" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="21"/>
+      <c r="A277" s="27"/>
       <c r="B277" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="21"/>
+      <c r="A278" s="27"/>
       <c r="B278" t="s">
         <v>190</v>
       </c>
@@ -11286,4 +11412,410 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C4" t="s">
+        <v>825</v>
+      </c>
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>823</v>
+      </c>
+      <c r="C7" t="s">
+        <v>824</v>
+      </c>
+      <c r="D7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>828</v>
+      </c>
+      <c r="C14" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" t="s">
+        <v>829</v>
+      </c>
+      <c r="C15" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" t="s">
+        <v>830</v>
+      </c>
+      <c r="C16" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" t="s">
+        <v>831</v>
+      </c>
+      <c r="C17" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>836</v>
+      </c>
+      <c r="C20" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>838</v>
+      </c>
+      <c r="C27" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" t="s">
+        <v>840</v>
+      </c>
+      <c r="C28" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" t="s">
+        <v>842</v>
+      </c>
+      <c r="C30" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" t="s">
+        <v>844</v>
+      </c>
+      <c r="C31" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" t="s">
+        <v>846</v>
+      </c>
+      <c r="C32" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A20:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/藍芽傳輸規劃0923.xlsx
+++ b/藍芽傳輸規劃0923.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
@@ -2579,15 +2579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"Status":short
-"FileName":string
-"Orders":[{"Order":unsigned int}, ...]
-"Description":string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AppQuitGame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3675,6 +3666,15 @@
 non代表不須回傳的訊息(不可證實)
 ack代表告知收到的那個訊息
 ret代表回傳資訊的訊息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Status":short
+"FileName":string
+"Order":unsigned int
+"Description":string
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4171,9 +4171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M278"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4192,24 +4192,24 @@
     <col min="12" max="12" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>815</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>195</v>
@@ -4233,17 +4233,17 @@
     <row r="2" spans="1:13" s="21" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="C2" s="16" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="16" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K6" t="s">
         <v>192</v>
@@ -4530,7 +4530,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>332</v>
@@ -5280,10 +5280,10 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>356</v>
@@ -5310,10 +5310,10 @@
     <row r="40" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
       <c r="B40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C40" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>357</v>
@@ -5340,13 +5340,13 @@
     <row r="41" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
       <c r="B41" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5370,13 +5370,13 @@
     <row r="42" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
       <c r="B42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C42" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5400,10 +5400,10 @@
     <row r="43" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>358</v>
@@ -5430,10 +5430,10 @@
     <row r="44" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C44" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>359</v>
@@ -5460,13 +5460,13 @@
     <row r="45" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A45" s="29"/>
       <c r="B45" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5490,13 +5490,13 @@
     <row r="46" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
       <c r="B46" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5520,10 +5520,10 @@
     <row r="47" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>360</v>
@@ -5550,10 +5550,10 @@
     <row r="48" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C48" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>361</v>
@@ -5580,13 +5580,13 @@
     <row r="49" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
       <c r="B49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C49" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -5610,13 +5610,13 @@
     <row r="50" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
       <c r="B50" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C50" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5640,10 +5640,10 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
       <c r="B51" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C51" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>362</v>
@@ -5670,10 +5670,10 @@
     <row r="52" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
       <c r="B52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C52" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>363</v>
@@ -5700,13 +5700,13 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="29"/>
       <c r="B53" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C53" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -5730,13 +5730,13 @@
     <row r="54" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
       <c r="B54" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C54" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5760,10 +5760,10 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
       <c r="B55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C55" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>364</v>
@@ -5790,13 +5790,13 @@
     <row r="56" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A56" s="29"/>
       <c r="B56" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C56" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5820,13 +5820,13 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
       <c r="B57" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C57" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -5850,13 +5850,13 @@
     <row r="58" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A58" s="29"/>
       <c r="B58" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C58" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5880,10 +5880,10 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C59" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>365</v>
@@ -5904,16 +5904,16 @@
         <v>39</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C60" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>366</v>
@@ -5940,13 +5940,13 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C61" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -5964,19 +5964,19 @@
         <v>39</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C62" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -6000,10 +6000,10 @@
     <row r="63" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C63" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>367</v>
@@ -6030,10 +6030,10 @@
     <row r="64" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C64" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>368</v>
@@ -6060,13 +6060,13 @@
     <row r="65" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C65" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -6090,13 +6090,13 @@
     <row r="66" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C66" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -6120,13 +6120,13 @@
     <row r="67" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C67" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6150,10 +6150,10 @@
     <row r="68" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C68" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>369</v>
@@ -6180,13 +6180,13 @@
     <row r="69" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C69" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -6210,13 +6210,13 @@
     <row r="70" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C70" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6240,10 +6240,10 @@
     <row r="71" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
       <c r="B71" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C71" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>370</v>
@@ -6270,13 +6270,13 @@
     <row r="72" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C72" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -6300,13 +6300,13 @@
     <row r="73" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C73" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -6330,13 +6330,13 @@
     <row r="74" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C74" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6360,13 +6360,13 @@
     <row r="75" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C75" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6390,13 +6390,13 @@
     <row r="76" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C76" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -6420,13 +6420,13 @@
     <row r="77" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="B77" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C77" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6450,13 +6450,13 @@
     <row r="78" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
       <c r="B78" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C78" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6480,13 +6480,13 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C79" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6508,13 +6508,13 @@
     <row r="80" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
       <c r="B80" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C80" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -6532,19 +6532,19 @@
         <v>39</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C81" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -6566,13 +6566,13 @@
     <row r="82" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
       <c r="B82" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C82" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6590,19 +6590,19 @@
         <v>39</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
       <c r="B83" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C83" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6626,13 +6626,13 @@
     <row r="84" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A84" s="29"/>
       <c r="B84" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C84" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -6650,19 +6650,19 @@
         <v>39</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
       <c r="B85" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C85" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -6686,13 +6686,13 @@
     <row r="86" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
       <c r="B86" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C86" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6710,19 +6710,19 @@
         <v>39</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6744,13 +6744,13 @@
     <row r="88" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C88" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -6772,13 +6772,13 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C89" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -6800,13 +6800,13 @@
     <row r="90" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C90" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,13 +6828,13 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
       <c r="B91" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C91" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6856,13 +6856,13 @@
     <row r="92" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
       <c r="B92" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C92" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -6886,13 +6886,13 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
       <c r="B93" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C93" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -6914,13 +6914,13 @@
     <row r="94" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
       <c r="B94" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C94" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6944,13 +6944,13 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
       <c r="B95" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C95" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -6970,13 +6970,13 @@
     <row r="96" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
       <c r="B96" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C96" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -6992,19 +6992,19 @@
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="29"/>
       <c r="B97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C97" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -7024,13 +7024,13 @@
     <row r="98" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A98" s="29"/>
       <c r="B98" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C98" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7046,19 +7046,19 @@
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
       <c r="B99" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C99" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7074,19 +7074,19 @@
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
       <c r="B100" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C100" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -7106,13 +7106,13 @@
     <row r="101" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A101" s="29"/>
       <c r="B101" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C101" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -7128,19 +7128,19 @@
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="29"/>
       <c r="B102" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C102" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7160,13 +7160,13 @@
     <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A103" s="29"/>
       <c r="B103" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C103" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7182,19 +7182,19 @@
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="29"/>
       <c r="B104" t="s">
+        <v>783</v>
+      </c>
+      <c r="C104" t="s">
         <v>784</v>
       </c>
-      <c r="C104" t="s">
-        <v>785</v>
-      </c>
       <c r="D104" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -7214,13 +7214,13 @@
     <row r="105" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A105" s="29"/>
       <c r="B105" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C105" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -7236,19 +7236,19 @@
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="29"/>
       <c r="B106" t="s">
+        <v>785</v>
+      </c>
+      <c r="C106" t="s">
         <v>786</v>
       </c>
-      <c r="C106" t="s">
-        <v>787</v>
-      </c>
       <c r="D106" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7268,13 +7268,13 @@
     <row r="107" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A107" s="29"/>
       <c r="B107" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C107" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -7290,19 +7290,19 @@
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A108" s="29"/>
       <c r="B108" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C108" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -7321,19 +7321,19 @@
         <v>58</v>
       </c>
       <c r="L108" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A109" s="29"/>
       <c r="B109" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C109" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -7349,19 +7349,19 @@
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="29"/>
       <c r="B110" t="s">
+        <v>787</v>
+      </c>
+      <c r="C110" t="s">
         <v>788</v>
       </c>
-      <c r="C110" t="s">
-        <v>789</v>
-      </c>
       <c r="D110" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -7477,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>41</v>
@@ -7507,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>197</v>
@@ -7540,10 +7540,10 @@
         <v>2</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>593</v>
+        <v>851</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>113</v>
@@ -7573,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>41</v>
@@ -7603,7 +7603,7 @@
         <v>3</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>197</v>
@@ -7636,7 +7636,7 @@
         <v>4</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>524</v>
@@ -7756,7 +7756,7 @@
         <v>9</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>193</v>
@@ -7786,7 +7786,7 @@
         <v>9</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>197</v>
@@ -7819,7 +7819,7 @@
         <v>10</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>524</v>
@@ -8032,7 +8032,7 @@
         <v>39</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>593</v>
+        <v>851</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>113</v>
@@ -8062,7 +8062,7 @@
         <v>15</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>193</v>
@@ -8092,7 +8092,7 @@
         <v>15</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>40</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>56</v>
@@ -8220,7 +8220,7 @@
         <v>2</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>193</v>
@@ -8250,7 +8250,7 @@
         <v>2</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>40</v>
@@ -8283,7 +8283,7 @@
         <v>3</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>60</v>
@@ -9262,7 +9262,7 @@
         <v>3</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>193</v>
@@ -9292,7 +9292,7 @@
         <v>3</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>197</v>
@@ -9325,10 +9325,10 @@
         <v>4</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>593</v>
+        <v>851</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -9355,7 +9355,7 @@
         <v>5</v>
       </c>
       <c r="J181" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>193</v>
@@ -9385,7 +9385,7 @@
         <v>5</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>197</v>
@@ -9418,7 +9418,7 @@
         <v>6</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>525</v>
@@ -10389,7 +10389,7 @@
         <v>303</v>
       </c>
       <c r="C216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>472</v>
@@ -10417,7 +10417,7 @@
         <v>304</v>
       </c>
       <c r="C217" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>473</v>
@@ -10442,13 +10442,13 @@
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C218" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -10470,13 +10470,13 @@
     <row r="219" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A219" s="28"/>
       <c r="B219" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C219" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -10598,10 +10598,10 @@
         <v>39</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -10718,7 +10718,7 @@
         <v>51</v>
       </c>
       <c r="J227" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>193</v>
@@ -10748,7 +10748,7 @@
         <v>51</v>
       </c>
       <c r="J228" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K228" s="1" t="s">
         <v>197</v>
@@ -10784,7 +10784,7 @@
         <v>592</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>593</v>
+        <v>851</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -10811,7 +10811,7 @@
         <v>53</v>
       </c>
       <c r="J230" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>193</v>
@@ -10841,7 +10841,7 @@
         <v>53</v>
       </c>
       <c r="J231" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K231" s="1" t="s">
         <v>197</v>
@@ -10874,7 +10874,7 @@
         <v>54</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K232" s="1" t="s">
         <v>525</v>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K256" t="s">
         <v>559</v>
@@ -11418,7 +11418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
@@ -11437,16 +11437,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -11473,10 +11473,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D4" t="s">
         <v>216</v>
@@ -11505,10 +11505,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C7" t="s">
         <v>823</v>
-      </c>
-      <c r="C7" t="s">
-        <v>824</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -11571,37 +11571,37 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C14" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C16" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -11624,10 +11624,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
+        <v>835</v>
+      </c>
+      <c r="C20" t="s">
         <v>836</v>
-      </c>
-      <c r="C20" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -11684,19 +11684,19 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
+        <v>837</v>
+      </c>
+      <c r="C27" t="s">
         <v>838</v>
-      </c>
-      <c r="C27" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" t="s">
+        <v>839</v>
+      </c>
+      <c r="C28" t="s">
         <v>840</v>
-      </c>
-      <c r="C28" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -11705,28 +11705,28 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" t="s">
+        <v>841</v>
+      </c>
+      <c r="C30" t="s">
         <v>842</v>
-      </c>
-      <c r="C30" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" t="s">
+        <v>843</v>
+      </c>
+      <c r="C31" t="s">
         <v>844</v>
-      </c>
-      <c r="C31" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
+        <v>845</v>
+      </c>
+      <c r="C32" t="s">
         <v>846</v>
-      </c>
-      <c r="C32" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">

--- a/藍芽傳輸規劃0923.xlsx
+++ b/藍芽傳輸規劃0923.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="865">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1226,15 +1226,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RequestRewriteSheetmusicFileSegment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RewriteSheetmusicFileSegment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinishWriteSheetmusic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2278,14 +2270,6 @@
   </si>
   <si>
     <t>{
-"Status":short
-"Id":unsigned int
-"Description":string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "Key":short
 "Volume":short
 }</t>
@@ -2455,18 +2439,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status:0代表沒有琴裡這首曲子，可以接收；-1代表已收到這首曲子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id就是filename去除副檔名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"Id":unsigned int
-"FileName":string
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3675,6 +3648,91 @@
 "Order":unsigned int
 "Description":string
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Status":short
+"FileName":string
+"Description":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求傳送譜檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到要求傳送譜檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status:0代表沒有琴裡這首曲子，可以接收；-1代表已收到這首曲子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status:0代表將開始傳送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestSheetmusicFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckRequestSheetmusicFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishWriteSheetmusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestRewriteSheetmusicFileSegment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostPlayRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求傳送重播譜檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到要求傳送重播譜檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckPostPlayRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Status":short
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status是0代表ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4169,11 +4227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M278"/>
+  <dimension ref="A1:M282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4197,19 +4255,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>195</v>
@@ -4233,17 +4291,17 @@
     <row r="2" spans="1:13" s="21" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="C2" s="16" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="16" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -4262,7 +4320,7 @@
         <v>204</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4280,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K4" t="s">
         <v>197</v>
@@ -4298,7 +4356,7 @@
         <v>206</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4316,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="K5" t="s">
         <v>197</v>
@@ -4334,7 +4392,7 @@
         <v>208</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4352,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K6" t="s">
         <v>192</v>
@@ -4367,7 +4425,7 @@
         <v>210</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4388,7 +4446,7 @@
         <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L7" s="16"/>
     </row>
@@ -4401,7 +4459,7 @@
         <v>211</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4434,7 +4492,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4467,7 +4525,7 @@
         <v>213</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4500,7 +4558,7 @@
         <v>214</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4530,10 +4588,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4566,7 +4624,7 @@
         <v>215</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4599,7 +4657,7 @@
         <v>216</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4632,7 +4690,7 @@
         <v>217</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4653,7 +4711,7 @@
         <v>39</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
@@ -4665,7 +4723,7 @@
         <v>218</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4686,7 +4744,7 @@
         <v>39</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
@@ -4698,7 +4756,7 @@
         <v>219</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4736,7 +4794,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4766,7 +4824,7 @@
         <v>221</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4796,7 +4854,7 @@
         <v>223</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4826,7 +4884,7 @@
         <v>222</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4856,7 +4914,7 @@
         <v>224</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4886,7 +4944,7 @@
         <v>225</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4916,7 +4974,7 @@
         <v>226</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4946,7 +5004,7 @@
         <v>227</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4981,7 +5039,7 @@
         <v>228</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -5011,7 +5069,7 @@
         <v>229</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5041,7 +5099,7 @@
         <v>230</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5071,7 +5129,7 @@
         <v>231</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5101,7 +5159,7 @@
         <v>232</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5131,7 +5189,7 @@
         <v>233</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -5161,7 +5219,7 @@
         <v>234</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -5191,7 +5249,7 @@
         <v>235</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5221,7 +5279,7 @@
         <v>237</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5251,7 +5309,7 @@
         <v>236</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5280,13 +5338,13 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C39" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5310,13 +5368,13 @@
     <row r="40" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
       <c r="B40" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C40" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5340,13 +5398,13 @@
     <row r="41" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
       <c r="B41" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C41" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5370,13 +5428,13 @@
     <row r="42" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
       <c r="B42" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C42" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5400,13 +5458,13 @@
     <row r="43" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C43" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5430,13 +5488,13 @@
     <row r="44" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C44" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -5460,13 +5518,13 @@
     <row r="45" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A45" s="29"/>
       <c r="B45" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C45" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5490,13 +5548,13 @@
     <row r="46" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
       <c r="B46" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C46" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5520,13 +5578,13 @@
     <row r="47" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C47" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5550,13 +5608,13 @@
     <row r="48" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C48" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5580,13 +5638,13 @@
     <row r="49" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
       <c r="B49" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C49" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -5610,13 +5668,13 @@
     <row r="50" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
       <c r="B50" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C50" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5640,13 +5698,13 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
       <c r="B51" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C51" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5670,13 +5728,13 @@
     <row r="52" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
       <c r="B52" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C52" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -5700,13 +5758,13 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="29"/>
       <c r="B53" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C53" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -5730,13 +5788,13 @@
     <row r="54" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
       <c r="B54" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C54" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5760,13 +5818,13 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
       <c r="B55" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C55" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5790,13 +5848,13 @@
     <row r="56" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A56" s="29"/>
       <c r="B56" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C56" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5820,13 +5878,13 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
       <c r="B57" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C57" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -5850,13 +5908,13 @@
     <row r="58" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A58" s="29"/>
       <c r="B58" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C58" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5880,13 +5938,13 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C59" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5904,19 +5962,19 @@
         <v>39</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C60" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -5940,13 +5998,13 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C61" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -5964,19 +6022,19 @@
         <v>39</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C62" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -6000,13 +6058,13 @@
     <row r="63" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C63" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -6030,13 +6088,13 @@
     <row r="64" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C64" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -6060,13 +6118,13 @@
     <row r="65" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C65" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -6090,13 +6148,13 @@
     <row r="66" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C66" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -6120,13 +6178,13 @@
     <row r="67" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C67" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6150,13 +6208,13 @@
     <row r="68" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C68" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -6180,13 +6238,13 @@
     <row r="69" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C69" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -6210,13 +6268,13 @@
     <row r="70" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C70" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6240,13 +6298,13 @@
     <row r="71" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
       <c r="B71" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C71" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6270,13 +6328,13 @@
     <row r="72" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C72" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -6300,13 +6358,13 @@
     <row r="73" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C73" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -6330,13 +6388,13 @@
     <row r="74" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C74" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6360,13 +6418,13 @@
     <row r="75" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C75" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6390,13 +6448,13 @@
     <row r="76" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C76" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -6420,13 +6478,13 @@
     <row r="77" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="B77" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C77" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6450,13 +6508,13 @@
     <row r="78" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
       <c r="B78" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C78" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6480,13 +6538,13 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C79" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6508,13 +6566,13 @@
     <row r="80" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
       <c r="B80" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C80" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -6532,19 +6590,19 @@
         <v>39</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C81" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -6566,13 +6624,13 @@
     <row r="82" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
       <c r="B82" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C82" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6590,19 +6648,19 @@
         <v>39</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
       <c r="B83" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C83" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6626,13 +6684,13 @@
     <row r="84" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A84" s="29"/>
       <c r="B84" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C84" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -6650,19 +6708,19 @@
         <v>39</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
       <c r="B85" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C85" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -6686,13 +6744,13 @@
     <row r="86" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
       <c r="B86" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C86" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6710,19 +6768,19 @@
         <v>39</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C87" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6744,13 +6802,13 @@
     <row r="88" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C88" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -6772,13 +6830,13 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C89" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -6800,13 +6858,13 @@
     <row r="90" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C90" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6828,13 +6886,13 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
       <c r="B91" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C91" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6856,13 +6914,13 @@
     <row r="92" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
       <c r="B92" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C92" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -6886,13 +6944,13 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
       <c r="B93" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C93" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -6914,13 +6972,13 @@
     <row r="94" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
       <c r="B94" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C94" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6944,13 +7002,13 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
       <c r="B95" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C95" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -6970,13 +7028,13 @@
     <row r="96" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
       <c r="B96" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C96" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -6992,19 +7050,19 @@
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="29"/>
       <c r="B97" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C97" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -7024,13 +7082,13 @@
     <row r="98" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A98" s="29"/>
       <c r="B98" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C98" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7046,19 +7104,19 @@
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
       <c r="B99" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C99" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7074,19 +7132,19 @@
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
       <c r="B100" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C100" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -7106,13 +7164,13 @@
     <row r="101" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A101" s="29"/>
       <c r="B101" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C101" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -7128,19 +7186,19 @@
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="29"/>
       <c r="B102" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C102" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7160,13 +7218,13 @@
     <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A103" s="29"/>
       <c r="B103" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C103" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7182,19 +7240,19 @@
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="29"/>
       <c r="B104" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C104" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -7214,13 +7272,13 @@
     <row r="105" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A105" s="29"/>
       <c r="B105" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C105" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -7236,19 +7294,19 @@
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="29"/>
       <c r="B106" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C106" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7268,13 +7326,13 @@
     <row r="107" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A107" s="29"/>
       <c r="B107" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C107" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -7290,19 +7348,19 @@
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A108" s="29"/>
       <c r="B108" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C108" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -7321,19 +7379,19 @@
         <v>58</v>
       </c>
       <c r="L108" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A109" s="29"/>
       <c r="B109" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C109" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -7349,19 +7407,19 @@
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="29"/>
       <c r="B110" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C110" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -7399,10 +7457,10 @@
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -7420,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -7429,10 +7487,10 @@
         <v>38</v>
       </c>
       <c r="C115" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -7459,10 +7517,10 @@
         <v>248</v>
       </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -7477,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>41</v>
@@ -7489,10 +7547,10 @@
         <v>249</v>
       </c>
       <c r="C117" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -7507,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>197</v>
@@ -7525,7 +7583,7 @@
         <v>243</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -7540,10 +7598,10 @@
         <v>2</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>113</v>
@@ -7558,7 +7616,7 @@
         <v>244</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -7573,7 +7631,7 @@
         <v>3</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>41</v>
@@ -7585,10 +7643,10 @@
         <v>252</v>
       </c>
       <c r="C120" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -7603,7 +7661,7 @@
         <v>3</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>197</v>
@@ -7621,7 +7679,7 @@
         <v>238</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -7636,10 +7694,10 @@
         <v>4</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -7648,10 +7706,10 @@
         <v>47</v>
       </c>
       <c r="C122" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -7669,19 +7727,19 @@
         <v>39</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A123" s="28"/>
       <c r="B123" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C123" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -7699,19 +7757,19 @@
         <v>39</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
       <c r="B124" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C124" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -7729,7 +7787,7 @@
         <v>42</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -7738,10 +7796,10 @@
         <v>253</v>
       </c>
       <c r="C125" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -7756,7 +7814,7 @@
         <v>9</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>193</v>
@@ -7768,10 +7826,10 @@
         <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -7786,7 +7844,7 @@
         <v>9</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>197</v>
@@ -7804,7 +7862,7 @@
         <v>239</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -7819,10 +7877,10 @@
         <v>10</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -7831,10 +7889,10 @@
         <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -7852,7 +7910,7 @@
         <v>39</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -7864,7 +7922,7 @@
         <v>240</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -7882,7 +7940,7 @@
         <v>39</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -7891,10 +7949,10 @@
         <v>51</v>
       </c>
       <c r="C130" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -7912,7 +7970,7 @@
         <v>39</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -7924,7 +7982,7 @@
         <v>241</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -7942,7 +8000,7 @@
         <v>39</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -7954,7 +8012,7 @@
         <v>242</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -7972,7 +8030,7 @@
         <v>39</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -7984,7 +8042,7 @@
         <v>247</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -8002,7 +8060,7 @@
         <v>39</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
@@ -8014,7 +8072,7 @@
         <v>245</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -8032,7 +8090,7 @@
         <v>39</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>113</v>
@@ -8047,7 +8105,7 @@
         <v>246</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -8062,7 +8120,7 @@
         <v>15</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>193</v>
@@ -8074,10 +8132,10 @@
         <v>257</v>
       </c>
       <c r="C136" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -8092,7 +8150,7 @@
         <v>15</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>40</v>
@@ -8115,7 +8173,7 @@
         <v>258</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -8130,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>56</v>
@@ -8142,10 +8200,10 @@
         <v>57</v>
       </c>
       <c r="C139" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -8175,7 +8233,7 @@
         <v>259</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -8202,10 +8260,10 @@
         <v>260</v>
       </c>
       <c r="C141" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -8220,7 +8278,7 @@
         <v>2</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>193</v>
@@ -8232,10 +8290,10 @@
         <v>261</v>
       </c>
       <c r="C142" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -8250,7 +8308,7 @@
         <v>2</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>40</v>
@@ -8265,10 +8323,10 @@
         <v>59</v>
       </c>
       <c r="C143" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -8283,7 +8341,7 @@
         <v>3</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>60</v>
@@ -8295,10 +8353,10 @@
         <v>61</v>
       </c>
       <c r="C144" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -8325,10 +8383,10 @@
         <v>62</v>
       </c>
       <c r="C145" t="s">
+        <v>400</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>404</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -8355,10 +8413,10 @@
         <v>63</v>
       </c>
       <c r="C146" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -8385,10 +8443,10 @@
         <v>67</v>
       </c>
       <c r="C147" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -8415,10 +8473,10 @@
         <v>68</v>
       </c>
       <c r="C148" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -8445,10 +8503,10 @@
         <v>69</v>
       </c>
       <c r="C149" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -8475,10 +8533,10 @@
         <v>71</v>
       </c>
       <c r="C150" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -8502,13 +8560,13 @@
     <row r="151" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
       <c r="B151" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C151" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -8543,7 +8601,7 @@
         <v>262</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -8573,7 +8631,7 @@
         <v>265</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -8603,7 +8661,7 @@
         <v>263</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -8621,7 +8679,7 @@
         <v>42</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
@@ -8630,10 +8688,10 @@
         <v>76</v>
       </c>
       <c r="C156" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -8651,7 +8709,7 @@
         <v>42</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
@@ -8663,7 +8721,7 @@
         <v>264</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -8693,7 +8751,7 @@
         <v>266</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -8728,7 +8786,7 @@
         <v>267</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -8758,7 +8816,7 @@
         <v>268</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -8779,7 +8837,7 @@
         <v>90</v>
       </c>
       <c r="L161" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -8791,7 +8849,7 @@
         <v>269</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -8821,7 +8879,7 @@
         <v>270</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -8839,7 +8897,7 @@
         <v>39</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -8851,7 +8909,7 @@
         <v>271</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -8878,10 +8936,10 @@
         <v>92</v>
       </c>
       <c r="C165" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -8911,7 +8969,7 @@
         <v>272</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -8941,7 +8999,7 @@
         <v>273</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -8959,7 +9017,7 @@
         <v>39</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -8971,7 +9029,7 @@
         <v>274</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -8998,10 +9056,10 @@
         <v>95</v>
       </c>
       <c r="C169" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -9052,7 +9110,7 @@
         <v>275</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -9070,7 +9128,7 @@
         <v>39</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -9082,7 +9140,7 @@
         <v>276</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -9100,10 +9158,10 @@
         <v>39</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -9115,7 +9173,7 @@
         <v>277</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -9133,10 +9191,10 @@
         <v>39</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L174" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -9145,10 +9203,10 @@
         <v>106</v>
       </c>
       <c r="C175" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -9166,22 +9224,22 @@
         <v>39</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L175" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A176" s="28"/>
       <c r="B176" t="s">
         <v>107</v>
       </c>
       <c r="C176" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -9199,10 +9257,10 @@
         <v>39</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>571</v>
+        <v>857</v>
       </c>
       <c r="L176" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -9211,10 +9269,10 @@
         <v>108</v>
       </c>
       <c r="C177" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -9232,25 +9290,22 @@
         <v>39</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>536</v>
+        <v>848</v>
       </c>
       <c r="L177" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="B178" t="s">
-        <v>278</v>
+        <v>849</v>
       </c>
       <c r="C178" t="s">
-        <v>319</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>434</v>
+        <v>853</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9261,26 +9316,23 @@
       <c r="I178">
         <v>3</v>
       </c>
-      <c r="J178" s="17" t="s">
-        <v>816</v>
+      <c r="J178" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>193</v>
+        <v>847</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A179" s="28"/>
       <c r="B179" t="s">
-        <v>279</v>
+        <v>850</v>
       </c>
       <c r="C179" t="s">
-        <v>503</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>435</v>
+        <v>854</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -9291,29 +9343,29 @@
       <c r="I179">
         <v>3</v>
       </c>
-      <c r="J179" s="5" t="s">
-        <v>818</v>
+      <c r="J179" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L179" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+      <c r="L179" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A180" s="28"/>
       <c r="B180" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C180" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -9322,88 +9374,88 @@
         <v>8</v>
       </c>
       <c r="I180">
-        <v>4</v>
-      </c>
-      <c r="J180" s="4" t="s">
-        <v>815</v>
+        <v>3</v>
+      </c>
+      <c r="J180" s="17" t="s">
+        <v>811</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A181" s="28"/>
       <c r="B181" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C181" t="s">
-        <v>284</v>
+        <v>501</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>8</v>
       </c>
       <c r="I181">
-        <v>5</v>
-      </c>
-      <c r="J181" s="17" t="s">
-        <v>816</v>
+        <v>3</v>
+      </c>
+      <c r="J181" s="5" t="s">
+        <v>813</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A182" s="28"/>
       <c r="B182" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C182" t="s">
-        <v>504</v>
+        <v>856</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F182">
         <v>1</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>8</v>
       </c>
       <c r="I182">
-        <v>5</v>
-      </c>
-      <c r="J182" s="5" t="s">
-        <v>818</v>
+        <v>4</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>810</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L182" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A183" s="28"/>
       <c r="B183" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="C183" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -9415,25 +9467,25 @@
         <v>8</v>
       </c>
       <c r="I183">
-        <v>6</v>
-      </c>
-      <c r="J183" s="4" t="s">
-        <v>815</v>
+        <v>5</v>
+      </c>
+      <c r="J183" s="17" t="s">
+        <v>811</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>525</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A184" s="28"/>
       <c r="B184" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="C184" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -9445,25 +9497,28 @@
         <v>8</v>
       </c>
       <c r="I184">
-        <v>6</v>
-      </c>
-      <c r="J184" s="4" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>813</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A185" s="28"/>
       <c r="B185" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C185" t="s">
-        <v>286</v>
+        <v>855</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -9475,25 +9530,25 @@
         <v>8</v>
       </c>
       <c r="I185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>39</v>
+        <v>810</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A186" s="28"/>
       <c r="B186" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C186" t="s">
-        <v>588</v>
+        <v>503</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -9505,28 +9560,28 @@
         <v>8</v>
       </c>
       <c r="I186">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J186" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A187" s="28"/>
       <c r="B187" t="s">
-        <v>115</v>
-      </c>
-      <c r="C187" s="18" t="s">
-        <v>287</v>
+        <v>112</v>
+      </c>
+      <c r="C187" t="s">
+        <v>284</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -9535,28 +9590,28 @@
         <v>8</v>
       </c>
       <c r="I187">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J187" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K187" t="s">
-        <v>35</v>
+      <c r="K187" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A188" s="28"/>
       <c r="B188" t="s">
-        <v>116</v>
-      </c>
-      <c r="C188" s="18" t="s">
-        <v>506</v>
+        <v>114</v>
+      </c>
+      <c r="C188" t="s">
+        <v>583</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -9565,7 +9620,7 @@
         <v>8</v>
       </c>
       <c r="I188">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J188" s="4" t="s">
         <v>39</v>
@@ -9576,159 +9631,153 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="28"/>
-      <c r="B189" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C189" s="8"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
-      <c r="L189" s="8"/>
-    </row>
-    <row r="190" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>115</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>8</v>
+      </c>
+      <c r="I189">
+        <v>8</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K189" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A190" s="28"/>
       <c r="B190" t="s">
-        <v>148</v>
-      </c>
-      <c r="C190" t="s">
-        <v>288</v>
+        <v>116</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>504</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>8</v>
       </c>
       <c r="I190">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J190" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="28"/>
-      <c r="B191" t="s">
-        <v>149</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="D191" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-      <c r="H191">
-        <v>8</v>
-      </c>
-      <c r="I191">
-        <v>16</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K191" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="B191" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C191" s="8"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
+      <c r="J191" s="8"/>
+      <c r="K191" s="8"/>
+      <c r="L191" s="8"/>
+    </row>
+    <row r="192" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A192" s="28"/>
       <c r="B192" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C192" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F192">
         <v>1</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>8</v>
       </c>
       <c r="I192">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J192" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L192" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A193" s="28"/>
       <c r="B193" t="s">
-        <v>119</v>
-      </c>
-      <c r="C193" t="s">
-        <v>290</v>
+        <v>149</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>505</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
         <v>8</v>
       </c>
       <c r="I193">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J193" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L193" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A194" s="28"/>
       <c r="B194" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C194" t="s">
-        <v>508</v>
+        <v>287</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -9737,28 +9786,31 @@
         <v>8</v>
       </c>
       <c r="I194">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
+      </c>
+      <c r="L194" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A195" s="28"/>
       <c r="B195" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C195" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -9767,13 +9819,13 @@
         <v>8</v>
       </c>
       <c r="I195">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J195" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L195" t="s">
         <v>121</v>
@@ -9782,16 +9834,16 @@
     <row r="196" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A196" s="28"/>
       <c r="B196" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C196" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -9800,7 +9852,7 @@
         <v>8</v>
       </c>
       <c r="I196">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J196" s="4" t="s">
         <v>39</v>
@@ -9812,13 +9864,13 @@
     <row r="197" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A197" s="28"/>
       <c r="B197" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C197" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -9830,13 +9882,13 @@
         <v>8</v>
       </c>
       <c r="I197">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J197" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L197" t="s">
         <v>121</v>
@@ -9845,13 +9897,13 @@
     <row r="198" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A198" s="28"/>
       <c r="B198" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C198" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -9863,7 +9915,7 @@
         <v>8</v>
       </c>
       <c r="I198">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J198" s="4" t="s">
         <v>39</v>
@@ -9875,13 +9927,13 @@
     <row r="199" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A199" s="28"/>
       <c r="B199" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="C199" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -9893,23 +9945,28 @@
         <v>8</v>
       </c>
       <c r="I199">
-        <v>21</v>
-      </c>
-      <c r="J199" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K199" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="L199" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A200" s="28"/>
       <c r="B200" t="s">
-        <v>306</v>
+        <v>128</v>
       </c>
       <c r="C200" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -9921,26 +9978,28 @@
         <v>8</v>
       </c>
       <c r="I200">
-        <v>21</v>
-      </c>
-      <c r="J200" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K200" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A201" s="28"/>
       <c r="B201" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="C201" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -9949,28 +10008,26 @@
         <v>8</v>
       </c>
       <c r="I201">
-        <v>22</v>
-      </c>
-      <c r="J201" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K201" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="J201" s="4"/>
+      <c r="K201" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A202" s="28"/>
       <c r="B202" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="C202" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -9979,28 +10036,26 @@
         <v>8</v>
       </c>
       <c r="I202">
-        <v>22</v>
-      </c>
-      <c r="J202" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J202" s="4"/>
       <c r="K202" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="28"/>
       <c r="B203" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C203" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -10009,7 +10064,7 @@
         <v>8</v>
       </c>
       <c r="I203">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J203" s="4" t="s">
         <v>39</v>
@@ -10021,16 +10076,16 @@
     <row r="204" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A204" s="28"/>
       <c r="B204" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C204" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -10039,7 +10094,7 @@
         <v>8</v>
       </c>
       <c r="I204">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J204" s="4" t="s">
         <v>39</v>
@@ -10051,16 +10106,16 @@
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="28"/>
       <c r="B205" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C205" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -10069,7 +10124,7 @@
         <v>8</v>
       </c>
       <c r="I205">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J205" s="4" t="s">
         <v>39</v>
@@ -10081,16 +10136,16 @@
     <row r="206" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A206" s="28"/>
       <c r="B206" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C206" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -10099,7 +10154,7 @@
         <v>8</v>
       </c>
       <c r="I206">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J206" s="4" t="s">
         <v>39</v>
@@ -10111,16 +10166,16 @@
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="28"/>
       <c r="B207" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C207" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -10129,7 +10184,7 @@
         <v>8</v>
       </c>
       <c r="I207">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J207" s="4" t="s">
         <v>39</v>
@@ -10141,16 +10196,16 @@
     <row r="208" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A208" s="28"/>
       <c r="B208" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C208" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -10159,7 +10214,7 @@
         <v>8</v>
       </c>
       <c r="I208">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J208" s="4" t="s">
         <v>39</v>
@@ -10168,46 +10223,46 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="28"/>
       <c r="B209" t="s">
-        <v>562</v>
+        <v>135</v>
       </c>
       <c r="C209" t="s">
-        <v>560</v>
+        <v>294</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>8</v>
       </c>
       <c r="I209">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J209" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K209" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K209" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A210" s="28"/>
       <c r="B210" t="s">
-        <v>563</v>
+        <v>136</v>
       </c>
       <c r="C210" t="s">
-        <v>561</v>
+        <v>513</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -10219,25 +10274,25 @@
         <v>8</v>
       </c>
       <c r="I210">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J210" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A211" s="28"/>
       <c r="B211" t="s">
-        <v>137</v>
+        <v>559</v>
       </c>
       <c r="C211" t="s">
-        <v>297</v>
+        <v>557</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -10249,28 +10304,25 @@
         <v>8</v>
       </c>
       <c r="I211">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="L211" s="1" t="s">
-        <v>147</v>
+        <v>534</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A212" s="28"/>
       <c r="B212" t="s">
-        <v>138</v>
+        <v>560</v>
       </c>
       <c r="C212" t="s">
-        <v>298</v>
+        <v>558</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -10282,28 +10334,25 @@
         <v>8</v>
       </c>
       <c r="I212">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J212" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L212" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A213" s="28"/>
       <c r="B213" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C213" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -10315,59 +10364,64 @@
         <v>8</v>
       </c>
       <c r="I213">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J213" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L213" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A214" s="28"/>
       <c r="B214" t="s">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="C214" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F214">
         <v>1</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>8</v>
       </c>
       <c r="I214">
-        <v>31</v>
-      </c>
-      <c r="J214" s="4"/>
-      <c r="K214" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="J214" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L214" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A215" s="28"/>
       <c r="B215" t="s">
-        <v>302</v>
+        <v>141</v>
       </c>
       <c r="C215" t="s">
-        <v>516</v>
+        <v>297</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -10376,26 +10430,31 @@
         <v>8</v>
       </c>
       <c r="I215">
-        <v>31</v>
-      </c>
-      <c r="J215" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K215" s="1" t="s">
-        <v>58</v>
+        <v>142</v>
+      </c>
+      <c r="L215" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="28"/>
       <c r="B216" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C216" t="s">
-        <v>593</v>
+        <v>306</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -10404,7 +10463,7 @@
         <v>8</v>
       </c>
       <c r="I216">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J216" s="4"/>
       <c r="K216" t="s">
@@ -10414,16 +10473,16 @@
     <row r="217" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A217" s="28"/>
       <c r="B217" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C217" t="s">
-        <v>594</v>
+        <v>514</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -10432,7 +10491,7 @@
         <v>8</v>
       </c>
       <c r="I217">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J217" s="4"/>
       <c r="K217" s="1" t="s">
@@ -10442,13 +10501,13 @@
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" t="s">
-        <v>595</v>
+        <v>301</v>
       </c>
       <c r="C218" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>599</v>
+        <v>470</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -10460,7 +10519,7 @@
         <v>8</v>
       </c>
       <c r="I218">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J218" s="4"/>
       <c r="K218" t="s">
@@ -10470,13 +10529,13 @@
     <row r="219" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A219" s="28"/>
       <c r="B219" t="s">
-        <v>596</v>
+        <v>302</v>
       </c>
       <c r="C219" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>600</v>
+        <v>471</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -10488,7 +10547,7 @@
         <v>8</v>
       </c>
       <c r="I219">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J219" s="4"/>
       <c r="K219" s="1" t="s">
@@ -10497,90 +10556,86 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="28"/>
-      <c r="B220" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C220" s="8"/>
-      <c r="D220" s="11"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8"/>
-      <c r="J220" s="8"/>
-      <c r="K220" s="8"/>
-      <c r="L220" s="8"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>590</v>
+      </c>
+      <c r="C220" t="s">
+        <v>592</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>8</v>
+      </c>
+      <c r="I220">
+        <v>33</v>
+      </c>
+      <c r="J220" s="4"/>
+      <c r="K220" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A221" s="28"/>
       <c r="B221" t="s">
-        <v>144</v>
+        <v>591</v>
       </c>
       <c r="C221" t="s">
-        <v>300</v>
+        <v>593</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>474</v>
+        <v>595</v>
       </c>
       <c r="F221">
         <v>1</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
         <v>8</v>
       </c>
       <c r="I221">
-        <v>48</v>
-      </c>
-      <c r="J221" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K221" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="J221" s="4"/>
+      <c r="K221" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="28"/>
-      <c r="B222" t="s">
-        <v>145</v>
-      </c>
-      <c r="C222" t="s">
-        <v>517</v>
-      </c>
-      <c r="D222" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222">
-        <v>8</v>
-      </c>
-      <c r="I222">
-        <v>48</v>
-      </c>
-      <c r="J222" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K222" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B222" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C222" s="8"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="8"/>
+      <c r="H222" s="8"/>
+      <c r="I222" s="8"/>
+      <c r="J222" s="8"/>
+      <c r="K222" s="8"/>
+      <c r="L222" s="8"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="28"/>
       <c r="B223" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C223" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -10592,28 +10647,25 @@
         <v>8</v>
       </c>
       <c r="I223">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J223" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K223" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>808</v>
+      <c r="K223" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A224" s="28"/>
       <c r="B224" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C224" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -10625,7 +10677,7 @@
         <v>8</v>
       </c>
       <c r="I224">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J224" s="4" t="s">
         <v>39</v>
@@ -10634,16 +10686,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A225" s="28"/>
       <c r="B225" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C225" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -10655,25 +10707,28 @@
         <v>8</v>
       </c>
       <c r="I225">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J225" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C226" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -10685,28 +10740,28 @@
         <v>8</v>
       </c>
       <c r="I226">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J226" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A227" s="28"/>
       <c r="B227" t="s">
-        <v>542</v>
+        <v>151</v>
       </c>
       <c r="C227" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -10715,28 +10770,28 @@
         <v>8</v>
       </c>
       <c r="I227">
-        <v>51</v>
-      </c>
-      <c r="J227" s="17" t="s">
-        <v>816</v>
+        <v>50</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A228" s="28"/>
       <c r="B228" t="s">
-        <v>543</v>
+        <v>152</v>
       </c>
       <c r="C228" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -10745,28 +10800,22 @@
         <v>8</v>
       </c>
       <c r="I228">
-        <v>51</v>
-      </c>
-      <c r="J228" s="5" t="s">
-        <v>818</v>
+        <v>50</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A229" s="28"/>
       <c r="B229" t="s">
-        <v>544</v>
+        <v>859</v>
       </c>
       <c r="C229" t="s">
-        <v>321</v>
-      </c>
-      <c r="D229" s="10" t="s">
-        <v>482</v>
+        <v>858</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -10778,429 +10827,425 @@
         <v>8</v>
       </c>
       <c r="I229">
-        <v>52</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>592</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J229" s="4"/>
       <c r="K229" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A230" s="28"/>
       <c r="B230" t="s">
-        <v>545</v>
+        <v>860</v>
       </c>
       <c r="C230" t="s">
-        <v>322</v>
-      </c>
-      <c r="D230" s="10" t="s">
-        <v>483</v>
+        <v>861</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
         <v>8</v>
       </c>
       <c r="I230">
-        <v>53</v>
-      </c>
-      <c r="J230" s="17" t="s">
-        <v>816</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J230" s="4"/>
       <c r="K230" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+      <c r="L230" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A231" s="28"/>
       <c r="B231" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C231" t="s">
-        <v>521</v>
+        <v>318</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>8</v>
       </c>
       <c r="I231">
-        <v>53</v>
-      </c>
-      <c r="J231" s="5" t="s">
-        <v>818</v>
+        <v>51</v>
+      </c>
+      <c r="J231" s="17" t="s">
+        <v>811</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A232" s="28"/>
       <c r="B232" t="s">
-        <v>157</v>
+        <v>540</v>
       </c>
       <c r="C232" t="s">
-        <v>323</v>
+        <v>518</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
         <v>8</v>
       </c>
       <c r="I232">
-        <v>54</v>
-      </c>
-      <c r="J232" s="4" t="s">
-        <v>815</v>
+        <v>51</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>813</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A233" s="28"/>
       <c r="B233" t="s">
-        <v>158</v>
+        <v>541</v>
       </c>
       <c r="C233" t="s">
-        <v>522</v>
+        <v>319</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F233">
         <v>1</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
         <v>8</v>
       </c>
       <c r="I233">
+        <v>52</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A234" s="28"/>
+      <c r="B234" t="s">
+        <v>542</v>
+      </c>
+      <c r="C234" t="s">
+        <v>320</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>8</v>
+      </c>
+      <c r="I234">
+        <v>53</v>
+      </c>
+      <c r="J234" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A235" s="28"/>
+      <c r="B235" t="s">
+        <v>543</v>
+      </c>
+      <c r="C235" t="s">
+        <v>519</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>8</v>
+      </c>
+      <c r="I235">
+        <v>53</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A236" s="28"/>
+      <c r="B236" t="s">
+        <v>157</v>
+      </c>
+      <c r="C236" t="s">
+        <v>321</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>8</v>
+      </c>
+      <c r="I236">
         <v>54</v>
       </c>
-      <c r="J233" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K233" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="9"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A235" s="25" t="s">
+      <c r="J236" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A237" s="28"/>
+      <c r="B237" t="s">
+        <v>158</v>
+      </c>
+      <c r="C237" t="s">
+        <v>520</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>8</v>
+      </c>
+      <c r="I237">
+        <v>54</v>
+      </c>
+      <c r="J237" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D238" s="9"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A239" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B239" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C235" s="7"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="7"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
-      <c r="I235" s="7"/>
-      <c r="J235" s="7"/>
-      <c r="K235" s="7"/>
-      <c r="L235" s="7"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A236" s="25"/>
-      <c r="B236" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A237" s="25"/>
-      <c r="B237" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A238" s="25"/>
-      <c r="B238" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A239" s="25"/>
-      <c r="B239" t="s">
-        <v>153</v>
-      </c>
+      <c r="C239" s="7"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="7"/>
+      <c r="J239" s="7"/>
+      <c r="K239" s="7"/>
+      <c r="L239" s="7"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="25"/>
       <c r="B240" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="25"/>
       <c r="B241" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="25"/>
       <c r="B242" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="25"/>
       <c r="B243" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="25"/>
       <c r="B244" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="25"/>
       <c r="B245" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="25"/>
       <c r="B248" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="25"/>
-      <c r="B249" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C249" s="7"/>
-      <c r="D249" s="12"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="7"/>
-      <c r="G249" s="7"/>
-      <c r="H249" s="7"/>
-      <c r="I249" s="7"/>
-      <c r="J249" s="7"/>
-      <c r="K249" s="7"/>
-      <c r="L249" s="7"/>
+      <c r="B249" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="25"/>
       <c r="B250" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
-      <c r="B252" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C252" s="7"/>
-      <c r="D252" s="12"/>
-      <c r="E252" s="7"/>
-      <c r="F252" s="7"/>
-      <c r="G252" s="7"/>
-      <c r="H252" s="7"/>
-      <c r="I252" s="7"/>
-      <c r="J252" s="7"/>
-      <c r="K252" s="7"/>
-      <c r="L252" s="7"/>
+      <c r="B252" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
-      <c r="B253" t="s">
-        <v>172</v>
-      </c>
+      <c r="B253" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C253" s="7"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" s="7"/>
+      <c r="H253" s="7"/>
+      <c r="I253" s="7"/>
+      <c r="J253" s="7"/>
+      <c r="K253" s="7"/>
+      <c r="L253" s="7"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
       <c r="B254" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A255" s="25"/>
+      <c r="B255" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A256" s="25"/>
+      <c r="B256" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C256" s="7"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+      <c r="H256" s="7"/>
+      <c r="I256" s="7"/>
+      <c r="J256" s="7"/>
+      <c r="K256" s="7"/>
+      <c r="L256" s="7"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A257" s="25"/>
+      <c r="B257" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A258" s="25"/>
+      <c r="B258" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="255" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D255" s="9"/>
-    </row>
-    <row r="256" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A256" s="26" t="s">
+    <row r="259" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D259" s="9"/>
+    </row>
+    <row r="260" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A260" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B260" t="s">
         <v>174</v>
       </c>
-      <c r="C256" t="s">
-        <v>557</v>
-      </c>
-      <c r="E256">
-        <v>0</v>
-      </c>
-      <c r="F256">
-        <v>0</v>
-      </c>
-      <c r="G256">
-        <v>0</v>
-      </c>
-      <c r="H256">
-        <v>10</v>
-      </c>
-      <c r="I256">
-        <v>0</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="K256" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A257" s="26"/>
-      <c r="B257" t="s">
-        <v>175</v>
-      </c>
-      <c r="C257" t="s">
-        <v>558</v>
-      </c>
-      <c r="E257">
-        <v>0</v>
-      </c>
-      <c r="F257">
-        <v>1</v>
-      </c>
-      <c r="G257">
-        <v>1</v>
-      </c>
-      <c r="H257">
-        <v>10</v>
-      </c>
-      <c r="I257">
-        <v>1</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A258" s="26"/>
-      <c r="B258" t="s">
-        <v>564</v>
-      </c>
-      <c r="C258" t="s">
-        <v>555</v>
-      </c>
-      <c r="E258">
-        <v>0</v>
-      </c>
-      <c r="F258">
-        <v>1</v>
-      </c>
-      <c r="G258">
-        <v>1</v>
-      </c>
-      <c r="H258">
-        <v>10</v>
-      </c>
-      <c r="I258">
-        <v>2</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A259" s="26"/>
-      <c r="B259" t="s">
-        <v>565</v>
-      </c>
-      <c r="C259" t="s">
-        <v>556</v>
-      </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-      <c r="F259">
-        <v>1</v>
-      </c>
-      <c r="G259">
-        <v>1</v>
-      </c>
-      <c r="H259">
-        <v>10</v>
-      </c>
-      <c r="I259">
-        <v>3</v>
-      </c>
-      <c r="J259" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K259" s="1" t="s">
+      <c r="C260" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A260" s="26"/>
-      <c r="B260" t="s">
-        <v>572</v>
-      </c>
-      <c r="C260" t="s">
-        <v>548</v>
-      </c>
-      <c r="D260" s="10" t="s">
-        <v>550</v>
-      </c>
       <c r="E260">
         <v>0</v>
       </c>
@@ -11208,40 +11253,34 @@
         <v>0</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
         <v>10</v>
       </c>
       <c r="I260">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K260" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="L260" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>810</v>
+      </c>
+      <c r="K260" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A261" s="26"/>
       <c r="B261" t="s">
-        <v>573</v>
+        <v>175</v>
       </c>
       <c r="C261" t="s">
-        <v>547</v>
-      </c>
-      <c r="D261" s="10" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E261">
         <v>0</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -11250,34 +11289,28 @@
         <v>10</v>
       </c>
       <c r="I261">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J261" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="L261" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A262" s="26"/>
       <c r="B262" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C262" t="s">
-        <v>579</v>
-      </c>
-      <c r="D262" s="10" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="E262">
         <v>0</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -11286,124 +11319,259 @@
         <v>10</v>
       </c>
       <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="26"/>
+      <c r="B263" t="s">
+        <v>562</v>
+      </c>
+      <c r="C263" t="s">
+        <v>553</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>10</v>
+      </c>
+      <c r="I263">
+        <v>3</v>
+      </c>
+      <c r="J263" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A264" s="26"/>
+      <c r="B264" t="s">
+        <v>567</v>
+      </c>
+      <c r="C264" t="s">
+        <v>545</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>10</v>
+      </c>
+      <c r="I264">
+        <v>4</v>
+      </c>
+      <c r="J264" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="L264" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A265" s="26"/>
+      <c r="B265" t="s">
+        <v>568</v>
+      </c>
+      <c r="C265" t="s">
+        <v>544</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>10</v>
+      </c>
+      <c r="I265">
+        <v>5</v>
+      </c>
+      <c r="J265" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A266" s="26"/>
+      <c r="B266" t="s">
+        <v>569</v>
+      </c>
+      <c r="C266" t="s">
+        <v>574</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>10</v>
+      </c>
+      <c r="I266">
         <v>6</v>
       </c>
-      <c r="J262" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K262" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D263" s="9"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A264" s="27" t="s">
+      <c r="J266" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D267" s="9"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A268" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B268" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A265" s="27"/>
-      <c r="B265" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A266" s="27"/>
-      <c r="B266" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A267" s="27"/>
-      <c r="B267" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A268" s="27"/>
-      <c r="B268" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="27"/>
       <c r="B269" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="27"/>
       <c r="B270" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="27"/>
       <c r="B271" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="27"/>
       <c r="B272" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="27"/>
       <c r="B273" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="27"/>
       <c r="B274" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="27"/>
       <c r="B275" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="27"/>
       <c r="B276" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="27"/>
       <c r="B277" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="27"/>
       <c r="B278" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="27"/>
+      <c r="B279" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="27"/>
+      <c r="B280" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="27"/>
+      <c r="B281" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="27"/>
+      <c r="B282" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A235:A254"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="A264:A278"/>
+    <mergeCell ref="A239:A258"/>
+    <mergeCell ref="A260:A266"/>
+    <mergeCell ref="A268:A282"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A114:A136"/>
     <mergeCell ref="A138:A150"/>
     <mergeCell ref="A153:A158"/>
     <mergeCell ref="A160:A169"/>
-    <mergeCell ref="A171:A233"/>
+    <mergeCell ref="A171:A237"/>
     <mergeCell ref="A19:A26"/>
     <mergeCell ref="A39:A112"/>
     <mergeCell ref="A28:A37"/>
@@ -11437,16 +11605,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -11473,10 +11641,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C4" t="s">
         <v>819</v>
-      </c>
-      <c r="C4" t="s">
-        <v>824</v>
       </c>
       <c r="D4" t="s">
         <v>216</v>
@@ -11505,10 +11673,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -11571,37 +11739,37 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
+        <v>822</v>
+      </c>
+      <c r="C14" t="s">
         <v>827</v>
-      </c>
-      <c r="C14" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C15" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C16" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C17" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -11624,10 +11792,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C20" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -11684,19 +11852,19 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C27" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C28" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -11705,28 +11873,28 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C30" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C31" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C32" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">

--- a/藍芽傳輸規劃0923.xlsx
+++ b/藍芽傳輸規劃0923.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="870">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2657,10 +2657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>app按下電源開關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收到app按下電源開關</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2742,10 +2738,6 @@
   </si>
   <si>
     <t>收到app放開踏板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppPressPowerButton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3733,6 +3725,38 @@
   </si>
   <si>
     <t>status是0代表ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app IO事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子琴IO事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyboardIOEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Instruments":[{"SoundBank":string}, ...]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Event":[{string}, ...]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裡面每一個string就是一個按壓事件，例如"127,48"(127按鍵音，以48的音量按下)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppIOEvent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4227,11 +4251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M282"/>
+  <dimension ref="A1:M283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4255,19 +4279,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>807</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>195</v>
@@ -4291,17 +4315,17 @@
     <row r="2" spans="1:13" s="21" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="C2" s="16" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="16" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -4410,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K6" t="s">
         <v>192</v>
@@ -4588,7 +4612,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>330</v>
@@ -5180,7 +5204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" t="s">
         <v>30</v>
@@ -5210,7 +5234,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" t="s">
         <v>31</v>
@@ -5240,7 +5264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" t="s">
         <v>32</v>
@@ -5270,7 +5294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" t="s">
         <v>64</v>
@@ -5300,7 +5324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" t="s">
         <v>65</v>
@@ -5330,18 +5354,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>613</v>
+        <v>863</v>
       </c>
       <c r="C39" t="s">
-        <v>635</v>
+        <v>869</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>354</v>
@@ -5362,25 +5386,28 @@
         <v>39</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+      <c r="L39" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
       <c r="B40" t="s">
-        <v>614</v>
+        <v>864</v>
       </c>
       <c r="C40" t="s">
-        <v>636</v>
+        <v>865</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -5392,25 +5419,28 @@
         <v>39</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+      <c r="L40" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
       <c r="B41" t="s">
-        <v>668</v>
+        <v>613</v>
       </c>
       <c r="C41" t="s">
-        <v>697</v>
+        <v>634</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>725</v>
+        <v>355</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -5422,25 +5452,25 @@
         <v>39</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
       <c r="B42" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C42" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -5452,55 +5482,55 @@
         <v>39</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" t="s">
-        <v>615</v>
+        <v>667</v>
       </c>
       <c r="C43" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>356</v>
+        <v>724</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C44" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -5512,25 +5542,25 @@
         <v>39</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A45" s="29"/>
       <c r="B45" t="s">
-        <v>670</v>
+        <v>615</v>
       </c>
       <c r="C45" t="s">
-        <v>699</v>
+        <v>636</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>727</v>
+        <v>357</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -5542,25 +5572,25 @@
         <v>39</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
       <c r="B46" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C46" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -5572,55 +5602,55 @@
         <v>39</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" t="s">
-        <v>617</v>
+        <v>669</v>
       </c>
       <c r="C47" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>358</v>
+        <v>726</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C48" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -5632,25 +5662,25 @@
         <v>39</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
       <c r="B49" t="s">
-        <v>672</v>
+        <v>617</v>
       </c>
       <c r="C49" t="s">
-        <v>701</v>
+        <v>638</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>729</v>
+        <v>359</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5662,25 +5692,25 @@
         <v>39</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
       <c r="B50" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C50" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5692,55 +5722,55 @@
         <v>39</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
       <c r="B51" t="s">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="C51" t="s">
-        <v>641</v>
+        <v>700</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>360</v>
+        <v>728</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
       <c r="B52" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C52" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5752,25 +5782,25 @@
         <v>39</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A53" s="29"/>
       <c r="B53" t="s">
-        <v>674</v>
+        <v>619</v>
       </c>
       <c r="C53" t="s">
-        <v>703</v>
+        <v>640</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>731</v>
+        <v>361</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5782,25 +5812,25 @@
         <v>39</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
       <c r="B54" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C54" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5812,55 +5842,55 @@
         <v>39</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
       <c r="B55" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="C55" t="s">
-        <v>643</v>
+        <v>702</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>362</v>
+        <v>730</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="29"/>
       <c r="B56" t="s">
-        <v>676</v>
+        <v>620</v>
       </c>
       <c r="C56" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>599</v>
+        <v>362</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5872,25 +5902,25 @@
         <v>39</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
       <c r="B57" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C57" t="s">
-        <v>705</v>
+        <v>642</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>733</v>
+        <v>599</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5902,25 +5932,25 @@
         <v>39</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="29"/>
       <c r="B58" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C58" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5932,55 +5962,55 @@
         <v>39</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" t="s">
-        <v>622</v>
+        <v>676</v>
       </c>
       <c r="C59" t="s">
-        <v>645</v>
+        <v>704</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>363</v>
+        <v>732</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C60" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5992,25 +6022,25 @@
         <v>39</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>679</v>
+        <v>622</v>
       </c>
       <c r="C61" t="s">
-        <v>707</v>
+        <v>644</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>735</v>
+        <v>364</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6022,25 +6052,25 @@
         <v>39</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C62" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -6052,55 +6082,55 @@
         <v>39</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>624</v>
+        <v>678</v>
       </c>
       <c r="C63" t="s">
-        <v>647</v>
+        <v>706</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>365</v>
+        <v>734</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C64" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6112,25 +6142,25 @@
         <v>39</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>681</v>
+        <v>624</v>
       </c>
       <c r="C65" t="s">
-        <v>709</v>
+        <v>646</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>737</v>
+        <v>366</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6142,25 +6172,25 @@
         <v>39</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C66" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6172,55 +6202,55 @@
         <v>39</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>626</v>
+        <v>680</v>
       </c>
       <c r="C67" t="s">
-        <v>649</v>
+        <v>708</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>600</v>
+        <v>736</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>663</v>
+        <v>625</v>
       </c>
       <c r="C68" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6232,25 +6262,25 @@
         <v>39</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="C69" t="s">
-        <v>711</v>
+        <v>648</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>739</v>
+        <v>367</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6262,25 +6292,25 @@
         <v>39</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C70" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6292,55 +6322,55 @@
         <v>39</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
       <c r="B71" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="C71" t="s">
-        <v>659</v>
+        <v>710</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>368</v>
+        <v>738</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>3</v>
       </c>
       <c r="I71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C72" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>601</v>
+        <v>368</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6352,25 +6382,25 @@
         <v>39</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="C73" t="s">
-        <v>713</v>
+        <v>658</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -6382,25 +6412,25 @@
         <v>39</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C74" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>741</v>
+        <v>596</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -6412,55 +6442,55 @@
         <v>39</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C75" t="s">
-        <v>661</v>
+        <v>712</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>602</v>
+        <v>739</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C76" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -6472,25 +6502,25 @@
         <v>39</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="B77" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="C77" t="s">
-        <v>715</v>
+        <v>660</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>742</v>
+        <v>603</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -6502,25 +6532,25 @@
         <v>39</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
       <c r="B78" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C78" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -6532,53 +6562,55 @@
         <v>39</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" t="s">
-        <v>627</v>
+        <v>686</v>
       </c>
       <c r="C79" t="s">
-        <v>651</v>
+        <v>714</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>604</v>
+        <v>741</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>10</v>
-      </c>
-      <c r="J79" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K79" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
       <c r="B80" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C80" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -6586,29 +6618,27 @@
       <c r="I80">
         <v>10</v>
       </c>
-      <c r="J80" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J80" s="4"/>
       <c r="K80" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" t="s">
-        <v>689</v>
+        <v>627</v>
       </c>
       <c r="C81" t="s">
-        <v>717</v>
+        <v>650</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>744</v>
+        <v>605</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -6616,27 +6646,29 @@
       <c r="I81">
         <v>10</v>
       </c>
-      <c r="J81" s="4"/>
+      <c r="J81" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K81" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
       <c r="B82" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C82" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -6644,59 +6676,57 @@
       <c r="I82">
         <v>10</v>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J82" s="4"/>
       <c r="K82" s="1" t="s">
-        <v>597</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
       <c r="B83" t="s">
-        <v>629</v>
+        <v>688</v>
       </c>
       <c r="C83" t="s">
-        <v>653</v>
+        <v>716</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>606</v>
+        <v>743</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A84" s="29"/>
       <c r="B84" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C84" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -6708,25 +6738,25 @@
         <v>39</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
       <c r="B85" t="s">
-        <v>691</v>
+        <v>629</v>
       </c>
       <c r="C85" t="s">
-        <v>719</v>
+        <v>652</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>746</v>
+        <v>607</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -6738,25 +6768,25 @@
         <v>39</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
       <c r="B86" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C86" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -6768,53 +6798,55 @@
         <v>39</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>631</v>
+        <v>690</v>
       </c>
       <c r="C87" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>608</v>
+        <v>745</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87">
-        <v>12</v>
-      </c>
-      <c r="J87" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K87" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C88" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -6824,25 +6856,25 @@
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" t="s">
-        <v>693</v>
+        <v>631</v>
       </c>
       <c r="C89" t="s">
-        <v>721</v>
+        <v>654</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>748</v>
+        <v>609</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -6852,25 +6884,25 @@
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C90" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -6880,53 +6912,53 @@
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
       <c r="B91" t="s">
-        <v>633</v>
+        <v>692</v>
       </c>
       <c r="C91" t="s">
-        <v>658</v>
+        <v>720</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>610</v>
+        <v>747</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
       <c r="B92" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C92" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -6934,29 +6966,27 @@
       <c r="I92">
         <v>13</v>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J92" s="4"/>
       <c r="K92" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
       <c r="B93" t="s">
-        <v>695</v>
+        <v>633</v>
       </c>
       <c r="C93" t="s">
-        <v>723</v>
+        <v>655</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>750</v>
+        <v>611</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -6964,27 +6994,29 @@
       <c r="I93">
         <v>13</v>
       </c>
-      <c r="J93" s="4"/>
+      <c r="J93" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K93" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
       <c r="B94" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C94" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -6992,55 +7024,57 @@
       <c r="I94">
         <v>13</v>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J94" s="4"/>
       <c r="K94" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
       <c r="B95" t="s">
-        <v>752</v>
+        <v>694</v>
       </c>
       <c r="C95" t="s">
-        <v>762</v>
+        <v>722</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>786</v>
+        <v>749</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>3</v>
       </c>
       <c r="I95">
-        <v>16</v>
-      </c>
-      <c r="J95" s="4"/>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
       <c r="B96" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C96" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -7049,26 +7083,24 @@
         <v>16</v>
       </c>
       <c r="J96" s="4"/>
-      <c r="K96" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A97" s="29"/>
       <c r="B97" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C97" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -7077,24 +7109,26 @@
         <v>16</v>
       </c>
       <c r="J97" s="4"/>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K97" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="29"/>
       <c r="B98" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C98" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -7103,54 +7137,52 @@
         <v>16</v>
       </c>
       <c r="J98" s="4"/>
-      <c r="K98" s="1" t="s">
-        <v>784</v>
-      </c>
+      <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
       <c r="B99" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C99" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>3</v>
       </c>
       <c r="I99">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
       <c r="B100" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C100" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -7159,24 +7191,26 @@
         <v>17</v>
       </c>
       <c r="J100" s="4"/>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K100" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="29"/>
       <c r="B101" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C101" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -7185,26 +7219,24 @@
         <v>17</v>
       </c>
       <c r="J101" s="4"/>
-      <c r="K101" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A102" s="29"/>
       <c r="B102" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C102" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -7213,52 +7245,52 @@
         <v>17</v>
       </c>
       <c r="J102" s="4"/>
-      <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K102" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="29"/>
       <c r="B103" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="C103" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J103" s="4"/>
-      <c r="K103" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A104" s="29"/>
       <c r="B104" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="C104" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -7267,24 +7299,26 @@
         <v>18</v>
       </c>
       <c r="J104" s="4"/>
-      <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K104" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="29"/>
       <c r="B105" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="C105" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -7293,26 +7327,24 @@
         <v>18</v>
       </c>
       <c r="J105" s="4"/>
-      <c r="K105" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A106" s="29"/>
       <c r="B106" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="C106" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -7321,52 +7353,52 @@
         <v>18</v>
       </c>
       <c r="J106" s="4"/>
-      <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K106" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="29"/>
       <c r="B107" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="C107" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>3</v>
       </c>
       <c r="I107">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J107" s="4"/>
-      <c r="K107" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A108" s="29"/>
       <c r="B108" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C108" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -7376,56 +7408,56 @@
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L108" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A109" s="29"/>
       <c r="B109" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="C109" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="L109" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A110" s="29"/>
       <c r="B110" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C110" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -7434,10 +7466,33 @@
         <v>20</v>
       </c>
       <c r="J110" s="4"/>
-      <c r="K110" s="1"/>
+      <c r="K110" s="1" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="29"/>
+      <c r="B111" t="s">
+        <v>780</v>
+      </c>
+      <c r="C111" t="s">
+        <v>781</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>20</v>
+      </c>
       <c r="J111" s="4"/>
       <c r="K111" s="1"/>
     </row>
@@ -7446,57 +7501,32 @@
       <c r="J112" s="4"/>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="9"/>
-    </row>
-    <row r="114" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="28" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="29"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>37</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>309</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D115" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>4</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="28"/>
-      <c r="B115" t="s">
-        <v>38</v>
-      </c>
-      <c r="C115" t="s">
-        <v>485</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>370</v>
-      </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -7508,55 +7538,55 @@
         <v>39</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A116" s="28"/>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="C116" t="s">
-        <v>310</v>
+        <v>485</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>4</v>
       </c>
       <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" s="17" t="s">
-        <v>812</v>
+        <v>0</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A117" s="28"/>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C117" t="s">
-        <v>486</v>
+        <v>310</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -7564,62 +7594,59 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117" s="5" t="s">
-        <v>813</v>
+      <c r="J117" s="17" t="s">
+        <v>810</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A118" s="28"/>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>4</v>
       </c>
       <c r="I118">
-        <v>2</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>810</v>
+        <v>1</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>846</v>
+        <v>197</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A119" s="28"/>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C119" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -7628,31 +7655,34 @@
         <v>4</v>
       </c>
       <c r="I119">
-        <v>3</v>
-      </c>
-      <c r="J119" s="17" t="s">
-        <v>811</v>
+        <v>2</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A120" s="28"/>
       <c r="B120" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C120" t="s">
-        <v>487</v>
+        <v>244</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -7660,62 +7690,62 @@
       <c r="I120">
         <v>3</v>
       </c>
-      <c r="J120" s="5" t="s">
-        <v>813</v>
+      <c r="J120" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A121" s="28"/>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="C121" t="s">
-        <v>238</v>
+        <v>487</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>4</v>
       </c>
       <c r="I121">
-        <v>4</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>810</v>
+        <v>3</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A122" s="28"/>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C122" t="s">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>4</v>
@@ -7724,58 +7754,58 @@
         <v>4</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A123" s="28"/>
       <c r="B123" t="s">
-        <v>528</v>
+        <v>47</v>
       </c>
       <c r="C123" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>4</v>
       </c>
       <c r="I123">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
       <c r="B124" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C124" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -7784,58 +7814,58 @@
         <v>8</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A125" s="28"/>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>529</v>
       </c>
       <c r="C125" t="s">
-        <v>311</v>
+        <v>527</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>4</v>
       </c>
       <c r="I125">
-        <v>9</v>
-      </c>
-      <c r="J125" s="17" t="s">
-        <v>811</v>
+        <v>8</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A126" s="28"/>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -7843,62 +7873,62 @@
       <c r="I126">
         <v>9</v>
       </c>
-      <c r="J126" s="5" t="s">
-        <v>813</v>
+      <c r="J126" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A127" s="28"/>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
       <c r="C127" t="s">
-        <v>239</v>
+        <v>489</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>4</v>
       </c>
       <c r="I127">
-        <v>10</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>810</v>
+        <v>9</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A128" s="28"/>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>490</v>
+        <v>239</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -7907,58 +7937,58 @@
         <v>10</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A129" s="28"/>
       <c r="B129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C129" t="s">
-        <v>240</v>
+        <v>490</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>4</v>
       </c>
       <c r="I129">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J129" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A130" s="28"/>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C130" t="s">
-        <v>491</v>
+        <v>240</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -7970,52 +8000,52 @@
         <v>39</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A131" s="28"/>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C131" t="s">
-        <v>241</v>
+        <v>491</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
         <v>4</v>
       </c>
       <c r="I131">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J131" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A132" s="28"/>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -8024,7 +8054,7 @@
         <v>4</v>
       </c>
       <c r="I132">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J132" s="4" t="s">
         <v>39</v>
@@ -8036,19 +8066,19 @@
     <row r="133" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A133" s="28"/>
       <c r="B133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C133" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -8063,52 +8093,49 @@
         <v>523</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A134" s="28"/>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="C134" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>4</v>
       </c>
       <c r="I134">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A135" s="28"/>
       <c r="B135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C135" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -8117,31 +8144,34 @@
         <v>4</v>
       </c>
       <c r="I135">
-        <v>15</v>
-      </c>
-      <c r="J135" s="17" t="s">
-        <v>811</v>
+        <v>14</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A136" s="28"/>
       <c r="B136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C136" t="s">
-        <v>492</v>
+        <v>246</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -8149,67 +8179,67 @@
       <c r="I136">
         <v>15</v>
       </c>
-      <c r="J136" s="5" t="s">
-        <v>813</v>
+      <c r="J136" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K136" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A137" s="28"/>
+      <c r="B137" t="s">
+        <v>257</v>
+      </c>
+      <c r="C137" t="s">
+        <v>492</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
+        <v>15</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="K137" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L136" s="1" t="s">
+      <c r="L137" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="9"/>
-    </row>
-    <row r="138" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A138" s="29" t="s">
+    <row r="138" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>55</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>258</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D139" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>5</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="29"/>
-      <c r="B139" t="s">
-        <v>57</v>
-      </c>
-      <c r="C139" t="s">
-        <v>493</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>393</v>
-      </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>5</v>
@@ -8218,55 +8248,55 @@
         <v>0</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>42</v>
+        <v>808</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A140" s="29"/>
       <c r="B140" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C140" t="s">
-        <v>259</v>
+        <v>493</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>5</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K140" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="K140" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="29"/>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="C141" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -8275,31 +8305,31 @@
         <v>5</v>
       </c>
       <c r="I141">
-        <v>2</v>
-      </c>
-      <c r="J141" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A142" s="29"/>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C142" t="s">
-        <v>494</v>
+        <v>312</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>5</v>
@@ -8307,62 +8337,62 @@
       <c r="I142">
         <v>2</v>
       </c>
-      <c r="J142" s="5" t="s">
-        <v>813</v>
+      <c r="J142" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A143" s="29"/>
       <c r="B143" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="C143" t="s">
-        <v>399</v>
+        <v>494</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>5</v>
       </c>
       <c r="I143">
-        <v>3</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>810</v>
+        <v>2</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A144" s="29"/>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C144" t="s">
-        <v>495</v>
+        <v>399</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>5</v>
@@ -8371,58 +8401,58 @@
         <v>3</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>42</v>
+        <v>808</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A145" s="29"/>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C145" t="s">
-        <v>400</v>
+        <v>495</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
         <v>5</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J145" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K145" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K145" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="29"/>
       <c r="B146" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C146" t="s">
-        <v>496</v>
+        <v>400</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>5</v>
@@ -8433,56 +8463,56 @@
       <c r="J146" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K146" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K146" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A147" s="29"/>
       <c r="B147" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C147" t="s">
-        <v>401</v>
+        <v>496</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>5</v>
       </c>
       <c r="I147">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J147" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A148" s="29"/>
       <c r="B148" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C148" t="s">
-        <v>497</v>
+        <v>401</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>5</v>
@@ -8494,19 +8524,19 @@
         <v>42</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A149" s="29"/>
       <c r="B149" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C149" t="s">
-        <v>313</v>
+        <v>497</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -8518,61 +8548,61 @@
         <v>5</v>
       </c>
       <c r="I149">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A150" s="29"/>
       <c r="B150" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C150" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F150">
         <v>1</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>5</v>
       </c>
       <c r="I150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J150" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K150" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="13"/>
+      <c r="K150" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="29"/>
       <c r="B151" t="s">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="C151" t="s">
-        <v>498</v>
+        <v>314</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>5</v>
@@ -8581,63 +8611,63 @@
         <v>7</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K151" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="13"/>
+      <c r="B152" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152" t="s">
+        <v>498</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>5</v>
+      </c>
+      <c r="I152">
+        <v>7</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K152" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="9"/>
-    </row>
-    <row r="153" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="28" t="s">
+    <row r="153" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>73</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>262</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D154" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>6</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="28"/>
-      <c r="B154" t="s">
-        <v>74</v>
-      </c>
-      <c r="C154" t="s">
-        <v>265</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>410</v>
-      </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>6</v>
@@ -8649,55 +8679,55 @@
         <v>42</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A155" s="28"/>
       <c r="B155" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C155" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>6</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>564</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A156" s="28"/>
       <c r="B156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C156" t="s">
-        <v>415</v>
+        <v>263</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>6</v>
@@ -8709,55 +8739,55 @@
         <v>42</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A157" s="28"/>
       <c r="B157" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C157" t="s">
-        <v>264</v>
+        <v>415</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
         <v>6</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A158" s="28"/>
       <c r="B158" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>6</v>
@@ -8769,60 +8799,60 @@
         <v>42</v>
       </c>
       <c r="K158" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A159" s="28"/>
+      <c r="B159" t="s">
+        <v>78</v>
+      </c>
+      <c r="C159" t="s">
+        <v>266</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>6</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K159" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D159" s="9"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="29" t="s">
+    <row r="160" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>88</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>267</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D161" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>7</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K160" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="29"/>
-      <c r="B161" t="s">
-        <v>89</v>
-      </c>
-      <c r="C161" t="s">
-        <v>268</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>417</v>
-      </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -8833,59 +8863,59 @@
       <c r="J161" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K161" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L161" t="s">
-        <v>581</v>
+      <c r="K161" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A162" s="29"/>
       <c r="B162" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C162" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>7</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="L162" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A163" s="29"/>
       <c r="B163" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C163" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>7</v>
@@ -8897,55 +8927,55 @@
         <v>39</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>533</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A164" s="29"/>
       <c r="B164" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C164" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>7</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>90</v>
+        <v>533</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A165" s="29"/>
       <c r="B165" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C165" t="s">
-        <v>499</v>
+        <v>271</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>7</v>
@@ -8957,55 +8987,55 @@
         <v>39</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A166" s="29"/>
       <c r="B166" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C166" t="s">
-        <v>272</v>
+        <v>499</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>7</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A167" s="29"/>
       <c r="B167" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C167" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>7</v>
@@ -9017,55 +9047,55 @@
         <v>39</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A168" s="29"/>
       <c r="B168" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C168" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
         <v>7</v>
       </c>
       <c r="I168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J168" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A169" s="29"/>
       <c r="B169" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C169" t="s">
-        <v>500</v>
+        <v>274</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>7</v>
@@ -9077,76 +9107,76 @@
         <v>39</v>
       </c>
       <c r="K169" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="29"/>
+      <c r="B170" t="s">
+        <v>95</v>
+      </c>
+      <c r="C170" t="s">
+        <v>500</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>7</v>
+      </c>
+      <c r="I170">
+        <v>4</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K170" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="9"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="28" t="s">
+    <row r="171" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B172" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-    </row>
-    <row r="172" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A172" s="28"/>
-      <c r="B172" t="s">
-        <v>103</v>
-      </c>
-      <c r="C172" t="s">
-        <v>275</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>8</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K172" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="C172" s="8"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="8"/>
+    </row>
+    <row r="173" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A173" s="28"/>
       <c r="B173" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C173" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>8</v>
@@ -9158,61 +9188,58 @@
         <v>39</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A174" s="28"/>
       <c r="B174" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C174" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
         <v>8</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="L174" t="s">
-        <v>584</v>
+        <v>579</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A175" s="28"/>
       <c r="B175" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C175" t="s">
-        <v>434</v>
+        <v>277</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>8</v>
@@ -9224,61 +9251,61 @@
         <v>39</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L175" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A176" s="28"/>
       <c r="B176" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C176" t="s">
-        <v>316</v>
+        <v>434</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>8</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J176" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>857</v>
+        <v>580</v>
       </c>
       <c r="L176" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A177" s="28"/>
       <c r="B177" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C177" t="s">
-        <v>582</v>
+        <v>316</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>8</v>
@@ -9290,52 +9317,58 @@
         <v>39</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="L177" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="B178" t="s">
-        <v>849</v>
+        <v>108</v>
       </c>
       <c r="C178" t="s">
-        <v>853</v>
+        <v>582</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
         <v>8</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J178" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="L178" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A179" s="28"/>
       <c r="B179" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C179" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>8</v>
@@ -9347,28 +9380,22 @@
         <v>39</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="L179" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A180" s="28"/>
       <c r="B180" t="s">
-        <v>278</v>
+        <v>848</v>
       </c>
       <c r="C180" t="s">
-        <v>317</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>432</v>
+        <v>852</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
         <v>8</v>
@@ -9376,29 +9403,32 @@
       <c r="I180">
         <v>3</v>
       </c>
-      <c r="J180" s="17" t="s">
-        <v>811</v>
+      <c r="J180" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="L180" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A181" s="28"/>
       <c r="B181" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C181" t="s">
-        <v>501</v>
+        <v>317</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>8</v>
@@ -9406,59 +9436,59 @@
       <c r="I181">
         <v>3</v>
       </c>
-      <c r="J181" s="5" t="s">
-        <v>813</v>
+      <c r="J181" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L181" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A182" s="28"/>
       <c r="B182" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C182" t="s">
-        <v>856</v>
+        <v>501</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F182">
         <v>1</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
         <v>8</v>
       </c>
       <c r="I182">
-        <v>4</v>
-      </c>
-      <c r="J182" s="4" t="s">
-        <v>810</v>
+        <v>3</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A183" s="28"/>
       <c r="B183" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C183" t="s">
-        <v>283</v>
+        <v>854</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -9467,31 +9497,31 @@
         <v>8</v>
       </c>
       <c r="I183">
-        <v>5</v>
-      </c>
-      <c r="J183" s="17" t="s">
-        <v>811</v>
+        <v>4</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A184" s="28"/>
       <c r="B184" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C184" t="s">
-        <v>502</v>
+        <v>283</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>8</v>
@@ -9499,62 +9529,62 @@
       <c r="I184">
         <v>5</v>
       </c>
-      <c r="J184" s="5" t="s">
-        <v>813</v>
+      <c r="J184" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L184" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A185" s="28"/>
       <c r="B185" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="C185" t="s">
-        <v>855</v>
+        <v>502</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
         <v>8</v>
       </c>
       <c r="I185">
-        <v>6</v>
-      </c>
-      <c r="J185" s="4" t="s">
-        <v>810</v>
+        <v>5</v>
+      </c>
+      <c r="J185" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A186" s="28"/>
       <c r="B186" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C186" t="s">
-        <v>503</v>
+        <v>853</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>8</v>
@@ -9563,58 +9593,58 @@
         <v>6</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A187" s="28"/>
       <c r="B187" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C187" t="s">
-        <v>284</v>
+        <v>503</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
         <v>8</v>
       </c>
       <c r="I187">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J187" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A188" s="28"/>
       <c r="B188" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C188" t="s">
-        <v>583</v>
+        <v>284</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>8</v>
@@ -9626,55 +9656,55 @@
         <v>39</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A189" s="28"/>
       <c r="B189" t="s">
-        <v>115</v>
-      </c>
-      <c r="C189" s="18" t="s">
-        <v>285</v>
+        <v>114</v>
+      </c>
+      <c r="C189" t="s">
+        <v>583</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F189">
         <v>1</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
         <v>8</v>
       </c>
       <c r="I189">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J189" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K189" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K189" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="28"/>
       <c r="B190" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>504</v>
+        <v>285</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>8</v>
@@ -9685,72 +9715,72 @@
       <c r="J190" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K190" s="1" t="s">
+      <c r="K190" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="28"/>
+      <c r="B191" t="s">
+        <v>116</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>8</v>
+      </c>
+      <c r="I191">
+        <v>8</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K191" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A191" s="28"/>
-      <c r="B191" s="8" t="s">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A192" s="28"/>
+      <c r="B192" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C191" s="8"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
-      <c r="K191" s="8"/>
-      <c r="L191" s="8"/>
-    </row>
-    <row r="192" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A192" s="28"/>
-      <c r="B192" t="s">
-        <v>148</v>
-      </c>
-      <c r="C192" t="s">
-        <v>286</v>
-      </c>
-      <c r="D192" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>8</v>
-      </c>
-      <c r="I192">
-        <v>16</v>
-      </c>
-      <c r="J192" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K192" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="C192" s="8"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="8"/>
+      <c r="K192" s="8"/>
+      <c r="L192" s="8"/>
+    </row>
+    <row r="193" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A193" s="28"/>
       <c r="B193" t="s">
-        <v>149</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>505</v>
+        <v>148</v>
+      </c>
+      <c r="C193" t="s">
+        <v>286</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>8</v>
@@ -9762,22 +9792,22 @@
         <v>39</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A194" s="28"/>
       <c r="B194" t="s">
-        <v>120</v>
-      </c>
-      <c r="C194" t="s">
-        <v>287</v>
+        <v>149</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>505</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -9786,40 +9816,37 @@
         <v>8</v>
       </c>
       <c r="I194">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L194" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A195" s="28"/>
       <c r="B195" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C195" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F195">
         <v>1</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
         <v>8</v>
       </c>
       <c r="I195">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J195" s="4" t="s">
         <v>39</v>
@@ -9831,22 +9858,22 @@
         <v>121</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A196" s="28"/>
       <c r="B196" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C196" t="s">
-        <v>506</v>
+        <v>288</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>8</v>
@@ -9858,58 +9885,58 @@
         <v>39</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="L196" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A197" s="28"/>
       <c r="B197" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C197" t="s">
-        <v>289</v>
+        <v>506</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>8</v>
       </c>
       <c r="I197">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J197" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L197" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A198" s="28"/>
       <c r="B198" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C198" t="s">
-        <v>507</v>
+        <v>289</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>8</v>
@@ -9921,58 +9948,58 @@
         <v>39</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="L198" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A199" s="28"/>
       <c r="B199" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C199" t="s">
-        <v>290</v>
+        <v>507</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
         <v>8</v>
       </c>
       <c r="I199">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J199" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L199" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A200" s="28"/>
       <c r="B200" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C200" t="s">
-        <v>508</v>
+        <v>290</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>8</v>
@@ -9984,53 +10011,58 @@
         <v>39</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="L200" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A201" s="28"/>
       <c r="B201" t="s">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="C201" t="s">
-        <v>305</v>
+        <v>508</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
         <v>8</v>
       </c>
       <c r="I201">
-        <v>21</v>
-      </c>
-      <c r="J201" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K201" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A202" s="28"/>
       <c r="B202" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C202" t="s">
-        <v>509</v>
+        <v>305</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>8</v>
@@ -10040,55 +10072,53 @@
       </c>
       <c r="J202" s="4"/>
       <c r="K202" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A203" s="28"/>
       <c r="B203" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="C203" t="s">
-        <v>291</v>
+        <v>509</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F203">
         <v>1</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>8</v>
       </c>
       <c r="I203">
-        <v>22</v>
-      </c>
-      <c r="J203" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K203" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J203" s="4"/>
+      <c r="K203" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="28"/>
       <c r="B204" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C204" t="s">
-        <v>510</v>
+        <v>291</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>8</v>
@@ -10099,56 +10129,56 @@
       <c r="J204" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K204" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K204" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A205" s="28"/>
       <c r="B205" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C205" t="s">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>8</v>
       </c>
       <c r="I205">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J205" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K205" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K205" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="28"/>
       <c r="B206" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C206" t="s">
-        <v>511</v>
+        <v>292</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>8</v>
@@ -10159,56 +10189,56 @@
       <c r="J206" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K206" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K206" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A207" s="28"/>
       <c r="B207" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C207" t="s">
-        <v>293</v>
+        <v>511</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F207">
         <v>1</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
         <v>8</v>
       </c>
       <c r="I207">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J207" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K207" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K207" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="28"/>
       <c r="B208" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C208" t="s">
-        <v>512</v>
+        <v>293</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>8</v>
@@ -10219,56 +10249,56 @@
       <c r="J208" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K208" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K208" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A209" s="28"/>
       <c r="B209" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C209" t="s">
-        <v>294</v>
+        <v>512</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
         <v>8</v>
       </c>
       <c r="I209">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J209" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K209" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K209" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="28"/>
       <c r="B210" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C210" t="s">
-        <v>513</v>
+        <v>294</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>8</v>
@@ -10279,20 +10309,20 @@
       <c r="J210" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K210" s="1" t="s">
-        <v>84</v>
+      <c r="K210" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A211" s="28"/>
       <c r="B211" t="s">
-        <v>559</v>
+        <v>136</v>
       </c>
       <c r="C211" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -10304,25 +10334,25 @@
         <v>8</v>
       </c>
       <c r="I211">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A212" s="28"/>
       <c r="B212" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C212" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -10334,25 +10364,25 @@
         <v>8</v>
       </c>
       <c r="I212">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J212" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A213" s="28"/>
       <c r="B213" t="s">
-        <v>137</v>
+        <v>560</v>
       </c>
       <c r="C213" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -10364,28 +10394,25 @@
         <v>8</v>
       </c>
       <c r="I213">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J213" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="L213" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A214" s="28"/>
       <c r="B214" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C214" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -10397,28 +10424,28 @@
         <v>8</v>
       </c>
       <c r="I214">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L214" t="s">
-        <v>140</v>
+        <v>535</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A215" s="28"/>
       <c r="B215" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C215" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -10430,62 +10457,67 @@
         <v>8</v>
       </c>
       <c r="I215">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J215" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L215" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A216" s="28"/>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="C216" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F216">
         <v>1</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
         <v>8</v>
       </c>
       <c r="I216">
-        <v>31</v>
-      </c>
-      <c r="J216" s="4"/>
-      <c r="K216" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L216" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="28"/>
       <c r="B217" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C217" t="s">
-        <v>514</v>
+        <v>306</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>8</v>
@@ -10494,54 +10526,54 @@
         <v>31</v>
       </c>
       <c r="J217" s="4"/>
-      <c r="K217" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K217" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C218" t="s">
-        <v>588</v>
+        <v>514</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
         <v>8</v>
       </c>
       <c r="I218">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J218" s="4"/>
-      <c r="K218" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K218" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="28"/>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C219" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
         <v>8</v>
@@ -10550,54 +10582,54 @@
         <v>32</v>
       </c>
       <c r="J219" s="4"/>
-      <c r="K219" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K219" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A220" s="28"/>
       <c r="B220" t="s">
-        <v>590</v>
+        <v>302</v>
       </c>
       <c r="C220" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>594</v>
+        <v>471</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
         <v>8</v>
       </c>
       <c r="I220">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J220" s="4"/>
-      <c r="K220" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K220" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="28"/>
       <c r="B221" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C221" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
         <v>8</v>
@@ -10606,72 +10638,70 @@
         <v>33</v>
       </c>
       <c r="J221" s="4"/>
-      <c r="K221" s="1" t="s">
+      <c r="K221" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="28"/>
+      <c r="B222" t="s">
+        <v>591</v>
+      </c>
+      <c r="C222" t="s">
+        <v>593</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>8</v>
+      </c>
+      <c r="I222">
+        <v>33</v>
+      </c>
+      <c r="J222" s="4"/>
+      <c r="K222" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A222" s="28"/>
-      <c r="B222" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C222" s="8"/>
-      <c r="D222" s="11"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
-      <c r="J222" s="8"/>
-      <c r="K222" s="8"/>
-      <c r="L222" s="8"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="28"/>
-      <c r="B223" t="s">
-        <v>144</v>
-      </c>
-      <c r="C223" t="s">
-        <v>298</v>
-      </c>
-      <c r="D223" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="F223">
-        <v>1</v>
-      </c>
-      <c r="G223">
-        <v>0</v>
-      </c>
-      <c r="H223">
-        <v>8</v>
-      </c>
-      <c r="I223">
-        <v>48</v>
-      </c>
-      <c r="J223" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K223" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="B223" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C223" s="8"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="8"/>
+      <c r="J223" s="8"/>
+      <c r="K223" s="8"/>
+      <c r="L223" s="8"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="28"/>
       <c r="B224" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C224" t="s">
-        <v>515</v>
+        <v>298</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>8</v>
@@ -10682,59 +10712,56 @@
       <c r="J224" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K224" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="K224" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A225" s="28"/>
       <c r="B225" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C225" t="s">
-        <v>307</v>
+        <v>515</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
         <v>8</v>
       </c>
       <c r="I225">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J225" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C226" t="s">
-        <v>516</v>
+        <v>307</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
         <v>8</v>
@@ -10746,55 +10773,58 @@
         <v>39</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A227" s="28"/>
       <c r="B227" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C227" t="s">
-        <v>308</v>
+        <v>516</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
         <v>8</v>
       </c>
       <c r="I227">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J227" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A228" s="28"/>
       <c r="B228" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C228" t="s">
-        <v>517</v>
+        <v>308</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>8</v>
@@ -10806,47 +10836,52 @@
         <v>39</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A229" s="28"/>
       <c r="B229" t="s">
-        <v>859</v>
+        <v>152</v>
       </c>
       <c r="C229" t="s">
-        <v>858</v>
+        <v>517</v>
+      </c>
+      <c r="D229" s="10" t="s">
+        <v>477</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
         <v>8</v>
       </c>
       <c r="I229">
-        <v>51</v>
-      </c>
-      <c r="J229" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K229" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A230" s="28"/>
       <c r="B230" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C230" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>8</v>
@@ -10856,28 +10891,22 @@
       </c>
       <c r="J230" s="4"/>
       <c r="K230" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="L230" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A231" s="28"/>
       <c r="B231" t="s">
-        <v>539</v>
+        <v>858</v>
       </c>
       <c r="C231" t="s">
-        <v>318</v>
-      </c>
-      <c r="D231" s="10" t="s">
-        <v>478</v>
+        <v>859</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
         <v>8</v>
@@ -10885,29 +10914,30 @@
       <c r="I231">
         <v>51</v>
       </c>
-      <c r="J231" s="17" t="s">
-        <v>811</v>
-      </c>
+      <c r="J231" s="4"/>
       <c r="K231" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+      <c r="L231" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A232" s="28"/>
       <c r="B232" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C232" t="s">
-        <v>518</v>
+        <v>318</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>8</v>
@@ -10915,59 +10945,59 @@
       <c r="I232">
         <v>51</v>
       </c>
-      <c r="J232" s="5" t="s">
-        <v>813</v>
+      <c r="J232" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A233" s="28"/>
       <c r="B233" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C233" t="s">
-        <v>319</v>
+        <v>518</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F233">
         <v>1</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
         <v>8</v>
       </c>
       <c r="I233">
-        <v>52</v>
-      </c>
-      <c r="J233" s="4" t="s">
-        <v>587</v>
+        <v>51</v>
+      </c>
+      <c r="J233" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A234" s="28"/>
       <c r="B234" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C234" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -10976,31 +11006,31 @@
         <v>8</v>
       </c>
       <c r="I234">
-        <v>53</v>
-      </c>
-      <c r="J234" s="17" t="s">
-        <v>811</v>
+        <v>52</v>
+      </c>
+      <c r="J234" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A235" s="28"/>
       <c r="B235" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C235" t="s">
-        <v>519</v>
+        <v>320</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>8</v>
@@ -11008,62 +11038,62 @@
       <c r="I235">
         <v>53</v>
       </c>
-      <c r="J235" s="5" t="s">
-        <v>813</v>
+      <c r="J235" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A236" s="28"/>
       <c r="B236" t="s">
-        <v>157</v>
+        <v>543</v>
       </c>
       <c r="C236" t="s">
-        <v>321</v>
+        <v>519</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
         <v>8</v>
       </c>
       <c r="I236">
-        <v>54</v>
-      </c>
-      <c r="J236" s="4" t="s">
-        <v>810</v>
+        <v>53</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A237" s="28"/>
       <c r="B237" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C237" t="s">
-        <v>520</v>
+        <v>321</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
         <v>8</v>
@@ -11072,239 +11102,239 @@
         <v>54</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K237" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="238" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D238" s="9"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A239" s="25" t="s">
+    <row r="238" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A238" s="28"/>
+      <c r="B238" t="s">
+        <v>158</v>
+      </c>
+      <c r="C238" t="s">
+        <v>520</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>8</v>
+      </c>
+      <c r="I238">
+        <v>54</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D239" s="9"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A240" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B240" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C239" s="7"/>
-      <c r="D239" s="12"/>
-      <c r="E239" s="7"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-      <c r="I239" s="7"/>
-      <c r="J239" s="7"/>
-      <c r="K239" s="7"/>
-      <c r="L239" s="7"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A240" s="25"/>
-      <c r="B240" t="s">
-        <v>151</v>
-      </c>
+      <c r="C240" s="7"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="7"/>
+      <c r="J240" s="7"/>
+      <c r="K240" s="7"/>
+      <c r="L240" s="7"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="25"/>
       <c r="B241" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="25"/>
       <c r="B242" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="25"/>
       <c r="B243" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="25"/>
       <c r="B244" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="25"/>
       <c r="B245" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="25"/>
       <c r="B248" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="25"/>
       <c r="B249" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="25"/>
       <c r="B250" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
-      <c r="B253" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C253" s="7"/>
-      <c r="D253" s="12"/>
-      <c r="E253" s="7"/>
-      <c r="F253" s="7"/>
-      <c r="G253" s="7"/>
-      <c r="H253" s="7"/>
-      <c r="I253" s="7"/>
-      <c r="J253" s="7"/>
-      <c r="K253" s="7"/>
-      <c r="L253" s="7"/>
+      <c r="B253" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
-      <c r="B254" t="s">
-        <v>169</v>
-      </c>
+      <c r="B254" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C254" s="7"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="7"/>
+      <c r="H254" s="7"/>
+      <c r="I254" s="7"/>
+      <c r="J254" s="7"/>
+      <c r="K254" s="7"/>
+      <c r="L254" s="7"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="25"/>
       <c r="B255" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="25"/>
-      <c r="B256" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C256" s="7"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="7"/>
-      <c r="F256" s="7"/>
-      <c r="G256" s="7"/>
-      <c r="H256" s="7"/>
-      <c r="I256" s="7"/>
-      <c r="J256" s="7"/>
-      <c r="K256" s="7"/>
-      <c r="L256" s="7"/>
+      <c r="B256" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="25"/>
-      <c r="B257" t="s">
-        <v>172</v>
-      </c>
+      <c r="B257" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C257" s="7"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="7"/>
+      <c r="H257" s="7"/>
+      <c r="I257" s="7"/>
+      <c r="J257" s="7"/>
+      <c r="K257" s="7"/>
+      <c r="L257" s="7"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="25"/>
       <c r="B258" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A259" s="25"/>
+      <c r="B259" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="259" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D259" s="9"/>
-    </row>
-    <row r="260" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A260" s="26" t="s">
+    <row r="260" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D260" s="9"/>
+    </row>
+    <row r="261" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A261" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>174</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" t="s">
         <v>554</v>
       </c>
-      <c r="E260">
-        <v>0</v>
-      </c>
-      <c r="F260">
-        <v>0</v>
-      </c>
-      <c r="G260">
-        <v>0</v>
-      </c>
-      <c r="H260">
-        <v>10</v>
-      </c>
-      <c r="I260">
-        <v>0</v>
-      </c>
-      <c r="J260" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="K260" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A261" s="26"/>
-      <c r="B261" t="s">
-        <v>175</v>
-      </c>
-      <c r="C261" t="s">
-        <v>555</v>
-      </c>
       <c r="E261">
         <v>0</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
         <v>10</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K261" s="1" t="s">
-        <v>58</v>
+        <v>808</v>
+      </c>
+      <c r="K261" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="262" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A262" s="26"/>
       <c r="B262" t="s">
-        <v>561</v>
+        <v>175</v>
       </c>
       <c r="C262" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -11319,22 +11349,22 @@
         <v>10</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J262" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A263" s="26"/>
       <c r="B263" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C263" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -11349,31 +11379,28 @@
         <v>10</v>
       </c>
       <c r="I263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J263" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A264" s="26"/>
       <c r="B264" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C264" t="s">
-        <v>545</v>
-      </c>
-      <c r="D264" s="10" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E264">
         <v>0</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -11382,28 +11409,25 @@
         <v>10</v>
       </c>
       <c r="I264">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J264" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="L264" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A265" s="26"/>
       <c r="B265" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C265" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -11418,28 +11442,28 @@
         <v>10</v>
       </c>
       <c r="I265">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J265" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="L265" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A266" s="26"/>
       <c r="B266" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C266" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -11454,126 +11478,162 @@
         <v>10</v>
       </c>
       <c r="I266">
+        <v>5</v>
+      </c>
+      <c r="J266" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A267" s="26"/>
+      <c r="B267" t="s">
+        <v>569</v>
+      </c>
+      <c r="C267" t="s">
+        <v>574</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>10</v>
+      </c>
+      <c r="I267">
         <v>6</v>
       </c>
-      <c r="J266" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K266" s="1" t="s">
+      <c r="J267" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K267" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="L266" s="1" t="s">
+      <c r="L267" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="267" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D267" s="9"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A268" s="27" t="s">
+    <row r="268" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D268" s="9"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A269" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A269" s="27"/>
-      <c r="B269" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="27"/>
       <c r="B270" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="27"/>
       <c r="B271" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="27"/>
       <c r="B272" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="27"/>
       <c r="B273" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="27"/>
       <c r="B274" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="27"/>
       <c r="B275" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="27"/>
       <c r="B276" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="27"/>
       <c r="B277" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="27"/>
       <c r="B278" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="27"/>
       <c r="B279" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="27"/>
       <c r="B280" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="27"/>
       <c r="B281" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="27"/>
       <c r="B282" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="27"/>
+      <c r="B283" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A239:A258"/>
-    <mergeCell ref="A260:A266"/>
-    <mergeCell ref="A268:A282"/>
+    <mergeCell ref="A240:A259"/>
+    <mergeCell ref="A261:A267"/>
+    <mergeCell ref="A269:A283"/>
     <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A114:A136"/>
-    <mergeCell ref="A138:A150"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A160:A169"/>
-    <mergeCell ref="A171:A237"/>
+    <mergeCell ref="A115:A137"/>
+    <mergeCell ref="A139:A151"/>
+    <mergeCell ref="A154:A159"/>
+    <mergeCell ref="A161:A170"/>
+    <mergeCell ref="A172:A238"/>
     <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A39:A112"/>
+    <mergeCell ref="A39:A113"/>
     <mergeCell ref="A28:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11605,16 +11665,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -11641,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D4" t="s">
         <v>216</v>
@@ -11673,10 +11733,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -11739,37 +11799,37 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C15" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -11792,10 +11852,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C20" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -11852,19 +11912,19 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C27" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C28" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -11873,28 +11933,28 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C31" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C32" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">

--- a/藍芽傳輸規劃0923.xlsx
+++ b/藍芽傳輸規劃0923.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="879">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3757,6 +3757,42 @@
   </si>
   <si>
     <t>AppIOEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meteor事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeteorEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如結束遊戲、重新開始遊戲…等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instant事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstantEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instant事件，如烙下燈光、發出聲音…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錄製事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錄製事件，如結束錄製、重新錄製、關閉錄製</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4251,11 +4287,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:M289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F280" sqref="F280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -9765,145 +9801,96 @@
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
     </row>
-    <row r="193" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="28"/>
-      <c r="B193" t="s">
-        <v>148</v>
-      </c>
-      <c r="C193" t="s">
-        <v>286</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>8</v>
-      </c>
-      <c r="I193">
-        <v>16</v>
-      </c>
-      <c r="J193" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K193" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="28"/>
       <c r="B194" t="s">
-        <v>149</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="D194" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-      <c r="H194">
-        <v>8</v>
-      </c>
-      <c r="I194">
-        <v>16</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K194" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+      <c r="C194" t="s">
+        <v>871</v>
+      </c>
+      <c r="J194" s="4"/>
+      <c r="K194" s="1"/>
+      <c r="L194" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A195" s="28"/>
       <c r="B195" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C195" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F195">
         <v>1</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>8</v>
       </c>
       <c r="I195">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J195" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L195" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A196" s="28"/>
       <c r="B196" t="s">
-        <v>119</v>
-      </c>
-      <c r="C196" t="s">
-        <v>288</v>
+        <v>149</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>505</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
         <v>8</v>
       </c>
       <c r="I196">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J196" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L196" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A197" s="28"/>
       <c r="B197" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C197" t="s">
-        <v>506</v>
+        <v>287</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -9912,28 +9899,31 @@
         <v>8</v>
       </c>
       <c r="I197">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J197" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
+      </c>
+      <c r="L197" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A198" s="28"/>
       <c r="B198" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C198" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -9942,13 +9932,13 @@
         <v>8</v>
       </c>
       <c r="I198">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J198" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L198" t="s">
         <v>121</v>
@@ -9957,16 +9947,16 @@
     <row r="199" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A199" s="28"/>
       <c r="B199" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C199" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -9975,7 +9965,7 @@
         <v>8</v>
       </c>
       <c r="I199">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J199" s="4" t="s">
         <v>39</v>
@@ -9987,13 +9977,13 @@
     <row r="200" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A200" s="28"/>
       <c r="B200" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C200" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -10005,13 +9995,13 @@
         <v>8</v>
       </c>
       <c r="I200">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J200" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L200" t="s">
         <v>121</v>
@@ -10020,13 +10010,13 @@
     <row r="201" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A201" s="28"/>
       <c r="B201" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C201" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -10038,7 +10028,7 @@
         <v>8</v>
       </c>
       <c r="I201">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J201" s="4" t="s">
         <v>39</v>
@@ -10050,13 +10040,13 @@
     <row r="202" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A202" s="28"/>
       <c r="B202" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="C202" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -10068,23 +10058,28 @@
         <v>8</v>
       </c>
       <c r="I202">
-        <v>21</v>
-      </c>
-      <c r="J202" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J202" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K202" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="L202" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A203" s="28"/>
       <c r="B203" t="s">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="C203" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -10096,26 +10091,28 @@
         <v>8</v>
       </c>
       <c r="I203">
-        <v>21</v>
-      </c>
-      <c r="J203" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J203" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K203" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A204" s="28"/>
       <c r="B204" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="C204" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -10124,28 +10121,26 @@
         <v>8</v>
       </c>
       <c r="I204">
-        <v>22</v>
-      </c>
-      <c r="J204" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K204" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="J204" s="4"/>
+      <c r="K204" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A205" s="28"/>
       <c r="B205" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="C205" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -10154,28 +10149,26 @@
         <v>8</v>
       </c>
       <c r="I205">
-        <v>22</v>
-      </c>
-      <c r="J205" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J205" s="4"/>
       <c r="K205" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="28"/>
       <c r="B206" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C206" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -10184,7 +10177,7 @@
         <v>8</v>
       </c>
       <c r="I206">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J206" s="4" t="s">
         <v>39</v>
@@ -10196,16 +10189,16 @@
     <row r="207" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A207" s="28"/>
       <c r="B207" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C207" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -10214,7 +10207,7 @@
         <v>8</v>
       </c>
       <c r="I207">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J207" s="4" t="s">
         <v>39</v>
@@ -10226,16 +10219,16 @@
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="28"/>
       <c r="B208" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C208" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -10244,7 +10237,7 @@
         <v>8</v>
       </c>
       <c r="I208">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J208" s="4" t="s">
         <v>39</v>
@@ -10256,16 +10249,16 @@
     <row r="209" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A209" s="28"/>
       <c r="B209" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C209" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -10274,7 +10267,7 @@
         <v>8</v>
       </c>
       <c r="I209">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J209" s="4" t="s">
         <v>39</v>
@@ -10286,16 +10279,16 @@
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="28"/>
       <c r="B210" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C210" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -10304,7 +10297,7 @@
         <v>8</v>
       </c>
       <c r="I210">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J210" s="4" t="s">
         <v>39</v>
@@ -10316,16 +10309,16 @@
     <row r="211" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A211" s="28"/>
       <c r="B211" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C211" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -10334,7 +10327,7 @@
         <v>8</v>
       </c>
       <c r="I211">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>39</v>
@@ -10343,46 +10336,46 @@
         <v>84</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="28"/>
       <c r="B212" t="s">
-        <v>559</v>
+        <v>135</v>
       </c>
       <c r="C212" t="s">
-        <v>557</v>
+        <v>294</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>8</v>
       </c>
       <c r="I212">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J212" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K212" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K212" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A213" s="28"/>
       <c r="B213" t="s">
-        <v>560</v>
+        <v>136</v>
       </c>
       <c r="C213" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -10394,25 +10387,25 @@
         <v>8</v>
       </c>
       <c r="I213">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J213" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A214" s="28"/>
       <c r="B214" t="s">
-        <v>137</v>
+        <v>559</v>
       </c>
       <c r="C214" t="s">
-        <v>295</v>
+        <v>557</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -10424,28 +10417,25 @@
         <v>8</v>
       </c>
       <c r="I214">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>147</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A215" s="28"/>
       <c r="B215" t="s">
-        <v>138</v>
+        <v>560</v>
       </c>
       <c r="C215" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -10457,28 +10447,25 @@
         <v>8</v>
       </c>
       <c r="I215">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J215" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L215" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A216" s="28"/>
       <c r="B216" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C216" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -10490,59 +10477,64 @@
         <v>8</v>
       </c>
       <c r="I216">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J216" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L216" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A217" s="28"/>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="C217" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F217">
         <v>1</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
         <v>8</v>
       </c>
       <c r="I217">
-        <v>31</v>
-      </c>
-      <c r="J217" s="4"/>
-      <c r="K217" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="J217" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L217" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="C218" t="s">
-        <v>514</v>
+        <v>297</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -10551,26 +10543,31 @@
         <v>8</v>
       </c>
       <c r="I218">
-        <v>31</v>
-      </c>
-      <c r="J218" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="J218" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K218" s="1" t="s">
-        <v>58</v>
+        <v>142</v>
+      </c>
+      <c r="L218" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="28"/>
       <c r="B219" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C219" t="s">
-        <v>588</v>
+        <v>306</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -10579,7 +10576,7 @@
         <v>8</v>
       </c>
       <c r="I219">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J219" s="4"/>
       <c r="K219" t="s">
@@ -10589,16 +10586,16 @@
     <row r="220" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A220" s="28"/>
       <c r="B220" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C220" t="s">
-        <v>589</v>
+        <v>514</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -10607,7 +10604,7 @@
         <v>8</v>
       </c>
       <c r="I220">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J220" s="4"/>
       <c r="K220" s="1" t="s">
@@ -10617,13 +10614,13 @@
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="28"/>
       <c r="B221" t="s">
-        <v>590</v>
+        <v>301</v>
       </c>
       <c r="C221" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>594</v>
+        <v>470</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -10635,7 +10632,7 @@
         <v>8</v>
       </c>
       <c r="I221">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J221" s="4"/>
       <c r="K221" t="s">
@@ -10645,13 +10642,13 @@
     <row r="222" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A222" s="28"/>
       <c r="B222" t="s">
-        <v>591</v>
+        <v>302</v>
       </c>
       <c r="C222" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>595</v>
+        <v>471</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -10663,7 +10660,7 @@
         <v>8</v>
       </c>
       <c r="I222">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J222" s="4"/>
       <c r="K222" s="1" t="s">
@@ -10672,90 +10669,86 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="28"/>
-      <c r="B223" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C223" s="8"/>
-      <c r="D223" s="11"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="8"/>
-      <c r="J223" s="8"/>
-      <c r="K223" s="8"/>
-      <c r="L223" s="8"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>590</v>
+      </c>
+      <c r="C223" t="s">
+        <v>592</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>8</v>
+      </c>
+      <c r="I223">
+        <v>33</v>
+      </c>
+      <c r="J223" s="4"/>
+      <c r="K223" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A224" s="28"/>
       <c r="B224" t="s">
-        <v>144</v>
+        <v>591</v>
       </c>
       <c r="C224" t="s">
-        <v>298</v>
+        <v>593</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>472</v>
+        <v>595</v>
       </c>
       <c r="F224">
         <v>1</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
         <v>8</v>
       </c>
       <c r="I224">
-        <v>48</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K224" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="J224" s="4"/>
+      <c r="K224" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="28"/>
-      <c r="B225" t="s">
-        <v>145</v>
-      </c>
-      <c r="C225" t="s">
-        <v>515</v>
-      </c>
-      <c r="D225" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-      <c r="G225">
-        <v>1</v>
-      </c>
-      <c r="H225">
-        <v>8</v>
-      </c>
-      <c r="I225">
-        <v>48</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K225" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B225" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C225" s="8"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="8"/>
+      <c r="H225" s="8"/>
+      <c r="I225" s="8"/>
+      <c r="J225" s="8"/>
+      <c r="K225" s="8"/>
+      <c r="L225" s="8"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C226" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -10767,28 +10760,25 @@
         <v>8</v>
       </c>
       <c r="I226">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J226" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K226" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>801</v>
+      <c r="K226" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A227" s="28"/>
       <c r="B227" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C227" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -10800,7 +10790,7 @@
         <v>8</v>
       </c>
       <c r="I227">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J227" s="4" t="s">
         <v>39</v>
@@ -10809,16 +10799,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A228" s="28"/>
       <c r="B228" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C228" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -10830,25 +10820,28 @@
         <v>8</v>
       </c>
       <c r="I228">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J228" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A229" s="28"/>
       <c r="B229" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C229" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -10860,22 +10853,25 @@
         <v>8</v>
       </c>
       <c r="I229">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J229" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A230" s="28"/>
       <c r="B230" t="s">
-        <v>857</v>
+        <v>151</v>
       </c>
       <c r="C230" t="s">
-        <v>856</v>
+        <v>308</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>476</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -10887,20 +10883,25 @@
         <v>8</v>
       </c>
       <c r="I230">
-        <v>51</v>
-      </c>
-      <c r="J230" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K230" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A231" s="28"/>
       <c r="B231" t="s">
-        <v>858</v>
+        <v>152</v>
       </c>
       <c r="C231" t="s">
-        <v>859</v>
+        <v>517</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>477</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -10912,29 +10913,25 @@
         <v>8</v>
       </c>
       <c r="I231">
-        <v>51</v>
-      </c>
-      <c r="J231" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K231" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="L231" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A232" s="28"/>
       <c r="B232" t="s">
-        <v>539</v>
+        <v>857</v>
       </c>
       <c r="C232" t="s">
-        <v>318</v>
-      </c>
-      <c r="D232" s="10" t="s">
-        <v>478</v>
+        <v>856</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -10945,26 +10942,21 @@
       <c r="I232">
         <v>51</v>
       </c>
-      <c r="J232" s="17" t="s">
-        <v>809</v>
-      </c>
+      <c r="J232" s="4"/>
       <c r="K232" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A233" s="28"/>
       <c r="B233" t="s">
-        <v>540</v>
+        <v>858</v>
       </c>
       <c r="C233" t="s">
-        <v>518</v>
-      </c>
-      <c r="D233" s="10" t="s">
-        <v>479</v>
+        <v>859</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -10975,29 +10967,27 @@
       <c r="I233">
         <v>51</v>
       </c>
-      <c r="J233" s="5" t="s">
-        <v>811</v>
-      </c>
+      <c r="J233" s="4"/>
       <c r="K233" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+      <c r="L233" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A234" s="28"/>
       <c r="B234" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C234" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -11006,88 +10996,88 @@
         <v>8</v>
       </c>
       <c r="I234">
-        <v>52</v>
-      </c>
-      <c r="J234" s="4" t="s">
-        <v>587</v>
+        <v>51</v>
+      </c>
+      <c r="J234" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A235" s="28"/>
       <c r="B235" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C235" t="s">
-        <v>320</v>
+        <v>518</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
         <v>8</v>
       </c>
       <c r="I235">
-        <v>53</v>
-      </c>
-      <c r="J235" s="17" t="s">
-        <v>809</v>
+        <v>51</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A236" s="28"/>
       <c r="B236" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C236" t="s">
-        <v>519</v>
+        <v>319</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
         <v>8</v>
       </c>
       <c r="I236">
-        <v>53</v>
-      </c>
-      <c r="J236" s="5" t="s">
-        <v>811</v>
+        <v>52</v>
+      </c>
+      <c r="J236" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L236" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A237" s="28"/>
       <c r="B237" t="s">
-        <v>157</v>
+        <v>542</v>
       </c>
       <c r="C237" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -11099,25 +11089,25 @@
         <v>8</v>
       </c>
       <c r="I237">
-        <v>54</v>
-      </c>
-      <c r="J237" s="4" t="s">
-        <v>808</v>
+        <v>53</v>
+      </c>
+      <c r="J237" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>523</v>
+        <v>193</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A238" s="28"/>
       <c r="B238" t="s">
-        <v>158</v>
+        <v>543</v>
       </c>
       <c r="C238" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -11129,305 +11119,262 @@
         <v>8</v>
       </c>
       <c r="I238">
+        <v>53</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A239" s="28"/>
+      <c r="B239" t="s">
+        <v>157</v>
+      </c>
+      <c r="C239" t="s">
+        <v>321</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>8</v>
+      </c>
+      <c r="I239">
         <v>54</v>
       </c>
-      <c r="J238" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K238" s="1" t="s">
+      <c r="J239" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="K239" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="9"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A240" s="25" t="s">
+    <row r="240" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A240" s="28"/>
+      <c r="B240" t="s">
+        <v>158</v>
+      </c>
+      <c r="C240" t="s">
+        <v>520</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>8</v>
+      </c>
+      <c r="I240">
+        <v>54</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D241" s="9"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A242" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B242" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C240" s="7"/>
-      <c r="D240" s="12"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7"/>
-      <c r="I240" s="7"/>
-      <c r="J240" s="7"/>
-      <c r="K240" s="7"/>
-      <c r="L240" s="7"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A241" s="25"/>
-      <c r="B241" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A242" s="25"/>
-      <c r="B242" t="s">
-        <v>152</v>
-      </c>
+      <c r="C242" s="7"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="7"/>
+      <c r="J242" s="7"/>
+      <c r="K242" s="7"/>
+      <c r="L242" s="7"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="25"/>
       <c r="B243" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="25"/>
       <c r="B244" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="25"/>
       <c r="B245" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="25"/>
       <c r="B248" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="25"/>
       <c r="B249" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="25"/>
       <c r="B250" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
       <c r="B253" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
-      <c r="B254" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C254" s="7"/>
-      <c r="D254" s="12"/>
-      <c r="E254" s="7"/>
-      <c r="F254" s="7"/>
-      <c r="G254" s="7"/>
-      <c r="H254" s="7"/>
-      <c r="I254" s="7"/>
-      <c r="J254" s="7"/>
-      <c r="K254" s="7"/>
-      <c r="L254" s="7"/>
+      <c r="B254" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="25"/>
       <c r="B255" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="25"/>
-      <c r="B256" t="s">
-        <v>170</v>
-      </c>
+      <c r="B256" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C256" s="7"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+      <c r="H256" s="7"/>
+      <c r="I256" s="7"/>
+      <c r="J256" s="7"/>
+      <c r="K256" s="7"/>
+      <c r="L256" s="7"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="25"/>
-      <c r="B257" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C257" s="7"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="7"/>
-      <c r="F257" s="7"/>
-      <c r="G257" s="7"/>
-      <c r="H257" s="7"/>
-      <c r="I257" s="7"/>
-      <c r="J257" s="7"/>
-      <c r="K257" s="7"/>
-      <c r="L257" s="7"/>
+      <c r="B257" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="25"/>
       <c r="B258" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="25"/>
-      <c r="B259" t="s">
+      <c r="B259" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C259" s="7"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" s="7"/>
+      <c r="H259" s="7"/>
+      <c r="I259" s="7"/>
+      <c r="J259" s="7"/>
+      <c r="K259" s="7"/>
+      <c r="L259" s="7"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A260" s="25"/>
+      <c r="B260" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A261" s="25"/>
+      <c r="B261" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="260" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D260" s="9"/>
-    </row>
-    <row r="261" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A261" s="26" t="s">
+    <row r="262" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D262" s="9"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A263" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B261" t="s">
-        <v>174</v>
-      </c>
-      <c r="C261" t="s">
-        <v>554</v>
-      </c>
-      <c r="E261">
-        <v>0</v>
-      </c>
-      <c r="F261">
-        <v>0</v>
-      </c>
-      <c r="G261">
-        <v>0</v>
-      </c>
-      <c r="H261">
-        <v>10</v>
-      </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="K261" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A262" s="26"/>
-      <c r="B262" t="s">
-        <v>175</v>
-      </c>
-      <c r="C262" t="s">
-        <v>555</v>
-      </c>
-      <c r="E262">
-        <v>0</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="H262">
-        <v>10</v>
-      </c>
-      <c r="I262">
-        <v>1</v>
-      </c>
-      <c r="J262" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K262" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A263" s="26"/>
       <c r="B263" t="s">
-        <v>561</v>
+        <v>873</v>
       </c>
       <c r="C263" t="s">
-        <v>552</v>
-      </c>
-      <c r="E263">
-        <v>0</v>
-      </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-      <c r="H263">
-        <v>10</v>
-      </c>
-      <c r="I263">
-        <v>2</v>
-      </c>
-      <c r="J263" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K263" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+      <c r="J263" s="4"/>
+      <c r="L263" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="26"/>
-      <c r="B264" t="s">
-        <v>562</v>
-      </c>
-      <c r="C264" t="s">
-        <v>553</v>
-      </c>
-      <c r="E264">
-        <v>0</v>
-      </c>
-      <c r="F264">
-        <v>1</v>
-      </c>
-      <c r="G264">
-        <v>1</v>
-      </c>
-      <c r="H264">
-        <v>10</v>
-      </c>
-      <c r="I264">
-        <v>3</v>
-      </c>
-      <c r="J264" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K264" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="J264" s="4"/>
+    </row>
+    <row r="265" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A265" s="26"/>
       <c r="B265" t="s">
-        <v>567</v>
+        <v>174</v>
       </c>
       <c r="C265" t="s">
-        <v>545</v>
-      </c>
-      <c r="D265" s="10" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -11436,40 +11383,34 @@
         <v>0</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
         <v>10</v>
       </c>
       <c r="I265">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K265" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="L265" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+      <c r="K265" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A266" s="26"/>
       <c r="B266" t="s">
-        <v>568</v>
+        <v>175</v>
       </c>
       <c r="C266" t="s">
-        <v>544</v>
-      </c>
-      <c r="D266" s="10" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="E266">
         <v>0</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -11478,34 +11419,28 @@
         <v>10</v>
       </c>
       <c r="I266">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J266" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L266" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A267" s="26"/>
       <c r="B267" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C267" t="s">
-        <v>574</v>
-      </c>
-      <c r="D267" s="10" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="E267">
         <v>0</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -11514,124 +11449,277 @@
         <v>10</v>
       </c>
       <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="26"/>
+      <c r="B268" t="s">
+        <v>562</v>
+      </c>
+      <c r="C268" t="s">
+        <v>553</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>10</v>
+      </c>
+      <c r="I268">
+        <v>3</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A269" s="26"/>
+      <c r="B269" t="s">
+        <v>567</v>
+      </c>
+      <c r="C269" t="s">
+        <v>545</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>10</v>
+      </c>
+      <c r="I269">
+        <v>4</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="L269" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A270" s="26"/>
+      <c r="B270" t="s">
+        <v>568</v>
+      </c>
+      <c r="C270" t="s">
+        <v>544</v>
+      </c>
+      <c r="D270" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>10</v>
+      </c>
+      <c r="I270">
+        <v>5</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A271" s="26"/>
+      <c r="B271" t="s">
+        <v>569</v>
+      </c>
+      <c r="C271" t="s">
+        <v>574</v>
+      </c>
+      <c r="D271" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>10</v>
+      </c>
+      <c r="I271">
         <v>6</v>
       </c>
-      <c r="J267" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K267" s="1" t="s">
+      <c r="J271" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K271" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="L267" s="1" t="s">
+      <c r="L271" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="268" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D268" s="9"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A269" s="27" t="s">
+    <row r="272" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D272" s="9"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A273" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B269" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A270" s="27"/>
-      <c r="B270" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A271" s="27"/>
-      <c r="B271" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A272" s="27"/>
-      <c r="B272" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="27"/>
-      <c r="B273" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="27"/>
       <c r="B274" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+      <c r="C274" t="s">
+        <v>877</v>
+      </c>
+      <c r="J274" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L274" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="27"/>
       <c r="B275" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="27"/>
       <c r="B276" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="27"/>
       <c r="B277" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="27"/>
       <c r="B278" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="27"/>
       <c r="B279" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="27"/>
       <c r="B280" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="27"/>
       <c r="B281" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="27"/>
       <c r="B282" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="27"/>
       <c r="B283" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A284" s="27"/>
+      <c r="B284" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A285" s="27"/>
+      <c r="B285" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A286" s="27"/>
+      <c r="B286" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A287" s="27"/>
+      <c r="B287" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A288" s="27"/>
+      <c r="B288" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="27"/>
+      <c r="B289" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A240:A259"/>
-    <mergeCell ref="A261:A267"/>
-    <mergeCell ref="A269:A283"/>
+    <mergeCell ref="A242:A261"/>
+    <mergeCell ref="A263:A271"/>
+    <mergeCell ref="A273:A289"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A115:A137"/>
     <mergeCell ref="A139:A151"/>
     <mergeCell ref="A154:A159"/>
     <mergeCell ref="A161:A170"/>
-    <mergeCell ref="A172:A238"/>
+    <mergeCell ref="A172:A240"/>
     <mergeCell ref="A19:A26"/>
     <mergeCell ref="A39:A113"/>
     <mergeCell ref="A28:A37"/>

--- a/藍芽傳輸規劃0923.xlsx
+++ b/藍芽傳輸規劃0923.xlsx
@@ -16,6 +16,7 @@
     <sheet name="request" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="885">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3793,6 +3794,32 @@
   </si>
   <si>
     <t>錄製事件，如結束錄製、重新錄製、關閉錄製</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"value":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透過一個共用密鑰解密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendEncryptedIdentifyMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnDecryptedIdentifyMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳送加密識別文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回傳解密識別文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4287,11 +4314,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M289"/>
+  <dimension ref="A1:M291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F280" sqref="F280"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4642,82 +4669,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>883</v>
       </c>
       <c r="C12" t="s">
-        <v>813</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
+        <v>881</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="178.2" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>884</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>8</v>
+        <v>882</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>201</v>
+        <v>879</v>
+      </c>
+      <c r="L13" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>813</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4732,25 +4726,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4765,31 +4759,31 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4798,153 +4792,159 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>10</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="J19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4956,25 +4956,25 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>84</v>
+      <c r="K22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4986,25 +4986,25 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>39</v>
@@ -5028,16 +5028,16 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5046,28 +5046,28 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K25" t="s">
-        <v>35</v>
+      <c r="K25" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>39</v>
@@ -5085,81 +5085,81 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5171,25 +5171,25 @@
         <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5201,28 +5201,28 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>39</v>
@@ -5240,19 +5240,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -5261,28 +5261,28 @@
         <v>2</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -5291,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>39</v>
@@ -5303,16 +5303,16 @@
     <row r="35" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -5321,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>39</v>
@@ -5333,16 +5333,16 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -5351,28 +5351,28 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5381,102 +5381,96 @@
         <v>2</v>
       </c>
       <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
         <v>4</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37" s="1" t="s">
+      <c r="J38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+    <row r="40" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>863</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>869</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="L39" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" t="s">
-        <v>864</v>
-      </c>
-      <c r="C40" t="s">
-        <v>865</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="L40" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" t="s">
-        <v>613</v>
-      </c>
-      <c r="C41" t="s">
-        <v>634</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>355</v>
-      </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -5488,22 +5482,25 @@
         <v>39</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>58</v>
+        <v>867</v>
+      </c>
+      <c r="L41" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
       <c r="B42" t="s">
-        <v>666</v>
+        <v>864</v>
       </c>
       <c r="C42" t="s">
-        <v>695</v>
+        <v>865</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>723</v>
+        <v>354</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5518,22 +5515,25 @@
         <v>39</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>34</v>
+        <v>867</v>
+      </c>
+      <c r="L42" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" t="s">
-        <v>667</v>
+        <v>613</v>
       </c>
       <c r="C43" t="s">
-        <v>696</v>
+        <v>634</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>724</v>
+        <v>355</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5554,16 +5554,16 @@
     <row r="44" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" t="s">
-        <v>614</v>
+        <v>666</v>
       </c>
       <c r="C44" t="s">
-        <v>635</v>
+        <v>695</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>356</v>
+        <v>723</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>39</v>
@@ -5584,16 +5584,16 @@
     <row r="45" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A45" s="29"/>
       <c r="B45" t="s">
-        <v>615</v>
+        <v>667</v>
       </c>
       <c r="C45" t="s">
-        <v>636</v>
+        <v>696</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>357</v>
+        <v>724</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -5602,7 +5602,7 @@
         <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>39</v>
@@ -5614,16 +5614,16 @@
     <row r="46" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
       <c r="B46" t="s">
-        <v>668</v>
+        <v>614</v>
       </c>
       <c r="C46" t="s">
-        <v>697</v>
+        <v>635</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>725</v>
+        <v>356</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5644,16 +5644,16 @@
     <row r="47" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" t="s">
-        <v>669</v>
+        <v>615</v>
       </c>
       <c r="C47" t="s">
-        <v>698</v>
+        <v>636</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>726</v>
+        <v>357</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -5674,16 +5674,16 @@
     <row r="48" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" t="s">
-        <v>616</v>
+        <v>668</v>
       </c>
       <c r="C48" t="s">
-        <v>637</v>
+        <v>697</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>358</v>
+        <v>725</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>39</v>
@@ -5704,16 +5704,16 @@
     <row r="49" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
       <c r="B49" t="s">
-        <v>617</v>
+        <v>669</v>
       </c>
       <c r="C49" t="s">
-        <v>638</v>
+        <v>698</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>359</v>
+        <v>726</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -5722,7 +5722,7 @@
         <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>39</v>
@@ -5734,16 +5734,16 @@
     <row r="50" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
       <c r="B50" t="s">
-        <v>670</v>
+        <v>616</v>
       </c>
       <c r="C50" t="s">
-        <v>699</v>
+        <v>637</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>727</v>
+        <v>358</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5764,16 +5764,16 @@
     <row r="51" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
       <c r="B51" t="s">
-        <v>671</v>
+        <v>617</v>
       </c>
       <c r="C51" t="s">
-        <v>700</v>
+        <v>638</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>728</v>
+        <v>359</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5791,19 +5791,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
       <c r="B52" t="s">
-        <v>618</v>
+        <v>670</v>
       </c>
       <c r="C52" t="s">
-        <v>639</v>
+        <v>699</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>360</v>
+        <v>727</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5812,28 +5812,28 @@
         <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A53" s="29"/>
       <c r="B53" t="s">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="C53" t="s">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>361</v>
+        <v>728</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5842,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>39</v>
@@ -5854,16 +5854,16 @@
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
       <c r="B54" t="s">
-        <v>672</v>
+        <v>618</v>
       </c>
       <c r="C54" t="s">
-        <v>701</v>
+        <v>639</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>729</v>
+        <v>360</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5884,16 +5884,16 @@
     <row r="55" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
       <c r="B55" t="s">
-        <v>673</v>
+        <v>619</v>
       </c>
       <c r="C55" t="s">
-        <v>702</v>
+        <v>640</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>730</v>
+        <v>361</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5914,16 +5914,16 @@
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="29"/>
       <c r="B56" t="s">
-        <v>620</v>
+        <v>672</v>
       </c>
       <c r="C56" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>362</v>
+        <v>729</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>3</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>39</v>
@@ -5944,16 +5944,16 @@
     <row r="57" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
       <c r="B57" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C57" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>599</v>
+        <v>730</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>3</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>39</v>
@@ -5974,16 +5974,16 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="29"/>
       <c r="B58" t="s">
-        <v>675</v>
+        <v>620</v>
       </c>
       <c r="C58" t="s">
-        <v>703</v>
+        <v>641</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>731</v>
+        <v>362</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -6004,16 +6004,16 @@
     <row r="59" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C59" t="s">
-        <v>704</v>
+        <v>642</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>732</v>
+        <v>599</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -6034,16 +6034,16 @@
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>621</v>
+        <v>675</v>
       </c>
       <c r="C60" t="s">
-        <v>643</v>
+        <v>703</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>363</v>
+        <v>731</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -6052,28 +6052,28 @@
         <v>3</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>612</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>622</v>
+        <v>676</v>
       </c>
       <c r="C61" t="s">
-        <v>644</v>
+        <v>704</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>364</v>
+        <v>732</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6082,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>39</v>
@@ -6094,16 +6094,16 @@
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>677</v>
+        <v>621</v>
       </c>
       <c r="C62" t="s">
-        <v>705</v>
+        <v>643</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>733</v>
+        <v>363</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -6124,16 +6124,16 @@
     <row r="63" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>678</v>
+        <v>622</v>
       </c>
       <c r="C63" t="s">
-        <v>706</v>
+        <v>644</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>734</v>
+        <v>364</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6151,19 +6151,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>623</v>
+        <v>677</v>
       </c>
       <c r="C64" t="s">
-        <v>645</v>
+        <v>705</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>365</v>
+        <v>733</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6172,28 +6172,28 @@
         <v>3</v>
       </c>
       <c r="I64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>83</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>624</v>
+        <v>678</v>
       </c>
       <c r="C65" t="s">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>366</v>
+        <v>734</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6202,7 +6202,7 @@
         <v>3</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>39</v>
@@ -6214,16 +6214,16 @@
     <row r="66" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>679</v>
+        <v>623</v>
       </c>
       <c r="C66" t="s">
-        <v>707</v>
+        <v>645</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>735</v>
+        <v>365</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6244,16 +6244,16 @@
     <row r="67" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>680</v>
+        <v>624</v>
       </c>
       <c r="C67" t="s">
-        <v>708</v>
+        <v>646</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>736</v>
+        <v>366</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6274,16 +6274,16 @@
     <row r="68" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>625</v>
+        <v>679</v>
       </c>
       <c r="C68" t="s">
-        <v>647</v>
+        <v>707</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>600</v>
+        <v>735</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6292,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="I68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>39</v>
@@ -6304,16 +6304,16 @@
     <row r="69" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="C69" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>367</v>
+        <v>736</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6322,7 +6322,7 @@
         <v>3</v>
       </c>
       <c r="I69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>39</v>
@@ -6334,16 +6334,16 @@
     <row r="70" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>681</v>
+        <v>625</v>
       </c>
       <c r="C70" t="s">
-        <v>709</v>
+        <v>647</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>737</v>
+        <v>600</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6364,16 +6364,16 @@
     <row r="71" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
       <c r="B71" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="C71" t="s">
-        <v>710</v>
+        <v>648</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>738</v>
+        <v>367</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6394,16 +6394,16 @@
     <row r="72" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="C72" t="s">
-        <v>657</v>
+        <v>709</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>368</v>
+        <v>737</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6412,28 +6412,28 @@
         <v>3</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="C73" t="s">
-        <v>658</v>
+        <v>710</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>601</v>
+        <v>738</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6442,7 +6442,7 @@
         <v>3</v>
       </c>
       <c r="I73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>39</v>
@@ -6454,16 +6454,16 @@
     <row r="74" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="C74" t="s">
-        <v>711</v>
+        <v>657</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>596</v>
+        <v>368</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6484,16 +6484,16 @@
     <row r="75" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="C75" t="s">
-        <v>712</v>
+        <v>658</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>739</v>
+        <v>601</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6514,16 +6514,16 @@
     <row r="76" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="C76" t="s">
-        <v>659</v>
+        <v>711</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>3</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>39</v>
@@ -6544,16 +6544,16 @@
     <row r="77" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="B77" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="C77" t="s">
-        <v>660</v>
+        <v>712</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>603</v>
+        <v>739</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -6562,7 +6562,7 @@
         <v>3</v>
       </c>
       <c r="I77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>39</v>
@@ -6574,16 +6574,16 @@
     <row r="78" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
       <c r="B78" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="C78" t="s">
-        <v>713</v>
+        <v>659</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>740</v>
+        <v>602</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -6604,16 +6604,16 @@
     <row r="79" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="C79" t="s">
-        <v>714</v>
+        <v>660</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>741</v>
+        <v>603</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -6631,19 +6631,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
       <c r="B80" t="s">
-        <v>626</v>
+        <v>685</v>
       </c>
       <c r="C80" t="s">
-        <v>649</v>
+        <v>713</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>604</v>
+        <v>740</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -6652,26 +6652,28 @@
         <v>3</v>
       </c>
       <c r="I80">
-        <v>10</v>
-      </c>
-      <c r="J80" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K80" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" t="s">
-        <v>627</v>
+        <v>686</v>
       </c>
       <c r="C81" t="s">
-        <v>650</v>
+        <v>714</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>605</v>
+        <v>741</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -6680,28 +6682,28 @@
         <v>3</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>597</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
       <c r="B82" t="s">
-        <v>687</v>
+        <v>626</v>
       </c>
       <c r="C82" t="s">
-        <v>715</v>
+        <v>649</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>742</v>
+        <v>604</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -6720,16 +6722,16 @@
     <row r="83" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
       <c r="B83" t="s">
-        <v>688</v>
+        <v>627</v>
       </c>
       <c r="C83" t="s">
-        <v>716</v>
+        <v>650</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>743</v>
+        <v>605</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -6747,19 +6749,19 @@
         <v>597</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="29"/>
       <c r="B84" t="s">
-        <v>628</v>
+        <v>687</v>
       </c>
       <c r="C84" t="s">
-        <v>651</v>
+        <v>715</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>606</v>
+        <v>742</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -6768,28 +6770,26 @@
         <v>3</v>
       </c>
       <c r="I84">
-        <v>11</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J84" s="4"/>
       <c r="K84" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
       <c r="B85" t="s">
-        <v>629</v>
+        <v>688</v>
       </c>
       <c r="C85" t="s">
-        <v>652</v>
+        <v>716</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>607</v>
+        <v>743</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -6798,28 +6798,28 @@
         <v>3</v>
       </c>
       <c r="I85">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
       <c r="B86" t="s">
-        <v>689</v>
+        <v>628</v>
       </c>
       <c r="C86" t="s">
-        <v>717</v>
+        <v>651</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>744</v>
+        <v>606</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -6840,16 +6840,16 @@
     <row r="87" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>690</v>
+        <v>629</v>
       </c>
       <c r="C87" t="s">
-        <v>718</v>
+        <v>652</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>745</v>
+        <v>607</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -6867,19 +6867,19 @@
         <v>598</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>630</v>
+        <v>689</v>
       </c>
       <c r="C88" t="s">
-        <v>653</v>
+        <v>717</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>608</v>
+        <v>744</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -6888,26 +6888,28 @@
         <v>3</v>
       </c>
       <c r="I88">
-        <v>12</v>
-      </c>
-      <c r="J88" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K88" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" t="s">
-        <v>631</v>
+        <v>690</v>
       </c>
       <c r="C89" t="s">
-        <v>654</v>
+        <v>718</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>609</v>
+        <v>745</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -6916,26 +6918,28 @@
         <v>3</v>
       </c>
       <c r="I89">
-        <v>12</v>
-      </c>
-      <c r="J89" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K89" s="1" t="s">
-        <v>58</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" t="s">
-        <v>691</v>
+        <v>630</v>
       </c>
       <c r="C90" t="s">
-        <v>719</v>
+        <v>653</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>746</v>
+        <v>608</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -6954,16 +6958,16 @@
     <row r="91" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
       <c r="B91" t="s">
-        <v>692</v>
+        <v>631</v>
       </c>
       <c r="C91" t="s">
-        <v>720</v>
+        <v>654</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>747</v>
+        <v>609</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -6982,16 +6986,16 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
       <c r="B92" t="s">
-        <v>632</v>
+        <v>691</v>
       </c>
       <c r="C92" t="s">
-        <v>656</v>
+        <v>719</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>610</v>
+        <v>746</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -7000,7 +7004,7 @@
         <v>3</v>
       </c>
       <c r="I92">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="1" t="s">
@@ -7010,16 +7014,16 @@
     <row r="93" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
       <c r="B93" t="s">
-        <v>633</v>
+        <v>692</v>
       </c>
       <c r="C93" t="s">
-        <v>655</v>
+        <v>720</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>611</v>
+        <v>747</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -7028,11 +7032,9 @@
         <v>3</v>
       </c>
       <c r="I93">
-        <v>13</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J93" s="4"/>
       <c r="K93" s="1" t="s">
         <v>58</v>
       </c>
@@ -7040,16 +7042,16 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
       <c r="B94" t="s">
-        <v>693</v>
+        <v>632</v>
       </c>
       <c r="C94" t="s">
-        <v>721</v>
+        <v>656</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>748</v>
+        <v>610</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -7068,16 +7070,16 @@
     <row r="95" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
       <c r="B95" t="s">
-        <v>694</v>
+        <v>633</v>
       </c>
       <c r="C95" t="s">
-        <v>722</v>
+        <v>655</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>749</v>
+        <v>611</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -7098,16 +7100,16 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
       <c r="B96" t="s">
-        <v>750</v>
+        <v>693</v>
       </c>
       <c r="C96" t="s">
-        <v>760</v>
+        <v>721</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -7116,24 +7118,26 @@
         <v>3</v>
       </c>
       <c r="I96">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J96" s="4"/>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K96" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A97" s="29"/>
       <c r="B97" t="s">
-        <v>751</v>
+        <v>694</v>
       </c>
       <c r="C97" t="s">
-        <v>761</v>
+        <v>722</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -7142,26 +7146,28 @@
         <v>3</v>
       </c>
       <c r="I97">
-        <v>16</v>
-      </c>
-      <c r="J97" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K97" s="1" t="s">
-        <v>782</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="29"/>
       <c r="B98" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C98" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -7178,16 +7184,16 @@
     <row r="99" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
       <c r="B99" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C99" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -7200,22 +7206,22 @@
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
       <c r="B100" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C100" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -7224,26 +7230,24 @@
         <v>3</v>
       </c>
       <c r="I100">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J100" s="4"/>
-      <c r="K100" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A101" s="29"/>
       <c r="B101" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C101" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -7252,24 +7256,26 @@
         <v>3</v>
       </c>
       <c r="I101">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J101" s="4"/>
-      <c r="K101" s="1"/>
+      <c r="K101" s="1" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="102" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A102" s="29"/>
       <c r="B102" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C102" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -7288,16 +7294,16 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="29"/>
       <c r="B103" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C103" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -7314,16 +7320,16 @@
     <row r="104" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A104" s="29"/>
       <c r="B104" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C104" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -7332,7 +7338,7 @@
         <v>3</v>
       </c>
       <c r="I104">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="1" t="s">
@@ -7342,16 +7348,16 @@
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="29"/>
       <c r="B105" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="C105" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -7360,7 +7366,7 @@
         <v>3</v>
       </c>
       <c r="I105">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="1"/>
@@ -7368,16 +7374,16 @@
     <row r="106" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A106" s="29"/>
       <c r="B106" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C106" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -7396,16 +7402,16 @@
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="29"/>
       <c r="B107" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C107" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -7422,16 +7428,16 @@
     <row r="108" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A108" s="29"/>
       <c r="B108" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="C108" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -7440,26 +7446,26 @@
         <v>3</v>
       </c>
       <c r="I108">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="29"/>
       <c r="B109" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="C109" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -7468,29 +7474,24 @@
         <v>3</v>
       </c>
       <c r="I109">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J109" s="4"/>
-      <c r="K109" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L109" t="s">
-        <v>800</v>
-      </c>
+      <c r="K109" s="1"/>
     </row>
     <row r="110" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A110" s="29"/>
       <c r="B110" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="C110" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -7499,26 +7500,26 @@
         <v>3</v>
       </c>
       <c r="I110">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A111" s="29"/>
       <c r="B111" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="C111" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -7527,96 +7528,95 @@
         <v>3</v>
       </c>
       <c r="I111">
+        <v>19</v>
+      </c>
+      <c r="J111" s="4"/>
+      <c r="K111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L111" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="29"/>
+      <c r="B112" t="s">
+        <v>768</v>
+      </c>
+      <c r="C112" t="s">
+        <v>775</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
         <v>20</v>
       </c>
-      <c r="J111" s="4"/>
-      <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="29"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="1"/>
+      <c r="K112" s="1" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="29"/>
+      <c r="B113" t="s">
+        <v>780</v>
+      </c>
+      <c r="C113" t="s">
+        <v>781</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
+        <v>20</v>
+      </c>
       <c r="J113" s="4"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="9"/>
-    </row>
-    <row r="115" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="28" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="29"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="29"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>37</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C117" t="s">
         <v>309</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D117" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>4</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="28"/>
-      <c r="B116" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" t="s">
-        <v>485</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>4</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="28"/>
-      <c r="B117" t="s">
-        <v>248</v>
-      </c>
-      <c r="C117" t="s">
-        <v>310</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>371</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -7628,25 +7628,25 @@
         <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117" s="17" t="s">
-        <v>810</v>
+        <v>0</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A118" s="28"/>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -7658,31 +7658,28 @@
         <v>4</v>
       </c>
       <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>811</v>
+        <v>0</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A119" s="28"/>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -7691,91 +7688,91 @@
         <v>4</v>
       </c>
       <c r="I119">
-        <v>2</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>808</v>
+        <v>1</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>810</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A120" s="28"/>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>486</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>4</v>
       </c>
       <c r="I120">
-        <v>3</v>
-      </c>
-      <c r="J120" s="17" t="s">
-        <v>809</v>
+        <v>1</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A121" s="28"/>
       <c r="B121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>487</v>
+        <v>243</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>4</v>
       </c>
       <c r="I121">
-        <v>3</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>811</v>
+        <v>2</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>197</v>
+        <v>844</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A122" s="28"/>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -7787,25 +7784,25 @@
         <v>4</v>
       </c>
       <c r="I122">
-        <v>4</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>808</v>
+        <v>3</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>522</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A123" s="28"/>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -7817,25 +7814,28 @@
         <v>4</v>
       </c>
       <c r="I123">
-        <v>4</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
       <c r="B124" t="s">
-        <v>528</v>
+        <v>46</v>
       </c>
       <c r="C124" t="s">
-        <v>526</v>
+        <v>238</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -7847,25 +7847,25 @@
         <v>4</v>
       </c>
       <c r="I124">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A125" s="28"/>
       <c r="B125" t="s">
-        <v>529</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -7877,25 +7877,25 @@
         <v>4</v>
       </c>
       <c r="I125">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A126" s="28"/>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>528</v>
       </c>
       <c r="C126" t="s">
-        <v>311</v>
+        <v>526</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -7907,25 +7907,25 @@
         <v>4</v>
       </c>
       <c r="I126">
-        <v>9</v>
-      </c>
-      <c r="J126" s="17" t="s">
-        <v>809</v>
+        <v>8</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>193</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A127" s="28"/>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>529</v>
       </c>
       <c r="C127" t="s">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -7937,28 +7937,25 @@
         <v>4</v>
       </c>
       <c r="I127">
-        <v>9</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>811</v>
+        <v>8</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A128" s="28"/>
       <c r="B128" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -7970,25 +7967,25 @@
         <v>4</v>
       </c>
       <c r="I128">
-        <v>10</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>808</v>
+        <v>9</v>
+      </c>
+      <c r="J128" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>522</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A129" s="28"/>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -8000,25 +7997,28 @@
         <v>4</v>
       </c>
       <c r="I129">
-        <v>10</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A130" s="28"/>
       <c r="B130" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -8030,25 +8030,25 @@
         <v>4</v>
       </c>
       <c r="I130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A131" s="28"/>
       <c r="B131" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -8060,28 +8060,28 @@
         <v>4</v>
       </c>
       <c r="I131">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J131" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A132" s="28"/>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -8090,67 +8090,67 @@
         <v>4</v>
       </c>
       <c r="I132">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J132" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A133" s="28"/>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C133" t="s">
-        <v>242</v>
+        <v>491</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
         <v>4</v>
       </c>
       <c r="I133">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J133" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A134" s="28"/>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>4</v>
       </c>
       <c r="I134">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>39</v>
@@ -8159,19 +8159,19 @@
         <v>523</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A135" s="28"/>
       <c r="B135" t="s">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="C135" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -8180,156 +8180,156 @@
         <v>4</v>
       </c>
       <c r="I135">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A136" s="28"/>
       <c r="B136" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="C136" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>4</v>
       </c>
       <c r="I136">
-        <v>15</v>
-      </c>
-      <c r="J136" s="17" t="s">
-        <v>809</v>
+        <v>13</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A137" s="28"/>
       <c r="B137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C137" t="s">
-        <v>492</v>
+        <v>245</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>4</v>
       </c>
       <c r="I137">
-        <v>15</v>
-      </c>
-      <c r="J137" s="5" t="s">
-        <v>811</v>
+        <v>14</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>40</v>
+        <v>844</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="9"/>
-    </row>
-    <row r="139" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A139" s="29" t="s">
+    <row r="138" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A138" s="28"/>
+      <c r="B138" t="s">
+        <v>256</v>
+      </c>
+      <c r="C138" t="s">
+        <v>246</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>4</v>
+      </c>
+      <c r="I138">
+        <v>15</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A139" s="28"/>
+      <c r="B139" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" t="s">
+        <v>492</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139">
+        <v>15</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B141" t="s">
         <v>55</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C141" t="s">
         <v>258</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D141" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>5</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="29"/>
-      <c r="B140" t="s">
-        <v>57</v>
-      </c>
-      <c r="C140" t="s">
-        <v>493</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140">
-        <v>5</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="29"/>
-      <c r="B141" t="s">
-        <v>54</v>
-      </c>
-      <c r="C141" t="s">
-        <v>259</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>394</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -8341,91 +8341,88 @@
         <v>5</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K141" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A142" s="29"/>
       <c r="B142" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="C142" t="s">
-        <v>312</v>
+        <v>493</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F142">
         <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
         <v>5</v>
       </c>
       <c r="I142">
-        <v>2</v>
-      </c>
-      <c r="J142" s="17" t="s">
-        <v>809</v>
+        <v>0</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="29"/>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="C143" t="s">
-        <v>494</v>
+        <v>259</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>5</v>
       </c>
       <c r="I143">
-        <v>2</v>
-      </c>
-      <c r="J143" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K143" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A144" s="29"/>
       <c r="B144" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="C144" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -8434,28 +8431,28 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <v>3</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>808</v>
+        <v>2</v>
+      </c>
+      <c r="J144" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A145" s="29"/>
       <c r="B145" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C145" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -8464,25 +8461,28 @@
         <v>5</v>
       </c>
       <c r="I145">
-        <v>3</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A146" s="29"/>
       <c r="B146" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C146" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -8494,25 +8494,25 @@
         <v>5</v>
       </c>
       <c r="I146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K146" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A147" s="29"/>
       <c r="B147" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C147" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -8524,7 +8524,7 @@
         <v>5</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J147" s="4" t="s">
         <v>42</v>
@@ -8533,16 +8533,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="29"/>
       <c r="B148" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C148" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -8554,25 +8554,25 @@
         <v>5</v>
       </c>
       <c r="I148">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K148" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K148" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A149" s="29"/>
       <c r="B149" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C149" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -8584,7 +8584,7 @@
         <v>5</v>
       </c>
       <c r="I149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>42</v>
@@ -8593,79 +8593,79 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A150" s="29"/>
       <c r="B150" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C150" t="s">
-        <v>313</v>
+        <v>401</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>5</v>
       </c>
       <c r="I150">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J150" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A151" s="29"/>
       <c r="B151" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C151" t="s">
-        <v>314</v>
+        <v>497</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>5</v>
       </c>
       <c r="I151">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J151" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K151" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="13"/>
+      <c r="K151" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="29"/>
       <c r="B152" t="s">
-        <v>315</v>
+        <v>69</v>
       </c>
       <c r="C152" t="s">
-        <v>498</v>
+        <v>313</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -8674,90 +8674,90 @@
         <v>5</v>
       </c>
       <c r="I152">
+        <v>6</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="29"/>
+      <c r="B153" t="s">
+        <v>71</v>
+      </c>
+      <c r="C153" t="s">
+        <v>314</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>5</v>
+      </c>
+      <c r="I153">
         <v>7</v>
       </c>
-      <c r="J152" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K152" s="1" t="s">
+      <c r="J153" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K153" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="13"/>
+      <c r="B154" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154" t="s">
+        <v>498</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>5</v>
+      </c>
+      <c r="I154">
+        <v>7</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K154" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="9"/>
-    </row>
-    <row r="154" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A154" s="28" t="s">
+    <row r="155" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B156" t="s">
         <v>73</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C156" t="s">
         <v>262</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D156" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>6</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="28"/>
-      <c r="B155" t="s">
-        <v>74</v>
-      </c>
-      <c r="C155" t="s">
-        <v>265</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>6</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="28"/>
-      <c r="B156" t="s">
-        <v>75</v>
-      </c>
-      <c r="C156" t="s">
-        <v>263</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>411</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -8769,25 +8769,25 @@
         <v>6</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A157" s="28"/>
       <c r="B157" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C157" t="s">
-        <v>415</v>
+        <v>265</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -8799,25 +8799,25 @@
         <v>6</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A158" s="28"/>
       <c r="B158" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C158" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -8829,25 +8829,25 @@
         <v>6</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A159" s="28"/>
       <c r="B159" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C159" t="s">
-        <v>266</v>
+        <v>415</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -8859,93 +8859,90 @@
         <v>6</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K159" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="28"/>
+      <c r="B160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C160" t="s">
+        <v>264</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>6</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A161" s="28"/>
+      <c r="B161" t="s">
+        <v>78</v>
+      </c>
+      <c r="C161" t="s">
+        <v>266</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>6</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K161" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="9"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A161" s="29" t="s">
+    <row r="162" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="9"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B163" t="s">
         <v>88</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C163" t="s">
         <v>267</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D163" s="10" t="s">
         <v>416</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>7</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K161" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="29"/>
-      <c r="B162" t="s">
-        <v>89</v>
-      </c>
-      <c r="C162" t="s">
-        <v>268</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>7</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L162" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="29"/>
-      <c r="B163" t="s">
-        <v>98</v>
-      </c>
-      <c r="C163" t="s">
-        <v>269</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>418</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -8957,25 +8954,25 @@
         <v>7</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K163" s="1" t="s">
-        <v>90</v>
+      <c r="K163" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A164" s="29"/>
       <c r="B164" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C164" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -8987,25 +8984,28 @@
         <v>7</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>533</v>
+        <v>90</v>
+      </c>
+      <c r="L164" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A165" s="29"/>
       <c r="B165" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C165" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>7</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J165" s="4" t="s">
         <v>39</v>
@@ -9029,13 +9029,13 @@
     <row r="166" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A166" s="29"/>
       <c r="B166" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C166" t="s">
-        <v>499</v>
+        <v>270</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -9047,25 +9047,25 @@
         <v>7</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A167" s="29"/>
       <c r="B167" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C167" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -9077,25 +9077,25 @@
         <v>7</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J167" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A168" s="29"/>
       <c r="B168" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C168" t="s">
-        <v>273</v>
+        <v>499</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -9107,25 +9107,25 @@
         <v>7</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J168" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>533</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A169" s="29"/>
       <c r="B169" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C169" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -9137,7 +9137,7 @@
         <v>7</v>
       </c>
       <c r="I169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>39</v>
@@ -9149,13 +9149,13 @@
     <row r="170" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A170" s="29"/>
       <c r="B170" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C170" t="s">
-        <v>500</v>
+        <v>273</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -9167,109 +9167,106 @@
         <v>7</v>
       </c>
       <c r="I170">
+        <v>3</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="29"/>
+      <c r="B171" t="s">
+        <v>93</v>
+      </c>
+      <c r="C171" t="s">
+        <v>274</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>7</v>
+      </c>
+      <c r="I171">
         <v>4</v>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K170" s="1" t="s">
+      <c r="J171" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="29"/>
+      <c r="B172" t="s">
+        <v>95</v>
+      </c>
+      <c r="C172" t="s">
+        <v>500</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>7</v>
+      </c>
+      <c r="I172">
+        <v>4</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K172" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="9"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A172" s="28" t="s">
+    <row r="173" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B174" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C172" s="8"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="8"/>
-    </row>
-    <row r="173" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A173" s="28"/>
-      <c r="B173" t="s">
-        <v>103</v>
-      </c>
-      <c r="C173" t="s">
-        <v>275</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>8</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="28"/>
-      <c r="B174" t="s">
-        <v>104</v>
-      </c>
-      <c r="C174" t="s">
-        <v>276</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>8</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K174" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="L174" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="C174" s="8"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="8"/>
+    </row>
+    <row r="175" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A175" s="28"/>
       <c r="B175" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C175" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -9281,28 +9278,25 @@
         <v>8</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="L175" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A176" s="28"/>
       <c r="B176" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C176" t="s">
-        <v>434</v>
+        <v>276</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -9314,28 +9308,28 @@
         <v>8</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="L176" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A177" s="28"/>
       <c r="B177" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C177" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -9347,28 +9341,28 @@
         <v>8</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>855</v>
+        <v>577</v>
       </c>
       <c r="L177" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="B178" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C178" t="s">
-        <v>582</v>
+        <v>434</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -9380,28 +9374,31 @@
         <v>8</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>846</v>
+        <v>580</v>
       </c>
       <c r="L178" t="s">
-        <v>849</v>
+        <v>578</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A179" s="28"/>
       <c r="B179" t="s">
-        <v>847</v>
+        <v>107</v>
       </c>
       <c r="C179" t="s">
-        <v>851</v>
+        <v>316</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -9410,25 +9407,31 @@
         <v>8</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J179" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>845</v>
+        <v>855</v>
+      </c>
+      <c r="L179" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A180" s="28"/>
       <c r="B180" t="s">
-        <v>848</v>
+        <v>108</v>
       </c>
       <c r="C180" t="s">
-        <v>852</v>
+        <v>582</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -9437,7 +9440,7 @@
         <v>8</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J180" s="4" t="s">
         <v>39</v>
@@ -9446,22 +9449,19 @@
         <v>846</v>
       </c>
       <c r="L180" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A181" s="28"/>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>847</v>
       </c>
       <c r="C181" t="s">
-        <v>317</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>432</v>
+        <v>851</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -9472,26 +9472,23 @@
       <c r="I181">
         <v>3</v>
       </c>
-      <c r="J181" s="17" t="s">
-        <v>809</v>
+      <c r="J181" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>193</v>
+        <v>845</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A182" s="28"/>
       <c r="B182" t="s">
-        <v>279</v>
+        <v>848</v>
       </c>
       <c r="C182" t="s">
-        <v>501</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>433</v>
+        <v>852</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -9502,29 +9499,29 @@
       <c r="I182">
         <v>3</v>
       </c>
-      <c r="J182" s="5" t="s">
-        <v>811</v>
+      <c r="J182" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L182" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="L182" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A183" s="28"/>
       <c r="B183" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C183" t="s">
-        <v>854</v>
+        <v>317</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -9533,88 +9530,88 @@
         <v>8</v>
       </c>
       <c r="I183">
-        <v>4</v>
-      </c>
-      <c r="J183" s="4" t="s">
-        <v>808</v>
+        <v>3</v>
+      </c>
+      <c r="J183" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A184" s="28"/>
       <c r="B184" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C184" t="s">
-        <v>283</v>
+        <v>501</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
         <v>8</v>
       </c>
       <c r="I184">
-        <v>5</v>
-      </c>
-      <c r="J184" s="17" t="s">
-        <v>809</v>
+        <v>3</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A185" s="28"/>
       <c r="B185" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C185" t="s">
-        <v>502</v>
+        <v>854</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>8</v>
       </c>
       <c r="I185">
-        <v>5</v>
-      </c>
-      <c r="J185" s="5" t="s">
-        <v>811</v>
+        <v>4</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A186" s="28"/>
       <c r="B186" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="C186" t="s">
-        <v>853</v>
+        <v>283</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -9626,25 +9623,25 @@
         <v>8</v>
       </c>
       <c r="I186">
-        <v>6</v>
-      </c>
-      <c r="J186" s="4" t="s">
-        <v>808</v>
+        <v>5</v>
+      </c>
+      <c r="J186" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>523</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A187" s="28"/>
       <c r="B187" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="C187" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -9656,25 +9653,28 @@
         <v>8</v>
       </c>
       <c r="I187">
-        <v>6</v>
-      </c>
-      <c r="J187" s="4" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="J187" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A188" s="28"/>
       <c r="B188" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C188" t="s">
-        <v>284</v>
+        <v>853</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -9686,25 +9686,25 @@
         <v>8</v>
       </c>
       <c r="I188">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A189" s="28"/>
       <c r="B189" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C189" t="s">
-        <v>583</v>
+        <v>503</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -9716,28 +9716,28 @@
         <v>8</v>
       </c>
       <c r="I189">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J189" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A190" s="28"/>
       <c r="B190" t="s">
-        <v>115</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>285</v>
+        <v>112</v>
+      </c>
+      <c r="C190" t="s">
+        <v>284</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -9746,28 +9746,28 @@
         <v>8</v>
       </c>
       <c r="I190">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J190" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K190" t="s">
-        <v>35</v>
+      <c r="K190" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A191" s="28"/>
       <c r="B191" t="s">
-        <v>116</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>504</v>
+        <v>114</v>
+      </c>
+      <c r="C191" t="s">
+        <v>583</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -9776,7 +9776,7 @@
         <v>8</v>
       </c>
       <c r="I191">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J191" s="4" t="s">
         <v>39</v>
@@ -9787,176 +9787,170 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="28"/>
-      <c r="B192" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C192" s="8"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="8"/>
-      <c r="J192" s="8"/>
-      <c r="K192" s="8"/>
-      <c r="L192" s="8"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>115</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>8</v>
+      </c>
+      <c r="I192">
+        <v>8</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K192" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A193" s="28"/>
+      <c r="B193" t="s">
+        <v>116</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>8</v>
+      </c>
+      <c r="I193">
+        <v>8</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="28"/>
-      <c r="B194" t="s">
-        <v>870</v>
-      </c>
-      <c r="C194" t="s">
-        <v>871</v>
-      </c>
-      <c r="J194" s="4"/>
-      <c r="K194" s="1"/>
-      <c r="L194" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B194" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C194" s="8"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="8"/>
+      <c r="J194" s="8"/>
+      <c r="K194" s="8"/>
+      <c r="L194" s="8"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="28"/>
-      <c r="B195" t="s">
-        <v>148</v>
-      </c>
-      <c r="C195" t="s">
-        <v>286</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>8</v>
-      </c>
-      <c r="I195">
-        <v>16</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K195" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="28"/>
       <c r="B196" t="s">
-        <v>149</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-      <c r="H196">
-        <v>8</v>
-      </c>
-      <c r="I196">
-        <v>16</v>
-      </c>
-      <c r="J196" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K196" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+      <c r="C196" t="s">
+        <v>871</v>
+      </c>
+      <c r="J196" s="4"/>
+      <c r="K196" s="1"/>
+      <c r="L196" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A197" s="28"/>
       <c r="B197" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C197" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F197">
         <v>1</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>8</v>
       </c>
       <c r="I197">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J197" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L197" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A198" s="28"/>
       <c r="B198" t="s">
-        <v>119</v>
-      </c>
-      <c r="C198" t="s">
-        <v>288</v>
+        <v>149</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>505</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>8</v>
       </c>
       <c r="I198">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J198" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L198" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A199" s="28"/>
       <c r="B199" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C199" t="s">
-        <v>506</v>
+        <v>287</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -9965,28 +9959,31 @@
         <v>8</v>
       </c>
       <c r="I199">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J199" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
+      </c>
+      <c r="L199" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A200" s="28"/>
       <c r="B200" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C200" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -9995,13 +9992,13 @@
         <v>8</v>
       </c>
       <c r="I200">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J200" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L200" t="s">
         <v>121</v>
@@ -10010,16 +10007,16 @@
     <row r="201" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A201" s="28"/>
       <c r="B201" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C201" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -10028,7 +10025,7 @@
         <v>8</v>
       </c>
       <c r="I201">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J201" s="4" t="s">
         <v>39</v>
@@ -10040,13 +10037,13 @@
     <row r="202" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A202" s="28"/>
       <c r="B202" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C202" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -10058,13 +10055,13 @@
         <v>8</v>
       </c>
       <c r="I202">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J202" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L202" t="s">
         <v>121</v>
@@ -10073,13 +10070,13 @@
     <row r="203" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A203" s="28"/>
       <c r="B203" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C203" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -10091,7 +10088,7 @@
         <v>8</v>
       </c>
       <c r="I203">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J203" s="4" t="s">
         <v>39</v>
@@ -10103,13 +10100,13 @@
     <row r="204" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A204" s="28"/>
       <c r="B204" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="C204" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -10121,23 +10118,28 @@
         <v>8</v>
       </c>
       <c r="I204">
-        <v>21</v>
-      </c>
-      <c r="J204" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K204" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="L204" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A205" s="28"/>
       <c r="B205" t="s">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="C205" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -10149,26 +10151,28 @@
         <v>8</v>
       </c>
       <c r="I205">
-        <v>21</v>
-      </c>
-      <c r="J205" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J205" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K205" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A206" s="28"/>
       <c r="B206" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="C206" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -10177,28 +10181,26 @@
         <v>8</v>
       </c>
       <c r="I206">
-        <v>22</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K206" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="J206" s="4"/>
+      <c r="K206" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A207" s="28"/>
       <c r="B207" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="C207" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -10207,28 +10209,26 @@
         <v>8</v>
       </c>
       <c r="I207">
-        <v>22</v>
-      </c>
-      <c r="J207" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J207" s="4"/>
       <c r="K207" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="28"/>
       <c r="B208" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C208" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>8</v>
       </c>
       <c r="I208">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J208" s="4" t="s">
         <v>39</v>
@@ -10249,16 +10249,16 @@
     <row r="209" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A209" s="28"/>
       <c r="B209" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C209" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -10267,7 +10267,7 @@
         <v>8</v>
       </c>
       <c r="I209">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J209" s="4" t="s">
         <v>39</v>
@@ -10279,16 +10279,16 @@
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="28"/>
       <c r="B210" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C210" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>8</v>
       </c>
       <c r="I210">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J210" s="4" t="s">
         <v>39</v>
@@ -10309,16 +10309,16 @@
     <row r="211" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A211" s="28"/>
       <c r="B211" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C211" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -10327,7 +10327,7 @@
         <v>8</v>
       </c>
       <c r="I211">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>39</v>
@@ -10339,16 +10339,16 @@
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="28"/>
       <c r="B212" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C212" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>8</v>
       </c>
       <c r="I212">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J212" s="4" t="s">
         <v>39</v>
@@ -10369,16 +10369,16 @@
     <row r="213" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A213" s="28"/>
       <c r="B213" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C213" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -10387,7 +10387,7 @@
         <v>8</v>
       </c>
       <c r="I213">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J213" s="4" t="s">
         <v>39</v>
@@ -10396,46 +10396,46 @@
         <v>84</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="28"/>
       <c r="B214" t="s">
-        <v>559</v>
+        <v>135</v>
       </c>
       <c r="C214" t="s">
-        <v>557</v>
+        <v>294</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>8</v>
       </c>
       <c r="I214">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K214" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K214" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A215" s="28"/>
       <c r="B215" t="s">
-        <v>560</v>
+        <v>136</v>
       </c>
       <c r="C215" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -10447,25 +10447,25 @@
         <v>8</v>
       </c>
       <c r="I215">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J215" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A216" s="28"/>
       <c r="B216" t="s">
-        <v>137</v>
+        <v>559</v>
       </c>
       <c r="C216" t="s">
-        <v>295</v>
+        <v>557</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -10477,28 +10477,25 @@
         <v>8</v>
       </c>
       <c r="I216">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J216" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>147</v>
+        <v>534</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A217" s="28"/>
       <c r="B217" t="s">
-        <v>138</v>
+        <v>560</v>
       </c>
       <c r="C217" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -10510,28 +10507,25 @@
         <v>8</v>
       </c>
       <c r="I217">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J217" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L217" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C218" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -10543,59 +10537,64 @@
         <v>8</v>
       </c>
       <c r="I218">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J218" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L218" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A219" s="28"/>
       <c r="B219" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="C219" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F219">
         <v>1</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
         <v>8</v>
       </c>
       <c r="I219">
-        <v>31</v>
-      </c>
-      <c r="J219" s="4"/>
-      <c r="K219" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L219" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A220" s="28"/>
       <c r="B220" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="C220" t="s">
-        <v>514</v>
+        <v>297</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -10604,26 +10603,31 @@
         <v>8</v>
       </c>
       <c r="I220">
-        <v>31</v>
-      </c>
-      <c r="J220" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="J220" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K220" s="1" t="s">
-        <v>58</v>
+        <v>142</v>
+      </c>
+      <c r="L220" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="28"/>
       <c r="B221" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C221" t="s">
-        <v>588</v>
+        <v>306</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -10632,7 +10636,7 @@
         <v>8</v>
       </c>
       <c r="I221">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J221" s="4"/>
       <c r="K221" t="s">
@@ -10642,16 +10646,16 @@
     <row r="222" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A222" s="28"/>
       <c r="B222" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C222" t="s">
-        <v>589</v>
+        <v>514</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -10660,7 +10664,7 @@
         <v>8</v>
       </c>
       <c r="I222">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J222" s="4"/>
       <c r="K222" s="1" t="s">
@@ -10670,13 +10674,13 @@
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="28"/>
       <c r="B223" t="s">
-        <v>590</v>
+        <v>301</v>
       </c>
       <c r="C223" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>594</v>
+        <v>470</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -10688,7 +10692,7 @@
         <v>8</v>
       </c>
       <c r="I223">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J223" s="4"/>
       <c r="K223" t="s">
@@ -10698,13 +10702,13 @@
     <row r="224" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A224" s="28"/>
       <c r="B224" t="s">
-        <v>591</v>
+        <v>302</v>
       </c>
       <c r="C224" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>595</v>
+        <v>471</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -10716,7 +10720,7 @@
         <v>8</v>
       </c>
       <c r="I224">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J224" s="4"/>
       <c r="K224" s="1" t="s">
@@ -10725,90 +10729,86 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="28"/>
-      <c r="B225" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C225" s="8"/>
-      <c r="D225" s="11"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
-      <c r="I225" s="8"/>
-      <c r="J225" s="8"/>
-      <c r="K225" s="8"/>
-      <c r="L225" s="8"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>590</v>
+      </c>
+      <c r="C225" t="s">
+        <v>592</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>8</v>
+      </c>
+      <c r="I225">
+        <v>33</v>
+      </c>
+      <c r="J225" s="4"/>
+      <c r="K225" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" t="s">
-        <v>144</v>
+        <v>591</v>
       </c>
       <c r="C226" t="s">
-        <v>298</v>
+        <v>593</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>472</v>
+        <v>595</v>
       </c>
       <c r="F226">
         <v>1</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
         <v>8</v>
       </c>
       <c r="I226">
-        <v>48</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K226" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="J226" s="4"/>
+      <c r="K226" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="28"/>
-      <c r="B227" t="s">
-        <v>145</v>
-      </c>
-      <c r="C227" t="s">
-        <v>515</v>
-      </c>
-      <c r="D227" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="G227">
-        <v>1</v>
-      </c>
-      <c r="H227">
-        <v>8</v>
-      </c>
-      <c r="I227">
-        <v>48</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K227" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B227" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C227" s="8"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="8"/>
+      <c r="G227" s="8"/>
+      <c r="H227" s="8"/>
+      <c r="I227" s="8"/>
+      <c r="J227" s="8"/>
+      <c r="K227" s="8"/>
+      <c r="L227" s="8"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="28"/>
       <c r="B228" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C228" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -10820,28 +10820,25 @@
         <v>8</v>
       </c>
       <c r="I228">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J228" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K228" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>801</v>
+      <c r="K228" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A229" s="28"/>
       <c r="B229" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C229" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -10853,7 +10850,7 @@
         <v>8</v>
       </c>
       <c r="I229">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J229" s="4" t="s">
         <v>39</v>
@@ -10862,16 +10859,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A230" s="28"/>
       <c r="B230" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C230" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -10883,25 +10880,28 @@
         <v>8</v>
       </c>
       <c r="I230">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J230" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A231" s="28"/>
       <c r="B231" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C231" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -10913,22 +10913,25 @@
         <v>8</v>
       </c>
       <c r="I231">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J231" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A232" s="28"/>
       <c r="B232" t="s">
-        <v>857</v>
+        <v>151</v>
       </c>
       <c r="C232" t="s">
-        <v>856</v>
+        <v>308</v>
+      </c>
+      <c r="D232" s="10" t="s">
+        <v>476</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -10940,20 +10943,25 @@
         <v>8</v>
       </c>
       <c r="I232">
-        <v>51</v>
-      </c>
-      <c r="J232" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="J232" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K232" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A233" s="28"/>
       <c r="B233" t="s">
-        <v>858</v>
+        <v>152</v>
       </c>
       <c r="C233" t="s">
-        <v>859</v>
+        <v>517</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>477</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -10965,29 +10973,25 @@
         <v>8</v>
       </c>
       <c r="I233">
-        <v>51</v>
-      </c>
-      <c r="J233" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K233" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="L233" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A234" s="28"/>
       <c r="B234" t="s">
-        <v>539</v>
+        <v>857</v>
       </c>
       <c r="C234" t="s">
-        <v>318</v>
-      </c>
-      <c r="D234" s="10" t="s">
-        <v>478</v>
+        <v>856</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -10998,26 +11002,21 @@
       <c r="I234">
         <v>51</v>
       </c>
-      <c r="J234" s="17" t="s">
-        <v>809</v>
-      </c>
+      <c r="J234" s="4"/>
       <c r="K234" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A235" s="28"/>
       <c r="B235" t="s">
-        <v>540</v>
+        <v>858</v>
       </c>
       <c r="C235" t="s">
-        <v>518</v>
-      </c>
-      <c r="D235" s="10" t="s">
-        <v>479</v>
+        <v>859</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -11028,29 +11027,27 @@
       <c r="I235">
         <v>51</v>
       </c>
-      <c r="J235" s="5" t="s">
-        <v>811</v>
-      </c>
+      <c r="J235" s="4"/>
       <c r="K235" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L235" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+      <c r="L235" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A236" s="28"/>
       <c r="B236" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C236" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -11059,88 +11056,88 @@
         <v>8</v>
       </c>
       <c r="I236">
-        <v>52</v>
-      </c>
-      <c r="J236" s="4" t="s">
-        <v>587</v>
+        <v>51</v>
+      </c>
+      <c r="J236" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A237" s="28"/>
       <c r="B237" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C237" t="s">
-        <v>320</v>
+        <v>518</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
         <v>8</v>
       </c>
       <c r="I237">
-        <v>53</v>
-      </c>
-      <c r="J237" s="17" t="s">
-        <v>809</v>
+        <v>51</v>
+      </c>
+      <c r="J237" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A238" s="28"/>
       <c r="B238" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C238" t="s">
-        <v>519</v>
+        <v>319</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
         <v>8</v>
       </c>
       <c r="I238">
-        <v>53</v>
-      </c>
-      <c r="J238" s="5" t="s">
-        <v>811</v>
+        <v>52</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L238" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A239" s="28"/>
       <c r="B239" t="s">
-        <v>157</v>
+        <v>542</v>
       </c>
       <c r="C239" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -11152,25 +11149,25 @@
         <v>8</v>
       </c>
       <c r="I239">
-        <v>54</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>808</v>
+        <v>53</v>
+      </c>
+      <c r="J239" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>523</v>
+        <v>193</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A240" s="28"/>
       <c r="B240" t="s">
-        <v>158</v>
+        <v>543</v>
       </c>
       <c r="C240" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -11182,289 +11179,292 @@
         <v>8</v>
       </c>
       <c r="I240">
+        <v>53</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A241" s="28"/>
+      <c r="B241" t="s">
+        <v>157</v>
+      </c>
+      <c r="C241" t="s">
+        <v>321</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>8</v>
+      </c>
+      <c r="I241">
         <v>54</v>
       </c>
-      <c r="J240" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K240" s="1" t="s">
+      <c r="J241" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="K241" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="241" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="9"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A242" s="25" t="s">
+    <row r="242" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A242" s="28"/>
+      <c r="B242" t="s">
+        <v>158</v>
+      </c>
+      <c r="C242" t="s">
+        <v>520</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>8</v>
+      </c>
+      <c r="I242">
+        <v>54</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D243" s="9"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A244" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B244" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C242" s="7"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="7"/>
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
-      <c r="I242" s="7"/>
-      <c r="J242" s="7"/>
-      <c r="K242" s="7"/>
-      <c r="L242" s="7"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A243" s="25"/>
-      <c r="B243" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A244" s="25"/>
-      <c r="B244" t="s">
-        <v>152</v>
-      </c>
+      <c r="C244" s="7"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="7"/>
+      <c r="J244" s="7"/>
+      <c r="K244" s="7"/>
+      <c r="L244" s="7"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="25"/>
       <c r="B245" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="25"/>
       <c r="B248" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="25"/>
       <c r="B249" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="25"/>
       <c r="B250" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
       <c r="B253" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
       <c r="B254" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="25"/>
       <c r="B255" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="25"/>
-      <c r="B256" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C256" s="7"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="7"/>
-      <c r="F256" s="7"/>
-      <c r="G256" s="7"/>
-      <c r="H256" s="7"/>
-      <c r="I256" s="7"/>
-      <c r="J256" s="7"/>
-      <c r="K256" s="7"/>
-      <c r="L256" s="7"/>
+      <c r="B256" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="25"/>
       <c r="B257" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="25"/>
-      <c r="B258" t="s">
-        <v>170</v>
-      </c>
+      <c r="B258" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C258" s="7"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" s="7"/>
+      <c r="H258" s="7"/>
+      <c r="I258" s="7"/>
+      <c r="J258" s="7"/>
+      <c r="K258" s="7"/>
+      <c r="L258" s="7"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="25"/>
-      <c r="B259" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C259" s="7"/>
-      <c r="D259" s="12"/>
-      <c r="E259" s="7"/>
-      <c r="F259" s="7"/>
-      <c r="G259" s="7"/>
-      <c r="H259" s="7"/>
-      <c r="I259" s="7"/>
-      <c r="J259" s="7"/>
-      <c r="K259" s="7"/>
-      <c r="L259" s="7"/>
+      <c r="B259" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="25"/>
       <c r="B260" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="25"/>
-      <c r="B261" t="s">
+      <c r="B261" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C261" s="7"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" s="7"/>
+      <c r="H261" s="7"/>
+      <c r="I261" s="7"/>
+      <c r="J261" s="7"/>
+      <c r="K261" s="7"/>
+      <c r="L261" s="7"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A262" s="25"/>
+      <c r="B262" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A263" s="25"/>
+      <c r="B263" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="262" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D262" s="9"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A263" s="26" t="s">
+    <row r="264" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D264" s="9"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A265" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B265" t="s">
         <v>873</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C265" t="s">
         <v>874</v>
       </c>
-      <c r="J263" s="4"/>
-      <c r="L263" t="s">
+      <c r="J265" s="4"/>
+      <c r="L265" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A264" s="26"/>
-      <c r="J264" s="4"/>
-    </row>
-    <row r="265" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A265" s="26"/>
-      <c r="B265" t="s">
-        <v>174</v>
-      </c>
-      <c r="C265" t="s">
-        <v>554</v>
-      </c>
-      <c r="E265">
-        <v>0</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
-      <c r="G265">
-        <v>0</v>
-      </c>
-      <c r="H265">
-        <v>10</v>
-      </c>
-      <c r="I265">
-        <v>0</v>
-      </c>
-      <c r="J265" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="K265" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="26"/>
-      <c r="B266" t="s">
-        <v>175</v>
-      </c>
-      <c r="C266" t="s">
-        <v>555</v>
-      </c>
-      <c r="E266">
-        <v>0</v>
-      </c>
-      <c r="F266">
-        <v>1</v>
-      </c>
-      <c r="G266">
-        <v>1</v>
-      </c>
-      <c r="H266">
-        <v>10</v>
-      </c>
-      <c r="I266">
-        <v>1</v>
-      </c>
-      <c r="J266" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K266" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="J266" s="4"/>
+    </row>
+    <row r="267" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A267" s="26"/>
       <c r="B267" t="s">
-        <v>561</v>
+        <v>174</v>
       </c>
       <c r="C267" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E267">
         <v>0</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>10</v>
       </c>
       <c r="I267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K267" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+      <c r="K267" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A268" s="26"/>
       <c r="B268" t="s">
-        <v>562</v>
+        <v>175</v>
       </c>
       <c r="C268" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -11479,31 +11479,28 @@
         <v>10</v>
       </c>
       <c r="I268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J268" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A269" s="26"/>
       <c r="B269" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C269" t="s">
-        <v>545</v>
-      </c>
-      <c r="D269" s="10" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="E269">
         <v>0</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -11512,34 +11509,28 @@
         <v>10</v>
       </c>
       <c r="I269">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J269" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="L269" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A270" s="26"/>
       <c r="B270" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C270" t="s">
-        <v>544</v>
-      </c>
-      <c r="D270" s="10" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E270">
         <v>0</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -11548,28 +11539,25 @@
         <v>10</v>
       </c>
       <c r="I270">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J270" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L270" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A271" s="26"/>
       <c r="B271" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C271" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -11584,145 +11572,217 @@
         <v>10</v>
       </c>
       <c r="I271">
+        <v>4</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="L271" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A272" s="26"/>
+      <c r="B272" t="s">
+        <v>568</v>
+      </c>
+      <c r="C272" t="s">
+        <v>544</v>
+      </c>
+      <c r="D272" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>10</v>
+      </c>
+      <c r="I272">
+        <v>5</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A273" s="26"/>
+      <c r="B273" t="s">
+        <v>569</v>
+      </c>
+      <c r="C273" t="s">
+        <v>574</v>
+      </c>
+      <c r="D273" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>10</v>
+      </c>
+      <c r="I273">
         <v>6</v>
       </c>
-      <c r="J271" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K271" s="1" t="s">
+      <c r="J273" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K273" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="L271" s="1" t="s">
+      <c r="L273" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="272" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D272" s="9"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A273" s="27" t="s">
+    <row r="274" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D274" s="9"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A275" s="27" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A274" s="27"/>
-      <c r="B274" t="s">
-        <v>876</v>
-      </c>
-      <c r="C274" t="s">
-        <v>877</v>
-      </c>
-      <c r="J274" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L274" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A275" s="27"/>
-      <c r="B275" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="27"/>
       <c r="B276" t="s">
-        <v>179</v>
+        <v>876</v>
+      </c>
+      <c r="C276" t="s">
+        <v>877</v>
+      </c>
+      <c r="J276" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L276" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="27"/>
       <c r="B277" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="27"/>
       <c r="B278" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="27"/>
       <c r="B279" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="27"/>
       <c r="B280" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="27"/>
       <c r="B281" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="27"/>
       <c r="B282" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="27"/>
       <c r="B283" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="27"/>
       <c r="B284" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="27"/>
       <c r="B285" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="27"/>
       <c r="B286" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="27"/>
       <c r="B287" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="27"/>
       <c r="B288" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="27"/>
       <c r="B289" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="27"/>
+      <c r="B290" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="27"/>
+      <c r="B291" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A242:A261"/>
-    <mergeCell ref="A263:A271"/>
-    <mergeCell ref="A273:A289"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A115:A137"/>
-    <mergeCell ref="A139:A151"/>
-    <mergeCell ref="A154:A159"/>
-    <mergeCell ref="A161:A170"/>
-    <mergeCell ref="A172:A240"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A39:A113"/>
-    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A244:A263"/>
+    <mergeCell ref="A265:A273"/>
+    <mergeCell ref="A275:A291"/>
+    <mergeCell ref="A4:A19"/>
+    <mergeCell ref="A117:A139"/>
+    <mergeCell ref="A141:A153"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="A163:A172"/>
+    <mergeCell ref="A174:A242"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A41:A115"/>
+    <mergeCell ref="A30:A39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/藍芽傳輸規劃0923.xlsx
+++ b/藍芽傳輸規劃0923.xlsx
@@ -16,7 +16,6 @@
     <sheet name="request" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="889">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3820,6 +3819,24 @@
   </si>
   <si>
     <t>回傳解密識別文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告知錯誤身分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaultIdentity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"message":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表身分錯誤，電子琴會將連線直接斷開，並茄備註一個message訊息給手機</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4314,11 +4331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M291"/>
+  <dimension ref="A1:M292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4702,58 +4719,43 @@
         <v>880</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>885</v>
       </c>
       <c r="C14" t="s">
-        <v>813</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
+        <v>886</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="178.2" x14ac:dyDescent="0.3">
+      <c r="K14" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="L14" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>813</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4764,62 +4766,62 @@
       <c r="J15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4830,20 +4832,20 @@
       <c r="J17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>536</v>
+      <c r="K17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4852,13 +4854,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>39</v>
@@ -4867,25 +4869,25 @@
         <v>536</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4897,120 +4899,123 @@
         <v>39</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -5022,55 +5027,55 @@
         <v>39</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -5082,55 +5087,55 @@
         <v>39</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -5141,61 +5146,61 @@
       <c r="J28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>345</v>
-      </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -5207,55 +5212,55 @@
         <v>39</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K32" t="s">
-        <v>35</v>
+      <c r="K32" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -5266,56 +5271,56 @@
       <c r="J33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>2</v>
+      <c r="K33" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -5326,56 +5331,56 @@
       <c r="J35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -5386,56 +5391,56 @@
       <c r="J37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -5447,54 +5452,51 @@
         <v>39</v>
       </c>
       <c r="K39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>863</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>869</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="L41" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" t="s">
-        <v>864</v>
-      </c>
-      <c r="C42" t="s">
-        <v>865</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>354</v>
@@ -5521,22 +5523,22 @@
         <v>868</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" t="s">
-        <v>613</v>
+        <v>864</v>
       </c>
       <c r="C43" t="s">
-        <v>634</v>
+        <v>865</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -5548,25 +5550,28 @@
         <v>39</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+      <c r="L43" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" t="s">
-        <v>666</v>
+        <v>613</v>
       </c>
       <c r="C44" t="s">
-        <v>695</v>
+        <v>634</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>723</v>
+        <v>355</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -5578,25 +5583,25 @@
         <v>39</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A45" s="29"/>
       <c r="B45" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C45" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -5608,55 +5613,55 @@
         <v>39</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
       <c r="B46" t="s">
-        <v>614</v>
+        <v>667</v>
       </c>
       <c r="C46" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>356</v>
+        <v>724</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -5668,25 +5673,25 @@
         <v>39</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" t="s">
-        <v>668</v>
+        <v>615</v>
       </c>
       <c r="C48" t="s">
-        <v>697</v>
+        <v>636</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>725</v>
+        <v>357</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -5698,25 +5703,25 @@
         <v>39</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
       <c r="B49" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C49" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5728,55 +5733,55 @@
         <v>39</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
       <c r="B50" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="C50" t="s">
-        <v>637</v>
+        <v>698</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>358</v>
+        <v>726</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
       <c r="B51" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C51" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5788,25 +5793,25 @@
         <v>39</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
       <c r="B52" t="s">
-        <v>670</v>
+        <v>617</v>
       </c>
       <c r="C52" t="s">
-        <v>699</v>
+        <v>638</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>727</v>
+        <v>359</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5818,25 +5823,25 @@
         <v>39</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A53" s="29"/>
       <c r="B53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C53" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5848,55 +5853,55 @@
         <v>39</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
       <c r="B54" t="s">
-        <v>618</v>
+        <v>671</v>
       </c>
       <c r="C54" t="s">
-        <v>639</v>
+        <v>700</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>360</v>
+        <v>728</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
       <c r="B55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C55" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5908,25 +5913,25 @@
         <v>39</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A56" s="29"/>
       <c r="B56" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="C56" t="s">
-        <v>701</v>
+        <v>640</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>729</v>
+        <v>361</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5938,25 +5943,25 @@
         <v>39</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
       <c r="B57" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C57" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5968,55 +5973,55 @@
         <v>39</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A58" s="29"/>
       <c r="B58" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
       <c r="C58" t="s">
-        <v>641</v>
+        <v>702</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>362</v>
+        <v>730</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>3</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" t="s">
-        <v>674</v>
+        <v>620</v>
       </c>
       <c r="C59" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>599</v>
+        <v>362</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6028,25 +6033,25 @@
         <v>39</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C60" t="s">
-        <v>703</v>
+        <v>642</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>731</v>
+        <v>599</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -6058,25 +6063,25 @@
         <v>39</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C61" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6088,55 +6093,55 @@
         <v>39</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="C62" t="s">
-        <v>643</v>
+        <v>704</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>363</v>
+        <v>732</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>3</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C63" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6148,25 +6153,25 @@
         <v>39</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>677</v>
+        <v>622</v>
       </c>
       <c r="C64" t="s">
-        <v>705</v>
+        <v>644</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>733</v>
+        <v>364</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6178,25 +6183,25 @@
         <v>39</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C65" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6208,55 +6213,55 @@
         <v>39</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>623</v>
+        <v>678</v>
       </c>
       <c r="C66" t="s">
-        <v>645</v>
+        <v>706</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>365</v>
+        <v>734</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C67" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6268,25 +6273,25 @@
         <v>39</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>679</v>
+        <v>624</v>
       </c>
       <c r="C68" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>735</v>
+        <v>366</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6298,25 +6303,25 @@
         <v>39</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C69" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6328,55 +6333,55 @@
         <v>39</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>625</v>
+        <v>680</v>
       </c>
       <c r="C70" t="s">
-        <v>647</v>
+        <v>708</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>600</v>
+        <v>736</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
       <c r="B71" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="C71" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6388,25 +6393,25 @@
         <v>39</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="C72" t="s">
-        <v>709</v>
+        <v>648</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>737</v>
+        <v>367</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6418,25 +6423,25 @@
         <v>39</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C73" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -6448,55 +6453,55 @@
         <v>39</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="C74" t="s">
-        <v>657</v>
+        <v>710</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>368</v>
+        <v>738</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>601</v>
+        <v>368</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -6508,25 +6513,25 @@
         <v>39</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="C76" t="s">
-        <v>711</v>
+        <v>658</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -6538,25 +6543,25 @@
         <v>39</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="B77" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C77" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>739</v>
+        <v>596</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -6568,55 +6573,55 @@
         <v>39</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
       <c r="B78" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="C78" t="s">
-        <v>659</v>
+        <v>712</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>602</v>
+        <v>739</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>3</v>
       </c>
       <c r="I78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C79" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -6628,25 +6633,25 @@
         <v>39</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
       <c r="B80" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="C80" t="s">
-        <v>713</v>
+        <v>660</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>740</v>
+        <v>603</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -6658,25 +6663,25 @@
         <v>39</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C81" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -6688,53 +6693,55 @@
         <v>39</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
       <c r="B82" t="s">
-        <v>626</v>
+        <v>686</v>
       </c>
       <c r="C82" t="s">
-        <v>649</v>
+        <v>714</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>604</v>
+        <v>741</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>3</v>
       </c>
       <c r="I82">
-        <v>10</v>
-      </c>
-      <c r="J82" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K82" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
       <c r="B83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C83" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -6742,29 +6749,27 @@
       <c r="I83">
         <v>10</v>
       </c>
-      <c r="J83" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J83" s="4"/>
       <c r="K83" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A84" s="29"/>
       <c r="B84" t="s">
-        <v>687</v>
+        <v>627</v>
       </c>
       <c r="C84" t="s">
-        <v>715</v>
+        <v>650</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>742</v>
+        <v>605</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -6772,27 +6777,29 @@
       <c r="I84">
         <v>10</v>
       </c>
-      <c r="J84" s="4"/>
+      <c r="J84" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K84" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
       <c r="B85" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C85" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -6800,59 +6807,57 @@
       <c r="I85">
         <v>10</v>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J85" s="4"/>
       <c r="K85" s="1" t="s">
-        <v>597</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
       <c r="B86" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="C86" t="s">
-        <v>651</v>
+        <v>716</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>606</v>
+        <v>743</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C87" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -6864,25 +6869,25 @@
         <v>39</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>689</v>
+        <v>629</v>
       </c>
       <c r="C88" t="s">
-        <v>717</v>
+        <v>652</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>744</v>
+        <v>607</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -6894,25 +6899,25 @@
         <v>39</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C89" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -6924,53 +6929,55 @@
         <v>39</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" t="s">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="C90" t="s">
-        <v>653</v>
+        <v>718</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>608</v>
+        <v>745</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>12</v>
-      </c>
-      <c r="J90" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K90" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
       <c r="B91" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C91" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -6980,25 +6987,25 @@
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
       <c r="B92" t="s">
-        <v>691</v>
+        <v>631</v>
       </c>
       <c r="C92" t="s">
-        <v>719</v>
+        <v>654</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>746</v>
+        <v>609</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -7008,25 +7015,25 @@
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
       <c r="B93" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C93" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -7036,53 +7043,53 @@
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
       <c r="B94" t="s">
-        <v>632</v>
+        <v>692</v>
       </c>
       <c r="C94" t="s">
-        <v>656</v>
+        <v>720</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>610</v>
+        <v>747</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
       <c r="B95" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C95" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -7090,29 +7097,27 @@
       <c r="I95">
         <v>13</v>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J95" s="4"/>
       <c r="K95" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
       <c r="B96" t="s">
-        <v>693</v>
+        <v>633</v>
       </c>
       <c r="C96" t="s">
-        <v>721</v>
+        <v>655</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>748</v>
+        <v>611</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -7120,27 +7125,29 @@
       <c r="I96">
         <v>13</v>
       </c>
-      <c r="J96" s="4"/>
+      <c r="J96" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K96" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="29"/>
       <c r="B97" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C97" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -7148,55 +7155,57 @@
       <c r="I97">
         <v>13</v>
       </c>
-      <c r="J97" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J97" s="4"/>
       <c r="K97" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A98" s="29"/>
       <c r="B98" t="s">
-        <v>750</v>
+        <v>694</v>
       </c>
       <c r="C98" t="s">
-        <v>760</v>
+        <v>722</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>3</v>
       </c>
       <c r="I98">
-        <v>16</v>
-      </c>
-      <c r="J98" s="4"/>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
       <c r="B99" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C99" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -7205,26 +7214,24 @@
         <v>16</v>
       </c>
       <c r="J99" s="4"/>
-      <c r="K99" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
       <c r="B100" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C100" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -7233,24 +7240,26 @@
         <v>16</v>
       </c>
       <c r="J100" s="4"/>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K100" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="29"/>
       <c r="B101" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C101" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -7259,54 +7268,52 @@
         <v>16</v>
       </c>
       <c r="J101" s="4"/>
-      <c r="K101" s="1" t="s">
-        <v>866</v>
-      </c>
+      <c r="K101" s="1"/>
     </row>
     <row r="102" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A102" s="29"/>
       <c r="B102" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C102" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>3</v>
       </c>
       <c r="I102">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A103" s="29"/>
       <c r="B103" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C103" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -7315,24 +7322,26 @@
         <v>17</v>
       </c>
       <c r="J103" s="4"/>
-      <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K103" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="29"/>
       <c r="B104" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C104" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -7341,26 +7350,24 @@
         <v>17</v>
       </c>
       <c r="J104" s="4"/>
-      <c r="K104" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A105" s="29"/>
       <c r="B105" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C105" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -7369,52 +7376,52 @@
         <v>17</v>
       </c>
       <c r="J105" s="4"/>
-      <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K105" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="29"/>
       <c r="B106" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C106" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J106" s="4"/>
-      <c r="K106" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A107" s="29"/>
       <c r="B107" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="C107" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -7423,24 +7430,26 @@
         <v>18</v>
       </c>
       <c r="J107" s="4"/>
-      <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K107" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="29"/>
       <c r="B108" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="C108" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -7449,26 +7458,24 @@
         <v>18</v>
       </c>
       <c r="J108" s="4"/>
-      <c r="K108" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A109" s="29"/>
       <c r="B109" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="C109" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -7477,52 +7484,52 @@
         <v>18</v>
       </c>
       <c r="J109" s="4"/>
-      <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K109" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="29"/>
       <c r="B110" t="s">
-        <v>758</v>
+        <v>778</v>
       </c>
       <c r="C110" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J110" s="4"/>
-      <c r="K110" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A111" s="29"/>
       <c r="B111" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C111" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -7532,56 +7539,56 @@
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L111" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A112" s="29"/>
       <c r="B112" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="C112" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>3</v>
       </c>
       <c r="I112">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="L112" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A113" s="29"/>
       <c r="B113" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="C113" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -7590,10 +7597,33 @@
         <v>20</v>
       </c>
       <c r="J113" s="4"/>
-      <c r="K113" s="1"/>
+      <c r="K113" s="1" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="29"/>
+      <c r="B114" t="s">
+        <v>780</v>
+      </c>
+      <c r="C114" t="s">
+        <v>781</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>20</v>
+      </c>
       <c r="J114" s="4"/>
       <c r="K114" s="1"/>
     </row>
@@ -7602,57 +7632,32 @@
       <c r="J115" s="4"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="9"/>
-    </row>
-    <row r="117" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="28" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="29"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>37</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>309</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D118" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>4</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="28"/>
-      <c r="B118" t="s">
-        <v>38</v>
-      </c>
-      <c r="C118" t="s">
-        <v>485</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>370</v>
-      </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -7664,55 +7669,55 @@
         <v>39</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A119" s="28"/>
       <c r="B119" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>310</v>
+        <v>485</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>4</v>
       </c>
       <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119" s="17" t="s">
-        <v>810</v>
+        <v>0</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A120" s="28"/>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>486</v>
+        <v>310</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -7720,62 +7725,59 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120" s="5" t="s">
-        <v>811</v>
+      <c r="J120" s="17" t="s">
+        <v>810</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A121" s="28"/>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C121" t="s">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>4</v>
       </c>
       <c r="I121">
-        <v>2</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>808</v>
+        <v>1</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>844</v>
+        <v>197</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A122" s="28"/>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -7784,31 +7786,34 @@
         <v>4</v>
       </c>
       <c r="I122">
-        <v>3</v>
-      </c>
-      <c r="J122" s="17" t="s">
-        <v>809</v>
+        <v>2</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A123" s="28"/>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C123" t="s">
-        <v>487</v>
+        <v>244</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -7816,62 +7821,62 @@
       <c r="I123">
         <v>3</v>
       </c>
-      <c r="J123" s="5" t="s">
-        <v>811</v>
+      <c r="J123" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="C124" t="s">
-        <v>238</v>
+        <v>487</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>4</v>
       </c>
       <c r="I124">
-        <v>4</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>808</v>
+        <v>3</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A125" s="28"/>
       <c r="B125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C125" t="s">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -7880,58 +7885,58 @@
         <v>4</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A126" s="28"/>
       <c r="B126" t="s">
-        <v>528</v>
+        <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>4</v>
       </c>
       <c r="I126">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J126" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A127" s="28"/>
       <c r="B127" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C127" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -7940,58 +7945,58 @@
         <v>8</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A128" s="28"/>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>529</v>
       </c>
       <c r="C128" t="s">
-        <v>311</v>
+        <v>527</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>4</v>
       </c>
       <c r="I128">
-        <v>9</v>
-      </c>
-      <c r="J128" s="17" t="s">
-        <v>809</v>
+        <v>8</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A129" s="28"/>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C129" t="s">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -7999,62 +8004,62 @@
       <c r="I129">
         <v>9</v>
       </c>
-      <c r="J129" s="5" t="s">
-        <v>811</v>
+      <c r="J129" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A130" s="28"/>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>489</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>4</v>
       </c>
       <c r="I130">
-        <v>10</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>808</v>
+        <v>9</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A131" s="28"/>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
-        <v>490</v>
+        <v>239</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>4</v>
@@ -8063,58 +8068,58 @@
         <v>10</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A132" s="28"/>
       <c r="B132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
-        <v>240</v>
+        <v>490</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>4</v>
       </c>
       <c r="I132">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J132" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A133" s="28"/>
       <c r="B133" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C133" t="s">
-        <v>491</v>
+        <v>240</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -8126,52 +8131,52 @@
         <v>39</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A134" s="28"/>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C134" t="s">
-        <v>241</v>
+        <v>491</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>4</v>
       </c>
       <c r="I134">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A135" s="28"/>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -8180,7 +8185,7 @@
         <v>4</v>
       </c>
       <c r="I135">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>39</v>
@@ -8192,19 +8197,19 @@
     <row r="136" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A136" s="28"/>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -8219,52 +8224,49 @@
         <v>523</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A137" s="28"/>
       <c r="B137" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="C137" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>4</v>
       </c>
       <c r="I137">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J137" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A138" s="28"/>
       <c r="B138" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C138" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -8273,31 +8275,34 @@
         <v>4</v>
       </c>
       <c r="I138">
-        <v>15</v>
-      </c>
-      <c r="J138" s="17" t="s">
-        <v>809</v>
+        <v>14</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A139" s="28"/>
       <c r="B139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C139" t="s">
-        <v>492</v>
+        <v>246</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -8305,67 +8310,67 @@
       <c r="I139">
         <v>15</v>
       </c>
-      <c r="J139" s="5" t="s">
+      <c r="J139" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A140" s="28"/>
+      <c r="B140" t="s">
+        <v>257</v>
+      </c>
+      <c r="C140" t="s">
+        <v>492</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="I140">
+        <v>15</v>
+      </c>
+      <c r="J140" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="K139" s="1" t="s">
+      <c r="K140" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L139" s="1" t="s">
+      <c r="L140" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="9"/>
-    </row>
-    <row r="141" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="29" t="s">
+    <row r="141" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="9"/>
+    </row>
+    <row r="142" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>55</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>258</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D142" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>5</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="29"/>
-      <c r="B142" t="s">
-        <v>57</v>
-      </c>
-      <c r="C142" t="s">
-        <v>493</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>393</v>
-      </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>5</v>
@@ -8374,55 +8379,55 @@
         <v>0</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>42</v>
+        <v>808</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A143" s="29"/>
       <c r="B143" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C143" t="s">
-        <v>259</v>
+        <v>493</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>5</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K143" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="K143" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="29"/>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="C144" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -8431,31 +8436,31 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <v>2</v>
-      </c>
-      <c r="J144" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A145" s="29"/>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C145" t="s">
-        <v>494</v>
+        <v>312</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>5</v>
@@ -8463,62 +8468,62 @@
       <c r="I145">
         <v>2</v>
       </c>
-      <c r="J145" s="5" t="s">
-        <v>811</v>
+      <c r="J145" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A146" s="29"/>
       <c r="B146" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="C146" t="s">
-        <v>399</v>
+        <v>494</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>5</v>
       </c>
       <c r="I146">
-        <v>3</v>
-      </c>
-      <c r="J146" s="4" t="s">
-        <v>808</v>
+        <v>2</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A147" s="29"/>
       <c r="B147" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C147" t="s">
-        <v>495</v>
+        <v>399</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>5</v>
@@ -8527,58 +8532,58 @@
         <v>3</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>42</v>
+        <v>808</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A148" s="29"/>
       <c r="B148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C148" t="s">
-        <v>400</v>
+        <v>495</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>5</v>
       </c>
       <c r="I148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K148" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K148" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="29"/>
       <c r="B149" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C149" t="s">
-        <v>496</v>
+        <v>400</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>5</v>
@@ -8589,56 +8594,56 @@
       <c r="J149" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K149" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K149" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A150" s="29"/>
       <c r="B150" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C150" t="s">
-        <v>401</v>
+        <v>496</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>5</v>
       </c>
       <c r="I150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J150" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A151" s="29"/>
       <c r="B151" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C151" t="s">
-        <v>497</v>
+        <v>401</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>5</v>
@@ -8650,19 +8655,19 @@
         <v>42</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A152" s="29"/>
       <c r="B152" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C152" t="s">
-        <v>313</v>
+        <v>497</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -8674,61 +8679,61 @@
         <v>5</v>
       </c>
       <c r="I152">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A153" s="29"/>
       <c r="B153" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C153" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>5</v>
       </c>
       <c r="I153">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J153" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K153" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="13"/>
+      <c r="K153" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="29"/>
       <c r="B154" t="s">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="C154" t="s">
-        <v>498</v>
+        <v>314</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>5</v>
@@ -8737,63 +8742,63 @@
         <v>7</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K154" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K154" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="13"/>
+      <c r="B155" t="s">
+        <v>315</v>
+      </c>
+      <c r="C155" t="s">
+        <v>498</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>5</v>
+      </c>
+      <c r="I155">
+        <v>7</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K155" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D155" s="9"/>
-    </row>
-    <row r="156" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="28" t="s">
+    <row r="156" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="9"/>
+    </row>
+    <row r="157" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>73</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>262</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="D157" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>6</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="28"/>
-      <c r="B157" t="s">
-        <v>74</v>
-      </c>
-      <c r="C157" t="s">
-        <v>265</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>410</v>
-      </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>6</v>
@@ -8805,55 +8810,55 @@
         <v>42</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A158" s="28"/>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C158" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
         <v>6</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>564</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A159" s="28"/>
       <c r="B159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C159" t="s">
-        <v>415</v>
+        <v>263</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>6</v>
@@ -8865,55 +8870,55 @@
         <v>42</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A160" s="28"/>
       <c r="B160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C160" t="s">
-        <v>264</v>
+        <v>415</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
         <v>6</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A161" s="28"/>
       <c r="B161" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C161" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>6</v>
@@ -8925,60 +8930,60 @@
         <v>42</v>
       </c>
       <c r="K161" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A162" s="28"/>
+      <c r="B162" t="s">
+        <v>78</v>
+      </c>
+      <c r="C162" t="s">
+        <v>266</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>6</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K162" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="162" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="9"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A163" s="29" t="s">
+    <row r="163" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>88</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>267</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D164" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>7</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K163" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="29"/>
-      <c r="B164" t="s">
-        <v>89</v>
-      </c>
-      <c r="C164" t="s">
-        <v>268</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>417</v>
-      </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>7</v>
@@ -8989,59 +8994,59 @@
       <c r="J164" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K164" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L164" t="s">
-        <v>581</v>
+      <c r="K164" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A165" s="29"/>
       <c r="B165" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C165" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
         <v>7</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="L165" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A166" s="29"/>
       <c r="B166" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C166" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <v>7</v>
@@ -9053,55 +9058,55 @@
         <v>39</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>533</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A167" s="29"/>
       <c r="B167" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C167" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>7</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>90</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A168" s="29"/>
       <c r="B168" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C168" t="s">
-        <v>499</v>
+        <v>271</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>7</v>
@@ -9113,55 +9118,55 @@
         <v>39</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A169" s="29"/>
       <c r="B169" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C169" t="s">
-        <v>272</v>
+        <v>499</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
         <v>7</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A170" s="29"/>
       <c r="B170" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>7</v>
@@ -9173,55 +9178,55 @@
         <v>39</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A171" s="29"/>
       <c r="B171" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C171" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
         <v>7</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A172" s="29"/>
       <c r="B172" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C172" t="s">
-        <v>500</v>
+        <v>274</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>7</v>
@@ -9233,76 +9238,76 @@
         <v>39</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="29"/>
+      <c r="B173" t="s">
+        <v>95</v>
+      </c>
+      <c r="C173" t="s">
+        <v>500</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>7</v>
+      </c>
+      <c r="I173">
+        <v>4</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K173" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="9"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A174" s="28" t="s">
+    <row r="174" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D174" s="9"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B175" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C174" s="8"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
-      <c r="K174" s="8"/>
-      <c r="L174" s="8"/>
-    </row>
-    <row r="175" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A175" s="28"/>
-      <c r="B175" t="s">
-        <v>103</v>
-      </c>
-      <c r="C175" t="s">
-        <v>275</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>8</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K175" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="C175" s="8"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+    </row>
+    <row r="176" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A176" s="28"/>
       <c r="B176" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C176" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>8</v>
@@ -9314,61 +9319,58 @@
         <v>39</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="L176" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A177" s="28"/>
       <c r="B177" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C177" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>8</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="L177" t="s">
-        <v>584</v>
+        <v>579</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="B178" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C178" t="s">
-        <v>434</v>
+        <v>277</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>8</v>
@@ -9380,61 +9382,61 @@
         <v>39</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L178" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A179" s="28"/>
       <c r="B179" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C179" t="s">
-        <v>316</v>
+        <v>434</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>8</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>855</v>
+        <v>580</v>
       </c>
       <c r="L179" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A180" s="28"/>
       <c r="B180" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C180" t="s">
-        <v>582</v>
+        <v>316</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>8</v>
@@ -9446,52 +9448,58 @@
         <v>39</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="L180" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A181" s="28"/>
       <c r="B181" t="s">
-        <v>847</v>
+        <v>108</v>
       </c>
       <c r="C181" t="s">
-        <v>851</v>
+        <v>582</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="F181">
         <v>1</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>8</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J181" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="L181" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A182" s="28"/>
       <c r="B182" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C182" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>8</v>
@@ -9503,28 +9511,22 @@
         <v>39</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="L182" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A183" s="28"/>
       <c r="B183" t="s">
-        <v>278</v>
+        <v>848</v>
       </c>
       <c r="C183" t="s">
-        <v>317</v>
-      </c>
-      <c r="D183" s="10" t="s">
-        <v>432</v>
+        <v>852</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
         <v>8</v>
@@ -9532,29 +9534,32 @@
       <c r="I183">
         <v>3</v>
       </c>
-      <c r="J183" s="17" t="s">
-        <v>809</v>
+      <c r="J183" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="L183" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A184" s="28"/>
       <c r="B184" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C184" t="s">
-        <v>501</v>
+        <v>317</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>8</v>
@@ -9562,59 +9567,59 @@
       <c r="I184">
         <v>3</v>
       </c>
-      <c r="J184" s="5" t="s">
-        <v>811</v>
+      <c r="J184" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L184" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A185" s="28"/>
       <c r="B185" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C185" t="s">
-        <v>854</v>
+        <v>501</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
         <v>8</v>
       </c>
       <c r="I185">
-        <v>4</v>
-      </c>
-      <c r="J185" s="4" t="s">
-        <v>808</v>
+        <v>3</v>
+      </c>
+      <c r="J185" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A186" s="28"/>
       <c r="B186" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C186" t="s">
-        <v>283</v>
+        <v>854</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -9623,31 +9628,31 @@
         <v>8</v>
       </c>
       <c r="I186">
-        <v>5</v>
-      </c>
-      <c r="J186" s="17" t="s">
-        <v>809</v>
+        <v>4</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A187" s="28"/>
       <c r="B187" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C187" t="s">
-        <v>502</v>
+        <v>283</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>8</v>
@@ -9655,62 +9660,62 @@
       <c r="I187">
         <v>5</v>
       </c>
-      <c r="J187" s="5" t="s">
-        <v>811</v>
+      <c r="J187" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A188" s="28"/>
       <c r="B188" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="C188" t="s">
-        <v>853</v>
+        <v>502</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
         <v>8</v>
       </c>
       <c r="I188">
-        <v>6</v>
-      </c>
-      <c r="J188" s="4" t="s">
-        <v>808</v>
+        <v>5</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A189" s="28"/>
       <c r="B189" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C189" t="s">
-        <v>503</v>
+        <v>853</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>8</v>
@@ -9719,58 +9724,58 @@
         <v>6</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A190" s="28"/>
       <c r="B190" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C190" t="s">
-        <v>284</v>
+        <v>503</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>8</v>
       </c>
       <c r="I190">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J190" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A191" s="28"/>
       <c r="B191" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C191" t="s">
-        <v>583</v>
+        <v>284</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>8</v>
@@ -9782,55 +9787,55 @@
         <v>39</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A192" s="28"/>
       <c r="B192" t="s">
-        <v>115</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>285</v>
+        <v>114</v>
+      </c>
+      <c r="C192" t="s">
+        <v>583</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F192">
         <v>1</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
         <v>8</v>
       </c>
       <c r="I192">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J192" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K192" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K192" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="28"/>
       <c r="B193" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>504</v>
+        <v>285</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>8</v>
@@ -9841,89 +9846,89 @@
       <c r="J193" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K193" s="1" t="s">
+      <c r="K193" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="28"/>
+      <c r="B194" t="s">
+        <v>116</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>8</v>
+      </c>
+      <c r="I194">
+        <v>8</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K194" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A194" s="28"/>
-      <c r="B194" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C194" s="8"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="8"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="28"/>
+      <c r="B195" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C195" s="8"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="8"/>
+      <c r="J195" s="8"/>
+      <c r="K195" s="8"/>
+      <c r="L195" s="8"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="28"/>
-      <c r="B196" t="s">
-        <v>870</v>
-      </c>
-      <c r="C196" t="s">
-        <v>871</v>
-      </c>
-      <c r="J196" s="4"/>
-      <c r="K196" s="1"/>
-      <c r="L196" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="28"/>
       <c r="B197" t="s">
-        <v>148</v>
+        <v>870</v>
       </c>
       <c r="C197" t="s">
-        <v>286</v>
-      </c>
-      <c r="D197" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>8</v>
-      </c>
-      <c r="I197">
-        <v>16</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K197" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+      <c r="J197" s="4"/>
+      <c r="K197" s="1"/>
+      <c r="L197" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A198" s="28"/>
       <c r="B198" t="s">
-        <v>149</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>505</v>
+        <v>148</v>
+      </c>
+      <c r="C198" t="s">
+        <v>286</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>8</v>
@@ -9935,22 +9940,22 @@
         <v>39</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A199" s="28"/>
       <c r="B199" t="s">
-        <v>120</v>
-      </c>
-      <c r="C199" t="s">
-        <v>287</v>
+        <v>149</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>505</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -9959,40 +9964,37 @@
         <v>8</v>
       </c>
       <c r="I199">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J199" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L199" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A200" s="28"/>
       <c r="B200" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C200" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F200">
         <v>1</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>8</v>
       </c>
       <c r="I200">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J200" s="4" t="s">
         <v>39</v>
@@ -10004,22 +10006,22 @@
         <v>121</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A201" s="28"/>
       <c r="B201" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C201" t="s">
-        <v>506</v>
+        <v>288</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>8</v>
@@ -10031,58 +10033,58 @@
         <v>39</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="L201" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A202" s="28"/>
       <c r="B202" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C202" t="s">
-        <v>289</v>
+        <v>506</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
         <v>8</v>
       </c>
       <c r="I202">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J202" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L202" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A203" s="28"/>
       <c r="B203" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C203" t="s">
-        <v>507</v>
+        <v>289</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>8</v>
@@ -10094,58 +10096,58 @@
         <v>39</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="L203" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A204" s="28"/>
       <c r="B204" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C204" t="s">
-        <v>290</v>
+        <v>507</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>8</v>
       </c>
       <c r="I204">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J204" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L204" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A205" s="28"/>
       <c r="B205" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C205" t="s">
-        <v>508</v>
+        <v>290</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>8</v>
@@ -10157,53 +10159,58 @@
         <v>39</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="L205" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A206" s="28"/>
       <c r="B206" t="s">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="C206" t="s">
-        <v>305</v>
+        <v>508</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>8</v>
       </c>
       <c r="I206">
-        <v>21</v>
-      </c>
-      <c r="J206" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K206" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A207" s="28"/>
       <c r="B207" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C207" t="s">
-        <v>509</v>
+        <v>305</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
         <v>8</v>
@@ -10213,55 +10220,53 @@
       </c>
       <c r="J207" s="4"/>
       <c r="K207" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A208" s="28"/>
       <c r="B208" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="C208" t="s">
-        <v>291</v>
+        <v>509</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F208">
         <v>1</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>8</v>
       </c>
       <c r="I208">
-        <v>22</v>
-      </c>
-      <c r="J208" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K208" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J208" s="4"/>
+      <c r="K208" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="28"/>
       <c r="B209" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C209" t="s">
-        <v>510</v>
+        <v>291</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>8</v>
@@ -10272,56 +10277,56 @@
       <c r="J209" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K209" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K209" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A210" s="28"/>
       <c r="B210" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C210" t="s">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
         <v>8</v>
       </c>
       <c r="I210">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J210" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K210" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K210" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="28"/>
       <c r="B211" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C211" t="s">
-        <v>511</v>
+        <v>292</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>8</v>
@@ -10332,56 +10337,56 @@
       <c r="J211" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K211" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K211" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A212" s="28"/>
       <c r="B212" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C212" t="s">
-        <v>293</v>
+        <v>511</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F212">
         <v>1</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>8</v>
       </c>
       <c r="I212">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J212" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K212" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K212" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="28"/>
       <c r="B213" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C213" t="s">
-        <v>512</v>
+        <v>293</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>8</v>
@@ -10392,56 +10397,56 @@
       <c r="J213" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K213" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K213" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A214" s="28"/>
       <c r="B214" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C214" t="s">
-        <v>294</v>
+        <v>512</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>8</v>
       </c>
       <c r="I214">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K214" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K214" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="28"/>
       <c r="B215" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C215" t="s">
-        <v>513</v>
+        <v>294</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>8</v>
@@ -10452,20 +10457,20 @@
       <c r="J215" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K215" s="1" t="s">
-        <v>84</v>
+      <c r="K215" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A216" s="28"/>
       <c r="B216" t="s">
-        <v>559</v>
+        <v>136</v>
       </c>
       <c r="C216" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -10477,25 +10482,25 @@
         <v>8</v>
       </c>
       <c r="I216">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J216" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A217" s="28"/>
       <c r="B217" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C217" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -10507,25 +10512,25 @@
         <v>8</v>
       </c>
       <c r="I217">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J217" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" t="s">
-        <v>137</v>
+        <v>560</v>
       </c>
       <c r="C218" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -10537,28 +10542,25 @@
         <v>8</v>
       </c>
       <c r="I218">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J218" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A219" s="28"/>
       <c r="B219" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C219" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -10570,28 +10572,28 @@
         <v>8</v>
       </c>
       <c r="I219">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J219" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L219" t="s">
-        <v>140</v>
+        <v>535</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A220" s="28"/>
       <c r="B220" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C220" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -10603,62 +10605,67 @@
         <v>8</v>
       </c>
       <c r="I220">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J220" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L220" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A221" s="28"/>
       <c r="B221" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="C221" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F221">
         <v>1</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
         <v>8</v>
       </c>
       <c r="I221">
-        <v>31</v>
-      </c>
-      <c r="J221" s="4"/>
-      <c r="K221" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="J221" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L221" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="28"/>
       <c r="B222" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C222" t="s">
-        <v>514</v>
+        <v>306</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
         <v>8</v>
@@ -10667,54 +10674,54 @@
         <v>31</v>
       </c>
       <c r="J222" s="4"/>
-      <c r="K222" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K222" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A223" s="28"/>
       <c r="B223" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C223" t="s">
-        <v>588</v>
+        <v>514</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
         <v>8</v>
       </c>
       <c r="I223">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J223" s="4"/>
-      <c r="K223" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K223" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="28"/>
       <c r="B224" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C224" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>8</v>
@@ -10723,54 +10730,54 @@
         <v>32</v>
       </c>
       <c r="J224" s="4"/>
-      <c r="K224" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K224" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A225" s="28"/>
       <c r="B225" t="s">
-        <v>590</v>
+        <v>302</v>
       </c>
       <c r="C225" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>594</v>
+        <v>471</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
         <v>8</v>
       </c>
       <c r="I225">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J225" s="4"/>
-      <c r="K225" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K225" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C226" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
         <v>8</v>
@@ -10779,72 +10786,70 @@
         <v>33</v>
       </c>
       <c r="J226" s="4"/>
-      <c r="K226" s="1" t="s">
+      <c r="K226" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="28"/>
+      <c r="B227" t="s">
+        <v>591</v>
+      </c>
+      <c r="C227" t="s">
+        <v>593</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>8</v>
+      </c>
+      <c r="I227">
+        <v>33</v>
+      </c>
+      <c r="J227" s="4"/>
+      <c r="K227" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A227" s="28"/>
-      <c r="B227" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C227" s="8"/>
-      <c r="D227" s="11"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8"/>
-      <c r="J227" s="8"/>
-      <c r="K227" s="8"/>
-      <c r="L227" s="8"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="28"/>
-      <c r="B228" t="s">
-        <v>144</v>
-      </c>
-      <c r="C228" t="s">
-        <v>298</v>
-      </c>
-      <c r="D228" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="F228">
-        <v>1</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228">
-        <v>8</v>
-      </c>
-      <c r="I228">
-        <v>48</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K228" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="B228" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C228" s="8"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="8"/>
+      <c r="F228" s="8"/>
+      <c r="G228" s="8"/>
+      <c r="H228" s="8"/>
+      <c r="I228" s="8"/>
+      <c r="J228" s="8"/>
+      <c r="K228" s="8"/>
+      <c r="L228" s="8"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="28"/>
       <c r="B229" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C229" t="s">
-        <v>515</v>
+        <v>298</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>8</v>
@@ -10855,59 +10860,56 @@
       <c r="J229" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K229" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="K229" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A230" s="28"/>
       <c r="B230" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C230" t="s">
-        <v>307</v>
+        <v>515</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
         <v>8</v>
       </c>
       <c r="I230">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J230" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="L230" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A231" s="28"/>
       <c r="B231" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C231" t="s">
-        <v>516</v>
+        <v>307</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>8</v>
@@ -10919,55 +10921,58 @@
         <v>39</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A232" s="28"/>
       <c r="B232" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C232" t="s">
-        <v>308</v>
+        <v>516</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
         <v>8</v>
       </c>
       <c r="I232">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J232" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A233" s="28"/>
       <c r="B233" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C233" t="s">
-        <v>517</v>
+        <v>308</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
         <v>8</v>
@@ -10979,47 +10984,52 @@
         <v>39</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A234" s="28"/>
       <c r="B234" t="s">
-        <v>857</v>
+        <v>152</v>
       </c>
       <c r="C234" t="s">
-        <v>856</v>
+        <v>517</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>477</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
         <v>8</v>
       </c>
       <c r="I234">
-        <v>51</v>
-      </c>
-      <c r="J234" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="J234" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K234" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A235" s="28"/>
       <c r="B235" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C235" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>8</v>
@@ -11029,28 +11039,22 @@
       </c>
       <c r="J235" s="4"/>
       <c r="K235" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="L235" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A236" s="28"/>
       <c r="B236" t="s">
-        <v>539</v>
+        <v>858</v>
       </c>
       <c r="C236" t="s">
-        <v>318</v>
-      </c>
-      <c r="D236" s="10" t="s">
-        <v>478</v>
+        <v>859</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
         <v>8</v>
@@ -11058,29 +11062,30 @@
       <c r="I236">
         <v>51</v>
       </c>
-      <c r="J236" s="17" t="s">
-        <v>809</v>
-      </c>
+      <c r="J236" s="4"/>
       <c r="K236" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+      <c r="L236" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A237" s="28"/>
       <c r="B237" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C237" t="s">
-        <v>518</v>
+        <v>318</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
         <v>8</v>
@@ -11088,59 +11093,59 @@
       <c r="I237">
         <v>51</v>
       </c>
-      <c r="J237" s="5" t="s">
-        <v>811</v>
+      <c r="J237" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L237" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A238" s="28"/>
       <c r="B238" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C238" t="s">
-        <v>319</v>
+        <v>518</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
         <v>8</v>
       </c>
       <c r="I238">
-        <v>52</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>587</v>
+        <v>51</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A239" s="28"/>
       <c r="B239" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C239" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -11149,31 +11154,31 @@
         <v>8</v>
       </c>
       <c r="I239">
-        <v>53</v>
-      </c>
-      <c r="J239" s="17" t="s">
-        <v>809</v>
+        <v>52</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A240" s="28"/>
       <c r="B240" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C240" t="s">
-        <v>519</v>
+        <v>320</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>8</v>
@@ -11181,62 +11186,62 @@
       <c r="I240">
         <v>53</v>
       </c>
-      <c r="J240" s="5" t="s">
-        <v>811</v>
+      <c r="J240" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L240" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A241" s="28"/>
       <c r="B241" t="s">
-        <v>157</v>
+        <v>543</v>
       </c>
       <c r="C241" t="s">
-        <v>321</v>
+        <v>519</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
         <v>8</v>
       </c>
       <c r="I241">
-        <v>54</v>
-      </c>
-      <c r="J241" s="4" t="s">
-        <v>808</v>
+        <v>53</v>
+      </c>
+      <c r="J241" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A242" s="28"/>
       <c r="B242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C242" t="s">
-        <v>520</v>
+        <v>321</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
         <v>8</v>
@@ -11245,256 +11250,256 @@
         <v>54</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>39</v>
+        <v>808</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="9"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A244" s="25" t="s">
+    <row r="243" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A243" s="28"/>
+      <c r="B243" t="s">
+        <v>158</v>
+      </c>
+      <c r="C243" t="s">
+        <v>520</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>8</v>
+      </c>
+      <c r="I243">
+        <v>54</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D244" s="9"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A245" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B245" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C244" s="7"/>
-      <c r="D244" s="12"/>
-      <c r="E244" s="7"/>
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7"/>
-      <c r="I244" s="7"/>
-      <c r="J244" s="7"/>
-      <c r="K244" s="7"/>
-      <c r="L244" s="7"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A245" s="25"/>
-      <c r="B245" t="s">
-        <v>151</v>
-      </c>
+      <c r="C245" s="7"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="7"/>
+      <c r="J245" s="7"/>
+      <c r="K245" s="7"/>
+      <c r="L245" s="7"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="25"/>
       <c r="B248" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="25"/>
       <c r="B249" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="25"/>
       <c r="B250" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
       <c r="B253" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
       <c r="B254" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="25"/>
       <c r="B255" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="25"/>
       <c r="B256" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="25"/>
       <c r="B257" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="25"/>
-      <c r="B258" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C258" s="7"/>
-      <c r="D258" s="12"/>
-      <c r="E258" s="7"/>
-      <c r="F258" s="7"/>
-      <c r="G258" s="7"/>
-      <c r="H258" s="7"/>
-      <c r="I258" s="7"/>
-      <c r="J258" s="7"/>
-      <c r="K258" s="7"/>
-      <c r="L258" s="7"/>
+      <c r="B258" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="25"/>
-      <c r="B259" t="s">
-        <v>169</v>
-      </c>
+      <c r="B259" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C259" s="7"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" s="7"/>
+      <c r="H259" s="7"/>
+      <c r="I259" s="7"/>
+      <c r="J259" s="7"/>
+      <c r="K259" s="7"/>
+      <c r="L259" s="7"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="25"/>
       <c r="B260" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="25"/>
-      <c r="B261" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C261" s="7"/>
-      <c r="D261" s="12"/>
-      <c r="E261" s="7"/>
-      <c r="F261" s="7"/>
-      <c r="G261" s="7"/>
-      <c r="H261" s="7"/>
-      <c r="I261" s="7"/>
-      <c r="J261" s="7"/>
-      <c r="K261" s="7"/>
-      <c r="L261" s="7"/>
+      <c r="B261" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="25"/>
-      <c r="B262" t="s">
-        <v>172</v>
-      </c>
+      <c r="B262" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C262" s="7"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" s="7"/>
+      <c r="H262" s="7"/>
+      <c r="I262" s="7"/>
+      <c r="J262" s="7"/>
+      <c r="K262" s="7"/>
+      <c r="L262" s="7"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="25"/>
       <c r="B263" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A264" s="25"/>
+      <c r="B264" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="264" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="9"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A265" s="26" t="s">
+    <row r="265" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D265" s="9"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A266" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>873</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C266" t="s">
         <v>874</v>
       </c>
-      <c r="J265" s="4"/>
-      <c r="L265" t="s">
+      <c r="J266" s="4"/>
+      <c r="L266" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A266" s="26"/>
-      <c r="J266" s="4"/>
-    </row>
-    <row r="267" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="26"/>
-      <c r="B267" t="s">
-        <v>174</v>
-      </c>
-      <c r="C267" t="s">
-        <v>554</v>
-      </c>
-      <c r="E267">
-        <v>0</v>
-      </c>
-      <c r="F267">
-        <v>0</v>
-      </c>
-      <c r="G267">
-        <v>0</v>
-      </c>
-      <c r="H267">
-        <v>10</v>
-      </c>
-      <c r="I267">
-        <v>0</v>
-      </c>
-      <c r="J267" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="K267" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="J267" s="4"/>
+    </row>
+    <row r="268" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A268" s="26"/>
       <c r="B268" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C268" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E268">
         <v>0</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
         <v>10</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K268" s="1" t="s">
-        <v>58</v>
+        <v>808</v>
+      </c>
+      <c r="K268" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="269" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A269" s="26"/>
       <c r="B269" t="s">
-        <v>561</v>
+        <v>175</v>
       </c>
       <c r="C269" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -11509,22 +11514,22 @@
         <v>10</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J269" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A270" s="26"/>
       <c r="B270" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C270" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -11539,31 +11544,28 @@
         <v>10</v>
       </c>
       <c r="I270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J270" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A271" s="26"/>
       <c r="B271" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C271" t="s">
-        <v>545</v>
-      </c>
-      <c r="D271" s="10" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E271">
         <v>0</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -11572,28 +11574,25 @@
         <v>10</v>
       </c>
       <c r="I271">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J271" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="L271" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A272" s="26"/>
       <c r="B272" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C272" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -11608,28 +11607,28 @@
         <v>10</v>
       </c>
       <c r="I272">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J272" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L272" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="L272" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A273" s="26"/>
       <c r="B273" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C273" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -11644,145 +11643,181 @@
         <v>10</v>
       </c>
       <c r="I273">
+        <v>5</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A274" s="26"/>
+      <c r="B274" t="s">
+        <v>569</v>
+      </c>
+      <c r="C274" t="s">
+        <v>574</v>
+      </c>
+      <c r="D274" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>10</v>
+      </c>
+      <c r="I274">
         <v>6</v>
       </c>
-      <c r="J273" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K273" s="1" t="s">
+      <c r="J274" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K274" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="L273" s="1" t="s">
+      <c r="L274" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="274" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D274" s="9"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A275" s="27" t="s">
+    <row r="275" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D275" s="9"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A276" s="27" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A276" s="27"/>
-      <c r="B276" t="s">
-        <v>876</v>
-      </c>
-      <c r="C276" t="s">
-        <v>877</v>
-      </c>
-      <c r="J276" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L276" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="27"/>
       <c r="B277" t="s">
-        <v>180</v>
+        <v>876</v>
+      </c>
+      <c r="C277" t="s">
+        <v>877</v>
+      </c>
+      <c r="J277" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L277" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="27"/>
       <c r="B278" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="27"/>
       <c r="B279" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="27"/>
       <c r="B280" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="27"/>
       <c r="B281" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="27"/>
       <c r="B282" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="27"/>
       <c r="B283" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="27"/>
       <c r="B284" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="27"/>
       <c r="B285" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="27"/>
       <c r="B286" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="27"/>
       <c r="B287" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="27"/>
       <c r="B288" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="27"/>
       <c r="B289" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="27"/>
       <c r="B290" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="27"/>
       <c r="B291" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="27"/>
+      <c r="B292" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A244:A263"/>
-    <mergeCell ref="A265:A273"/>
-    <mergeCell ref="A275:A291"/>
-    <mergeCell ref="A4:A19"/>
-    <mergeCell ref="A117:A139"/>
-    <mergeCell ref="A141:A153"/>
-    <mergeCell ref="A156:A161"/>
-    <mergeCell ref="A163:A172"/>
-    <mergeCell ref="A174:A242"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A41:A115"/>
-    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A245:A264"/>
+    <mergeCell ref="A266:A274"/>
+    <mergeCell ref="A276:A292"/>
+    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="A118:A140"/>
+    <mergeCell ref="A142:A154"/>
+    <mergeCell ref="A157:A162"/>
+    <mergeCell ref="A164:A173"/>
+    <mergeCell ref="A175:A243"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A42:A116"/>
+    <mergeCell ref="A31:A40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/藍芽傳輸規劃0923.xlsx
+++ b/藍芽傳輸規劃0923.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="890">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2519,10 +2519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>無場景None、選單SongSelect、遊戲Play、遊戲結束Result、互動Instant、錄製Record、擴充升級Upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AckSheetmusicData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3838,6 +3834,14 @@
   <si>
     <t>代表身分錯誤，電子琴會將連線直接斷開，並茄備註一個message訊息給手機</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無場景None、選單SongSelect、遊戲Play、遊戲結束Result、互動Instant、錄製Record、擴充升級Upgrade
+改成直接用typename名稱當作scene名稱，沒有subscene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接用typename名稱當作scene名稱，沒有subscene</t>
   </si>
 </sst>
 </file>
@@ -4334,8 +4338,8 @@
   <dimension ref="A1:M292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L168" sqref="L168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4359,19 +4363,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>806</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>807</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>195</v>
@@ -4395,17 +4399,17 @@
     <row r="2" spans="1:13" s="21" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="C2" s="16" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="16" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -4442,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K4" t="s">
         <v>197</v>
@@ -4478,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K5" t="s">
         <v>197</v>
@@ -4514,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K6" t="s">
         <v>192</v>
@@ -4689,52 +4693,52 @@
     <row r="12" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="L13" t="s">
         <v>879</v>
-      </c>
-      <c r="L13" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" t="s">
+        <v>884</v>
+      </c>
+      <c r="C14" t="s">
         <v>885</v>
       </c>
-      <c r="C14" t="s">
+      <c r="J14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" t="s">
         <v>887</v>
-      </c>
-      <c r="L14" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -4743,7 +4747,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>330</v>
@@ -5493,10 +5497,10 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C42" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>354</v>
@@ -5517,19 +5521,19 @@
         <v>39</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="L42" t="s">
         <v>867</v>
-      </c>
-      <c r="L42" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" t="s">
+        <v>863</v>
+      </c>
+      <c r="C43" t="s">
         <v>864</v>
-      </c>
-      <c r="C43" t="s">
-        <v>865</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>354</v>
@@ -5550,19 +5554,19 @@
         <v>39</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="L43" t="s">
         <v>867</v>
-      </c>
-      <c r="L43" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C44" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>355</v>
@@ -5589,13 +5593,13 @@
     <row r="45" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A45" s="29"/>
       <c r="B45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5619,13 +5623,13 @@
     <row r="46" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
       <c r="B46" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C46" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5649,10 +5653,10 @@
     <row r="47" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C47" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>356</v>
@@ -5679,10 +5683,10 @@
     <row r="48" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C48" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>357</v>
@@ -5709,13 +5713,13 @@
     <row r="49" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
       <c r="B49" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C49" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -5739,13 +5743,13 @@
     <row r="50" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
       <c r="B50" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C50" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5769,10 +5773,10 @@
     <row r="51" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
       <c r="B51" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C51" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>358</v>
@@ -5799,10 +5803,10 @@
     <row r="52" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
       <c r="B52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>359</v>
@@ -5829,13 +5833,13 @@
     <row r="53" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A53" s="29"/>
       <c r="B53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C53" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -5859,13 +5863,13 @@
     <row r="54" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
       <c r="B54" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C54" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5889,10 +5893,10 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
       <c r="B55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C55" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>360</v>
@@ -5919,10 +5923,10 @@
     <row r="56" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A56" s="29"/>
       <c r="B56" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>361</v>
@@ -5949,13 +5953,13 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
       <c r="B57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C57" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -5979,13 +5983,13 @@
     <row r="58" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A58" s="29"/>
       <c r="B58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C58" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -6009,10 +6013,10 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C59" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>362</v>
@@ -6039,13 +6043,13 @@
     <row r="60" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C60" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -6069,13 +6073,13 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C61" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -6099,13 +6103,13 @@
     <row r="62" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C62" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -6129,10 +6133,10 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C63" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>363</v>
@@ -6153,16 +6157,16 @@
         <v>39</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>364</v>
@@ -6189,13 +6193,13 @@
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C65" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -6213,19 +6217,19 @@
         <v>39</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C66" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -6249,10 +6253,10 @@
     <row r="67" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C67" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>365</v>
@@ -6279,10 +6283,10 @@
     <row r="68" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C68" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>366</v>
@@ -6309,13 +6313,13 @@
     <row r="69" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C69" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -6339,13 +6343,13 @@
     <row r="70" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C70" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6369,13 +6373,13 @@
     <row r="71" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
       <c r="B71" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C71" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6399,10 +6403,10 @@
     <row r="72" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C72" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>367</v>
@@ -6429,13 +6433,13 @@
     <row r="73" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -6459,13 +6463,13 @@
     <row r="74" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C74" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6489,10 +6493,10 @@
     <row r="75" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C75" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>368</v>
@@ -6519,13 +6523,13 @@
     <row r="76" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C76" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -6549,13 +6553,13 @@
     <row r="77" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="B77" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C77" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6579,13 +6583,13 @@
     <row r="78" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
       <c r="B78" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C78" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6609,13 +6613,13 @@
     <row r="79" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C79" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6639,13 +6643,13 @@
     <row r="80" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
       <c r="B80" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C80" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -6669,13 +6673,13 @@
     <row r="81" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C81" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -6699,13 +6703,13 @@
     <row r="82" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
       <c r="B82" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C82" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6729,13 +6733,13 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
       <c r="B83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C83" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6757,13 +6761,13 @@
     <row r="84" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A84" s="29"/>
       <c r="B84" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C84" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -6781,19 +6785,19 @@
         <v>39</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
       <c r="B85" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C85" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -6815,13 +6819,13 @@
     <row r="86" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
       <c r="B86" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C86" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6839,19 +6843,19 @@
         <v>39</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6875,13 +6879,13 @@
     <row r="88" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C88" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -6899,19 +6903,19 @@
         <v>39</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -6935,13 +6939,13 @@
     <row r="90" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C90" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6959,19 +6963,19 @@
         <v>39</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
       <c r="B91" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C91" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6993,13 +6997,13 @@
     <row r="92" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
       <c r="B92" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C92" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -7021,13 +7025,13 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
       <c r="B93" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C93" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -7049,13 +7053,13 @@
     <row r="94" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
       <c r="B94" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C94" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7077,13 +7081,13 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
       <c r="B95" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C95" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7105,13 +7109,13 @@
     <row r="96" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
       <c r="B96" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C96" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -7135,13 +7139,13 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="29"/>
       <c r="B97" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C97" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -7163,13 +7167,13 @@
     <row r="98" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A98" s="29"/>
       <c r="B98" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C98" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7193,13 +7197,13 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
       <c r="B99" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C99" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7219,13 +7223,13 @@
     <row r="100" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
       <c r="B100" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C100" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -7241,19 +7245,19 @@
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="29"/>
       <c r="B101" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C101" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -7273,13 +7277,13 @@
     <row r="102" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A102" s="29"/>
       <c r="B102" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C102" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7295,19 +7299,19 @@
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A103" s="29"/>
       <c r="B103" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C103" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7323,19 +7327,19 @@
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="29"/>
       <c r="B104" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C104" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -7355,13 +7359,13 @@
     <row r="105" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A105" s="29"/>
       <c r="B105" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C105" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -7377,19 +7381,19 @@
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="29"/>
       <c r="B106" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C106" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7409,13 +7413,13 @@
     <row r="107" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A107" s="29"/>
       <c r="B107" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C107" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -7431,19 +7435,19 @@
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="29"/>
       <c r="B108" t="s">
+        <v>775</v>
+      </c>
+      <c r="C108" t="s">
         <v>776</v>
       </c>
-      <c r="C108" t="s">
-        <v>777</v>
-      </c>
       <c r="D108" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -7463,13 +7467,13 @@
     <row r="109" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A109" s="29"/>
       <c r="B109" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C109" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -7485,19 +7489,19 @@
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="29"/>
       <c r="B110" t="s">
+        <v>777</v>
+      </c>
+      <c r="C110" t="s">
         <v>778</v>
       </c>
-      <c r="C110" t="s">
-        <v>779</v>
-      </c>
       <c r="D110" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -7517,13 +7521,13 @@
     <row r="111" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A111" s="29"/>
       <c r="B111" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C111" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -7539,19 +7543,19 @@
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A112" s="29"/>
       <c r="B112" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C112" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -7570,19 +7574,19 @@
         <v>58</v>
       </c>
       <c r="L112" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A113" s="29"/>
       <c r="B113" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C113" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -7598,19 +7602,19 @@
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="29"/>
       <c r="B114" t="s">
+        <v>779</v>
+      </c>
+      <c r="C114" t="s">
         <v>780</v>
       </c>
-      <c r="C114" t="s">
-        <v>781</v>
-      </c>
       <c r="D114" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -7726,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>41</v>
@@ -7756,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>197</v>
@@ -7789,10 +7793,10 @@
         <v>2</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>113</v>
@@ -7822,7 +7826,7 @@
         <v>3</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>41</v>
@@ -7852,7 +7856,7 @@
         <v>3</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>197</v>
@@ -7885,7 +7889,7 @@
         <v>4</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>522</v>
@@ -8005,7 +8009,7 @@
         <v>9</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>193</v>
@@ -8035,7 +8039,7 @@
         <v>9</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>197</v>
@@ -8068,7 +8072,7 @@
         <v>10</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>522</v>
@@ -8281,7 +8285,7 @@
         <v>39</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>113</v>
@@ -8311,7 +8315,7 @@
         <v>15</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>193</v>
@@ -8341,7 +8345,7 @@
         <v>15</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>40</v>
@@ -8379,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>56</v>
@@ -8469,7 +8473,7 @@
         <v>2</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>193</v>
@@ -8499,7 +8503,7 @@
         <v>2</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>40</v>
@@ -8532,7 +8536,7 @@
         <v>3</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>60</v>
@@ -8998,7 +9002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A165" s="29"/>
       <c r="B165" t="s">
         <v>89</v>
@@ -9027,8 +9031,8 @@
       <c r="K165" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L165" t="s">
-        <v>581</v>
+      <c r="L165" s="1" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -9119,6 +9123,9 @@
       </c>
       <c r="K168" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="L168" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -9385,7 +9392,7 @@
         <v>577</v>
       </c>
       <c r="L178" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -9448,7 +9455,7 @@
         <v>39</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L180" t="s">
         <v>566</v>
@@ -9460,7 +9467,7 @@
         <v>108</v>
       </c>
       <c r="C181" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>431</v>
@@ -9481,19 +9488,19 @@
         <v>39</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L181" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A182" s="28"/>
       <c r="B182" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C182" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -9511,16 +9518,16 @@
         <v>39</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A183" s="28"/>
       <c r="B183" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C183" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -9538,10 +9545,10 @@
         <v>39</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L183" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -9568,7 +9575,7 @@
         <v>3</v>
       </c>
       <c r="J184" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>193</v>
@@ -9598,7 +9605,7 @@
         <v>3</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>197</v>
@@ -9613,7 +9620,7 @@
         <v>280</v>
       </c>
       <c r="C186" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>435</v>
@@ -9631,10 +9638,10 @@
         <v>4</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -9661,7 +9668,7 @@
         <v>5</v>
       </c>
       <c r="J187" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>193</v>
@@ -9691,7 +9698,7 @@
         <v>5</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>197</v>
@@ -9706,7 +9713,7 @@
         <v>109</v>
       </c>
       <c r="C189" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>438</v>
@@ -9724,7 +9731,7 @@
         <v>6</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>523</v>
@@ -9796,7 +9803,7 @@
         <v>114</v>
       </c>
       <c r="C192" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>441</v>
@@ -9902,15 +9909,15 @@
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="28"/>
       <c r="B197" t="s">
+        <v>869</v>
+      </c>
+      <c r="C197" t="s">
         <v>870</v>
-      </c>
-      <c r="C197" t="s">
-        <v>871</v>
       </c>
       <c r="J197" s="4"/>
       <c r="K197" s="1"/>
       <c r="L197" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
@@ -10712,7 +10719,7 @@
         <v>301</v>
       </c>
       <c r="C224" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>470</v>
@@ -10740,7 +10747,7 @@
         <v>302</v>
       </c>
       <c r="C225" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>471</v>
@@ -10765,13 +10772,13 @@
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C226" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -10793,13 +10800,13 @@
     <row r="227" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A227" s="28"/>
       <c r="B227" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C227" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -10921,10 +10928,10 @@
         <v>39</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -11020,10 +11027,10 @@
     <row r="235" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A235" s="28"/>
       <c r="B235" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C235" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -11039,16 +11046,16 @@
       </c>
       <c r="J235" s="4"/>
       <c r="K235" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A236" s="28"/>
       <c r="B236" t="s">
+        <v>857</v>
+      </c>
+      <c r="C236" t="s">
         <v>858</v>
-      </c>
-      <c r="C236" t="s">
-        <v>859</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -11064,10 +11071,10 @@
       </c>
       <c r="J236" s="4"/>
       <c r="K236" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="L236" t="s">
         <v>861</v>
-      </c>
-      <c r="L236" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -11094,7 +11101,7 @@
         <v>51</v>
       </c>
       <c r="J237" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K237" s="1" t="s">
         <v>193</v>
@@ -11124,7 +11131,7 @@
         <v>51</v>
       </c>
       <c r="J238" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K238" s="1" t="s">
         <v>197</v>
@@ -11157,10 +11164,10 @@
         <v>52</v>
       </c>
       <c r="J239" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -11187,7 +11194,7 @@
         <v>53</v>
       </c>
       <c r="J240" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>193</v>
@@ -11217,7 +11224,7 @@
         <v>53</v>
       </c>
       <c r="J241" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>197</v>
@@ -11250,7 +11257,7 @@
         <v>54</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>523</v>
@@ -11449,14 +11456,14 @@
         <v>160</v>
       </c>
       <c r="B266" t="s">
+        <v>872</v>
+      </c>
+      <c r="C266" t="s">
         <v>873</v>
-      </c>
-      <c r="C266" t="s">
-        <v>874</v>
       </c>
       <c r="J266" s="4"/>
       <c r="L266" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
@@ -11487,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K268" t="s">
         <v>556</v>
@@ -11702,16 +11709,16 @@
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="27"/>
       <c r="B277" t="s">
+        <v>875</v>
+      </c>
+      <c r="C277" t="s">
         <v>876</v>
       </c>
-      <c r="C277" t="s">
+      <c r="J277" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L277" t="s">
         <v>877</v>
-      </c>
-      <c r="J277" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L277" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -11848,16 +11855,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -11884,10 +11891,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D4" t="s">
         <v>216</v>
@@ -11916,10 +11923,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C7" t="s">
         <v>815</v>
-      </c>
-      <c r="C7" t="s">
-        <v>816</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -11982,37 +11989,37 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C15" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -12035,10 +12042,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
+        <v>827</v>
+      </c>
+      <c r="C20" t="s">
         <v>828</v>
-      </c>
-      <c r="C20" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -12095,19 +12102,19 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
+        <v>829</v>
+      </c>
+      <c r="C27" t="s">
         <v>830</v>
-      </c>
-      <c r="C27" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" t="s">
+        <v>831</v>
+      </c>
+      <c r="C28" t="s">
         <v>832</v>
-      </c>
-      <c r="C28" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -12116,28 +12123,28 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" t="s">
+        <v>833</v>
+      </c>
+      <c r="C30" t="s">
         <v>834</v>
-      </c>
-      <c r="C30" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" t="s">
+        <v>835</v>
+      </c>
+      <c r="C31" t="s">
         <v>836</v>
-      </c>
-      <c r="C31" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
+        <v>837</v>
+      </c>
+      <c r="C32" t="s">
         <v>838</v>
-      </c>
-      <c r="C32" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">

--- a/藍芽傳輸規劃0923.xlsx
+++ b/藍芽傳輸規劃0923.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="889">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3839,9 +3839,6 @@
     <t>無場景None、選單SongSelect、遊戲Play、遊戲結束Result、互動Instant、錄製Record、擴充升級Upgrade
 改成直接用typename名稱當作scene名稱，沒有subscene</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接用typename名稱當作scene名稱，沒有subscene</t>
   </si>
 </sst>
 </file>
@@ -4338,7 +4335,7 @@
   <dimension ref="A1:M292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L168" sqref="L168"/>
     </sheetView>
   </sheetViews>
@@ -9123,9 +9120,6 @@
       </c>
       <c r="K168" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="L168" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">

--- a/藍芽傳輸規劃0923.xlsx
+++ b/藍芽傳輸規劃0923.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
-    <sheet name="request" sheetId="2" r:id="rId2"/>
+    <sheet name="Modifier" sheetId="3" r:id="rId2"/>
+    <sheet name="request" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="953">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1382,14 +1383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1478,14 +1471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1510,10 +1495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>110300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1758,14 +1739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000701</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1774,14 +1747,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000703</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1806,38 +1771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnWriteGameConfiguration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1846,22 +1779,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100808</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1870,10 +1787,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010810</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1922,14 +1835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000817</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110817</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100818</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1938,14 +1843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11081A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1974,63 +1871,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000820</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110820</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100841</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010841</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100842</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010842</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000843</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110843</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100844</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000845</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>110845</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000846</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110846</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2257,12 +2102,6 @@
   </si>
   <si>
     <t>{
-"FileName":string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "Availability":short
 "Description":string
 }</t>
@@ -2295,30 +2134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"Id":unsigned int
-"SheetmusicName":string
-"Artist":short
-"Version":short
-"Description":string
-"ReleaseDate":string
-"UserId":unsigned int
-"UserName":string
-"PlayDate":string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"Status":short
-"Id":unsigned int
-"UserId":unsigned int
-"PlayDate":string
-"Description":string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>傳送重播譜檔片段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2367,11 +2182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventType有Fall,Erupt,Explode,Line等
-如果是黑鍵，琴的程式會自動把她開始時間往後，讓他落下的時間是正確的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "Key":short
 }</t>
@@ -2463,14 +2273,6 @@
 通常都是控制獨立虛擬鋼琴，所以virtual是true
 除非要幫玩家控制踏板。
 踏板的話volume 0是踏 1是抬起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"EventType":string
-"Time":double
-"Key":short
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2496,29 +2298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"Modifiers":[{"Modifier Id":string, "Modifier Name":string, "Modifier Type":string, "Value1":int, "Value2":int}, ...]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有成功設定的modifier就會寫在status裡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"Scene":string
-"Modifiers":[{"Modifier Id":string, "Modifier Name", "Modifier Type":string, "Value1":int, "Value2":int}, ...]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"Scene":string
-"Status":[{ "Modifier Id":string}, ...]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AckSheetmusicData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2527,27 +2306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Modifier請參照Modifier資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id:unisgned int(4)
-Version:unisgned int 韌體版號(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id:unisgned int(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id:unisgned int(4)
-Length:unsigned short 長度(2)
-Order:unsigned short 封包順序(2)
-Amount:unsigned short 封包總量(2)
-Text:char[] 內文(? 不可超過512)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AppQuitGame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2569,14 +2327,6 @@
   </si>
   <si>
     <t>AckAppRestartGame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110821</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3409,28 +3159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Hit Amount": 總擊中數
-"Max Hit Amount": 歌曲最大擊中數
-"Score": 分數
-"Max Score": 歌曲最高分數
-"Accuracy": 精準度，為原精準度乘10000
-"Combo": 連擊數
-"Hits":[{"Result":string, "Hit Amount":unsigned int}, ...] 各種擊中數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"Hit Amount":unsigned int
-"Max Hit Amount": unsigned int
-"Score":unsigned int
-"Max Score":unsigned int
-"Accuracy":unsigned int
-"Combo":unsigned int
-"Hits":[{"Result":string, "Hit Amount":unsigned int}, ...]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>byte2-bit1~4
 (傳送方向)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3452,15 +3180,6 @@
   <si>
     <t>指令編號
 (hex)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Command:unisgned int 指令名稱(4)
-Id:unsigned short 封包id(2)
-Length:unsigned short 長度(2) 不能超過512b
-Order:unsigned short 封包順序(2)
-Amount:unsigned short 封包總量(2)
-Text:char[] 內文(?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3478,16 +3197,6 @@
 Id:unsigned short 封包id(2)
 Length:unsigned short 長度(2) 不可超過512b
 FileName:string 檔案名稱(16)
-Order:unsigned short 封包順序(2)
-Amount:unsigned short 封包總量(2)
-File:binary 檔案內文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Command:unsigned int 指令編號(4)
-Id:unsigned short 封包id(2)
-Length:unsigned short 長度(2) 不可超過512b
-FileName:string 檔案名稱(16)
 Order:unsigned short 封包順序(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3601,32 +3310,11 @@
   </si>
   <si>
     <t>UploadPlayRecordRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需告知收到為0(con)
-不需告知收到為1(non)
-告知已收到是2(ack)
-回傳資料需告知收到是3(retcon)
-回傳資料不需告知收到是4(retnon)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>byte1
 (內容類型)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json為0
-binary為1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前面加上Con/Non/Ack/Ret即可作為struct名稱
-con代表需要回傳的訊息(可證實)
-non代表不須回傳的訊息(不可證實)
-ack代表告知收到的那個訊息
-ret代表回傳資訊的訊息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3645,27 +3333,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"Status":short
-"FileName":string
-"Description":string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>要求傳送譜檔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收到要求傳送譜檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status:0代表沒有琴裡這首曲子，可以接收；-1代表已收到這首曲子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status:0代表將開始傳送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3691,19 +3363,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PostPlayRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>要求傳送重播譜檔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收到要求傳送重播譜檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AckPostPlayRecord</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3742,29 +3406,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"Event":[{string}, ...]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裡面每一個string就是一個按壓事件，例如"127,48"(127按鍵音，以48的音量按下)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AppIOEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meteor事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeteorEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如結束遊戲、重新開始遊戲…等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3836,8 +3478,634 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>無場景None、選單SongSelect、遊戲Play、遊戲結束Result、互動Instant、錄製Record、擴充升級Upgrade
-改成直接用typename名稱當作scene名稱，沒有subscene</t>
+    <t>名稱
+Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值1
+V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值2
+V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介紹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值介紹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicGameModifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音樂遊戲模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Modifiers":[{"Name":string, "V1":int, "V2":int}, ...]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command:unisgned int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command:unisgned int(4)
+Version:unisgned int 韌體版號(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command:unisgned int 指令名稱(4)
+Id:unsigned short 封包id(2)
+Length:unsigned short 長度(2) 不能超過156b
+Order:unsigned short 封包順序(2)
+Amount:unsigned short 封包總量(2)
+Text:char[] 內文(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command:unsigned int 指令編號(4)
+Id:unsigned short 封包id(2)
+Length:unsigned short 長度(2) 不可超過156b
+FileName:string 檔案名稱(16)
+Order:unsigned short 封包順序(2)
+Amount:unsigned short 封包總量(2)
+File:binary 檔案內文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearGameConfiguration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command:unsigned int 指令編號(4)
+Id:unsigned short 封包id(2)
+Length:unsigned short 長度(2) 不可超過156b
+FileName:string 檔案名稱(16)
+Order:unsigned short 封包順序(2)
+Amount:unsigned short 封包總量(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckWriteGameConfiguration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckClearGameConfiguration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除遊戲設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到清除遊戲設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀韌體為0
+回傳韌體為1
+json為2
+binary為3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>con代表需要回傳的訊息(可證實)
+non代表不須回傳的訊息(不可證實)
+ack代表告知收到的那個訊息
+ret代表回傳資訊的訊息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02110201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02010201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02010300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02010301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裡面的每一個string就是一個按壓事件，例如"127,48"(127按鍵音，以48的音量按下)，目前暫定一個訊息只能記錄一則事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裡面每一個string就是一個按壓事件，例如"127,48"(127按鍵音，以48的音量按下)，目前暫定一個訊息只能記錄一則事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Events":[string, ...]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Events":[string, ...]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Status":short
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功時回傳status=0，若status&lt;0代表失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需告知收到或回傳為0(con)
+不需告知收到或回傳為1(non)
+告知已收到是2(ack)
+回傳資料需告知收到是3(retcon)
+回傳資料不需告知收到是4(retnon)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01140000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Scene":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選歌PlaySongSelect、遊戲Player、音樂遊戲結束MeteorResult、錄製模式結束RecordResult、擴充升級Upgrade
+(改成直接用typename名稱當作scene名稱，沒有subscene)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02140700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Scene":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選歌畫面：PlaySongSelect，目前用這個指令只能進入選歌畫面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功設定就status=0，有不成功就是&lt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifier請參照Modifier資料，目前暫定一則訊息只能內涵一個modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功清除就status=0，不成功就是&lt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Status":short
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status:0代表沒有琴裡這首曲子，可以接收；-1代表琴裡面已經有這首曲子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Status":short
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=0代表將開始傳送，status&lt;0代表要求失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03000805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header為28byte，file為最大128byte，封包最大尺寸共156byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02110806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+"Order":unsigned int
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺哪個封包就寫在"Order"欄位，每個訊息只能放一個order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果完整收到為status=0，如果有遺漏為status&lt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始load game為status=0，開始失敗為status&lt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04120805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02110810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Event":[string,...]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲開始、結束、暫停、跳轉、得分…等，暫定一個訊息只能內涵一個Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100811</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Status":short
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功回傳status=0，失敗回傳status&lt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0200081A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0212081A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功回傳status=0，失敗回傳status&lt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"HA":unsigned int
+"MHA": unsigned int
+"S":unsigned int
+"MS":unsigned int
+"A":unsigned int
+"C":unsigned int
+"Hits":[unsigned int, ...]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"HA": Hit Amount總擊中數
+"MHA": Max Hit Amount歌曲最大擊中數
+"S": Score分數
+"MS": Max Score歌曲最高分數
+"A": Accuracy精準度，為原精準度乘10000
+"C": Combo連擊數
+"Hits":[unsigned int, ...] 各種擊中數量，依序為Great Good Ok Bad Miss五個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+"SheetmusicName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileName:這個紀錄檔的檔名
+SheetmusicName:玩的歌的檔名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到為status=0，其他狀況為status&lt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WritePlayRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckWritetPlayRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03000834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04110834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02110835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02110837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Status":short
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功沒有遺漏status=0，如果有遺漏的話status&lt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"EventType":string
+"Time":double
+"Life" :double
+"Key":short
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventType有Fall,Erupt,Explode,Line等
+time是多久後開始，life是維持多久
+如果是黑鍵，琴的程式會自動把她開始時間往後，讓他落下的時間是正確的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatPracticeModifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重複次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反覆遊戲模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落小節數: 每幾個小節為一個段落
+重複次數: 每個段落要重複幾次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落小節數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClockRateModifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整遊戲速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度:以1.0為標準速度，2就是2倍速，不過目前速度只能介於0.4~1.6之間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandModifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整左右手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手:0為只用左手，1為只用右手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeteorDifficultyModifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整難度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音樂遊戲模式和反覆練彈模式一定要擇一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音樂遊戲模式和反覆練彈模式一定要擇一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難度:0為簡單，1為中等，2為困難</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設為困難，所以目前只有簡單模式需要使用modifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4332,11 +4600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M292"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L168" sqref="L168"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L178" sqref="L178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4345,14 +4613,14 @@
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="3" width="44.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="7" max="7" width="37.21875" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7.21875" customWidth="1"/>
     <col min="10" max="10" width="41.33203125" customWidth="1"/>
     <col min="11" max="11" width="58.21875" customWidth="1"/>
-    <col min="12" max="12" width="37.88671875" customWidth="1"/>
+    <col min="12" max="12" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -4360,19 +4628,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>805</v>
+        <v>749</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>840</v>
+        <v>781</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>802</v>
+        <v>746</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>804</v>
+        <v>748</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>195</v>
@@ -4395,21 +4663,22 @@
     </row>
     <row r="2" spans="1:13" s="21" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
-      <c r="C2" s="16" t="s">
-        <v>842</v>
-      </c>
+      <c r="C2" s="16"/>
       <c r="D2" s="22"/>
       <c r="E2" s="16" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>803</v>
+        <v>747</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
+      <c r="L2" s="16" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="9"/>
@@ -4425,7 +4694,7 @@
         <v>204</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>322</v>
+        <v>842</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4443,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>585</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
         <v>197</v>
@@ -4461,16 +4730,16 @@
         <v>206</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>323</v>
+        <v>854</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4479,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>584</v>
+        <v>829</v>
       </c>
       <c r="K5" t="s">
         <v>197</v>
@@ -4497,7 +4766,7 @@
         <v>208</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4515,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="K6" t="s">
         <v>192</v>
@@ -4530,7 +4799,7 @@
         <v>210</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4551,7 +4820,7 @@
         <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="L7" s="16"/>
     </row>
@@ -4564,7 +4833,7 @@
         <v>211</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4597,7 +4866,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4630,7 +4899,7 @@
         <v>213</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4663,7 +4932,7 @@
         <v>214</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4690,52 +4959,52 @@
     <row r="12" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" t="s">
-        <v>882</v>
+        <v>811</v>
       </c>
       <c r="C12" t="s">
-        <v>880</v>
+        <v>809</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>878</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" t="s">
-        <v>883</v>
+        <v>812</v>
       </c>
       <c r="C13" t="s">
-        <v>881</v>
+        <v>810</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>878</v>
+        <v>807</v>
       </c>
       <c r="L13" t="s">
-        <v>879</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" t="s">
-        <v>884</v>
+        <v>813</v>
       </c>
       <c r="C14" t="s">
-        <v>885</v>
+        <v>814</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>886</v>
+        <v>815</v>
       </c>
       <c r="L14" t="s">
-        <v>887</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -4744,10 +5013,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>812</v>
+        <v>754</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4780,7 +5049,7 @@
         <v>215</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4813,7 +5082,7 @@
         <v>216</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4846,7 +5115,7 @@
         <v>217</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4867,7 +5136,7 @@
         <v>39</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
@@ -4879,7 +5148,7 @@
         <v>218</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4900,7 +5169,7 @@
         <v>39</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
@@ -4912,7 +5181,7 @@
         <v>219</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4950,7 +5219,7 @@
         <v>220</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4980,7 +5249,7 @@
         <v>221</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5010,7 +5279,7 @@
         <v>223</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -5040,7 +5309,7 @@
         <v>222</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5070,7 +5339,7 @@
         <v>224</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -5100,7 +5369,7 @@
         <v>225</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5130,7 +5399,7 @@
         <v>226</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5160,7 +5429,7 @@
         <v>227</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -5195,7 +5464,10 @@
         <v>228</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5225,7 +5497,10 @@
         <v>229</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5255,13 +5530,16 @@
         <v>230</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>346</v>
+        <v>844</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -5285,7 +5563,10 @@
         <v>231</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>347</v>
+        <v>843</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5315,7 +5596,10 @@
         <v>232</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5345,7 +5629,10 @@
         <v>233</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5375,7 +5662,10 @@
         <v>234</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5405,7 +5695,10 @@
         <v>235</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5435,7 +5728,10 @@
         <v>237</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5465,7 +5761,10 @@
         <v>236</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5494,19 +5793,22 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>862</v>
+        <v>796</v>
       </c>
       <c r="C42" t="s">
-        <v>868</v>
+        <v>800</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>354</v>
+        <v>845</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -5518,55 +5820,61 @@
         <v>39</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="L42" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" t="s">
-        <v>863</v>
+        <v>797</v>
       </c>
       <c r="C43" t="s">
-        <v>864</v>
+        <v>798</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>354</v>
+        <v>846</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="L43" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" t="s">
-        <v>612</v>
+        <v>558</v>
       </c>
       <c r="C44" t="s">
-        <v>633</v>
+        <v>579</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -5590,13 +5898,16 @@
     <row r="45" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A45" s="29"/>
       <c r="B45" t="s">
-        <v>665</v>
+        <v>611</v>
       </c>
       <c r="C45" t="s">
-        <v>694</v>
+        <v>640</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>722</v>
+        <v>668</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5620,13 +5931,16 @@
     <row r="46" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
       <c r="B46" t="s">
-        <v>666</v>
+        <v>612</v>
       </c>
       <c r="C46" t="s">
-        <v>695</v>
+        <v>641</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>723</v>
+        <v>669</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5650,13 +5964,16 @@
     <row r="47" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" t="s">
-        <v>613</v>
+        <v>559</v>
       </c>
       <c r="C47" t="s">
-        <v>634</v>
+        <v>580</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5680,13 +5997,16 @@
     <row r="48" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" t="s">
-        <v>614</v>
+        <v>560</v>
       </c>
       <c r="C48" t="s">
-        <v>635</v>
+        <v>581</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5710,13 +6030,16 @@
     <row r="49" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
       <c r="B49" t="s">
-        <v>667</v>
+        <v>613</v>
       </c>
       <c r="C49" t="s">
-        <v>696</v>
+        <v>642</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>724</v>
+        <v>670</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -5740,13 +6063,16 @@
     <row r="50" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
       <c r="B50" t="s">
-        <v>668</v>
+        <v>614</v>
       </c>
       <c r="C50" t="s">
-        <v>697</v>
+        <v>643</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>725</v>
+        <v>671</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5770,13 +6096,16 @@
     <row r="51" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
       <c r="B51" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="C51" t="s">
-        <v>636</v>
+        <v>582</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5800,13 +6129,16 @@
     <row r="52" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
       <c r="B52" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
       <c r="C52" t="s">
-        <v>637</v>
+        <v>583</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -5830,13 +6162,16 @@
     <row r="53" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A53" s="29"/>
       <c r="B53" t="s">
-        <v>669</v>
+        <v>615</v>
       </c>
       <c r="C53" t="s">
-        <v>698</v>
+        <v>644</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>726</v>
+        <v>672</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -5860,13 +6195,16 @@
     <row r="54" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
       <c r="B54" t="s">
-        <v>670</v>
+        <v>616</v>
       </c>
       <c r="C54" t="s">
-        <v>699</v>
+        <v>645</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>727</v>
+        <v>673</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5890,13 +6228,16 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
       <c r="B55" t="s">
-        <v>617</v>
+        <v>563</v>
       </c>
       <c r="C55" t="s">
-        <v>638</v>
+        <v>584</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5920,13 +6261,16 @@
     <row r="56" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A56" s="29"/>
       <c r="B56" t="s">
-        <v>618</v>
+        <v>564</v>
       </c>
       <c r="C56" t="s">
-        <v>639</v>
+        <v>585</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5950,13 +6294,16 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
       <c r="B57" t="s">
-        <v>671</v>
+        <v>617</v>
       </c>
       <c r="C57" t="s">
-        <v>700</v>
+        <v>646</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>728</v>
+        <v>674</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -5980,13 +6327,16 @@
     <row r="58" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A58" s="29"/>
       <c r="B58" t="s">
-        <v>672</v>
+        <v>618</v>
       </c>
       <c r="C58" t="s">
-        <v>701</v>
+        <v>647</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>729</v>
+        <v>675</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -6010,13 +6360,16 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" t="s">
-        <v>619</v>
+        <v>565</v>
       </c>
       <c r="C59" t="s">
-        <v>640</v>
+        <v>586</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -6040,13 +6393,16 @@
     <row r="60" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>673</v>
+        <v>619</v>
       </c>
       <c r="C60" t="s">
-        <v>641</v>
+        <v>587</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>598</v>
+        <v>544</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -6070,13 +6426,16 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>674</v>
+        <v>620</v>
       </c>
       <c r="C61" t="s">
-        <v>702</v>
+        <v>648</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>730</v>
+        <v>676</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -6100,13 +6459,16 @@
     <row r="62" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>675</v>
+        <v>621</v>
       </c>
       <c r="C62" t="s">
-        <v>703</v>
+        <v>649</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>731</v>
+        <v>677</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -6130,13 +6492,16 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>620</v>
+        <v>566</v>
       </c>
       <c r="C63" t="s">
-        <v>642</v>
+        <v>588</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -6154,19 +6519,22 @@
         <v>39</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>611</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>621</v>
+        <v>567</v>
       </c>
       <c r="C64" t="s">
-        <v>643</v>
+        <v>589</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -6190,13 +6558,16 @@
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>676</v>
+        <v>622</v>
       </c>
       <c r="C65" t="s">
-        <v>704</v>
+        <v>650</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>732</v>
+        <v>678</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -6214,19 +6585,22 @@
         <v>39</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>611</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>677</v>
+        <v>623</v>
       </c>
       <c r="C66" t="s">
-        <v>705</v>
+        <v>651</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>733</v>
+        <v>679</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -6250,13 +6624,16 @@
     <row r="67" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>622</v>
+        <v>568</v>
       </c>
       <c r="C67" t="s">
-        <v>644</v>
+        <v>590</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6280,13 +6657,16 @@
     <row r="68" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>623</v>
+        <v>569</v>
       </c>
       <c r="C68" t="s">
-        <v>645</v>
+        <v>591</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>366</v>
+        <v>361</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -6310,13 +6690,16 @@
     <row r="69" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" t="s">
-        <v>678</v>
+        <v>624</v>
       </c>
       <c r="C69" t="s">
-        <v>706</v>
+        <v>652</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>734</v>
+        <v>680</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -6340,13 +6723,16 @@
     <row r="70" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>679</v>
+        <v>625</v>
       </c>
       <c r="C70" t="s">
-        <v>707</v>
+        <v>653</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>735</v>
+        <v>681</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6370,13 +6756,16 @@
     <row r="71" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
       <c r="B71" t="s">
-        <v>624</v>
+        <v>570</v>
       </c>
       <c r="C71" t="s">
-        <v>646</v>
+        <v>592</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>599</v>
+        <v>545</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6400,13 +6789,16 @@
     <row r="72" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" t="s">
-        <v>660</v>
+        <v>606</v>
       </c>
       <c r="C72" t="s">
-        <v>647</v>
+        <v>593</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -6430,13 +6822,16 @@
     <row r="73" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" t="s">
-        <v>680</v>
+        <v>626</v>
       </c>
       <c r="C73" t="s">
-        <v>708</v>
+        <v>654</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>736</v>
+        <v>682</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -6460,13 +6855,16 @@
     <row r="74" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" t="s">
-        <v>681</v>
+        <v>627</v>
       </c>
       <c r="C74" t="s">
-        <v>709</v>
+        <v>655</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>737</v>
+        <v>683</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6490,13 +6888,16 @@
     <row r="75" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" t="s">
-        <v>661</v>
+        <v>607</v>
       </c>
       <c r="C75" t="s">
-        <v>656</v>
+        <v>602</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>368</v>
+        <v>363</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6520,13 +6921,16 @@
     <row r="76" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" t="s">
-        <v>662</v>
+        <v>608</v>
       </c>
       <c r="C76" t="s">
-        <v>657</v>
+        <v>603</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>600</v>
+        <v>546</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -6550,13 +6954,16 @@
     <row r="77" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="B77" t="s">
-        <v>682</v>
+        <v>628</v>
       </c>
       <c r="C77" t="s">
-        <v>710</v>
+        <v>656</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>595</v>
+        <v>541</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6580,13 +6987,16 @@
     <row r="78" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
       <c r="B78" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
       <c r="C78" t="s">
-        <v>711</v>
+        <v>657</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>738</v>
+        <v>684</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6610,13 +7020,16 @@
     <row r="79" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" t="s">
-        <v>663</v>
+        <v>609</v>
       </c>
       <c r="C79" t="s">
-        <v>658</v>
+        <v>604</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>601</v>
+        <v>547</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6640,13 +7053,16 @@
     <row r="80" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
       <c r="B80" t="s">
-        <v>664</v>
+        <v>610</v>
       </c>
       <c r="C80" t="s">
-        <v>659</v>
+        <v>605</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>602</v>
+        <v>548</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -6670,13 +7086,16 @@
     <row r="81" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" t="s">
-        <v>684</v>
+        <v>630</v>
       </c>
       <c r="C81" t="s">
-        <v>712</v>
+        <v>658</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>739</v>
+        <v>685</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -6700,13 +7119,16 @@
     <row r="82" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
       <c r="B82" t="s">
-        <v>685</v>
+        <v>631</v>
       </c>
       <c r="C82" t="s">
-        <v>713</v>
+        <v>659</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>740</v>
+        <v>686</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6730,13 +7152,16 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
       <c r="B83" t="s">
-        <v>625</v>
+        <v>571</v>
       </c>
       <c r="C83" t="s">
-        <v>648</v>
+        <v>594</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>603</v>
+        <v>549</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6758,13 +7183,16 @@
     <row r="84" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A84" s="29"/>
       <c r="B84" t="s">
-        <v>626</v>
+        <v>572</v>
       </c>
       <c r="C84" t="s">
-        <v>649</v>
+        <v>595</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>604</v>
+        <v>550</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -6782,19 +7210,22 @@
         <v>39</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
       <c r="B85" t="s">
-        <v>686</v>
+        <v>632</v>
       </c>
       <c r="C85" t="s">
-        <v>714</v>
+        <v>660</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>741</v>
+        <v>687</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -6816,13 +7247,16 @@
     <row r="86" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
       <c r="B86" t="s">
-        <v>687</v>
+        <v>633</v>
       </c>
       <c r="C86" t="s">
-        <v>715</v>
+        <v>661</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>742</v>
+        <v>688</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6840,19 +7274,22 @@
         <v>39</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>627</v>
+        <v>573</v>
       </c>
       <c r="C87" t="s">
-        <v>650</v>
+        <v>596</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>605</v>
+        <v>551</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6876,13 +7313,16 @@
     <row r="88" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>628</v>
+        <v>574</v>
       </c>
       <c r="C88" t="s">
-        <v>651</v>
+        <v>597</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>606</v>
+        <v>552</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -6900,19 +7340,22 @@
         <v>39</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" t="s">
-        <v>688</v>
+        <v>634</v>
       </c>
       <c r="C89" t="s">
-        <v>716</v>
+        <v>662</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>743</v>
+        <v>689</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -6936,13 +7379,16 @@
     <row r="90" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" t="s">
-        <v>689</v>
+        <v>635</v>
       </c>
       <c r="C90" t="s">
-        <v>717</v>
+        <v>663</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>744</v>
+        <v>690</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6960,19 +7406,22 @@
         <v>39</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
       <c r="B91" t="s">
-        <v>629</v>
+        <v>575</v>
       </c>
       <c r="C91" t="s">
-        <v>652</v>
+        <v>598</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>607</v>
+        <v>553</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6994,13 +7443,16 @@
     <row r="92" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
       <c r="B92" t="s">
-        <v>630</v>
+        <v>576</v>
       </c>
       <c r="C92" t="s">
-        <v>653</v>
+        <v>599</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>608</v>
+        <v>554</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -7022,13 +7474,16 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
       <c r="B93" t="s">
-        <v>690</v>
+        <v>636</v>
       </c>
       <c r="C93" t="s">
-        <v>718</v>
+        <v>664</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>745</v>
+        <v>691</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -7050,13 +7505,16 @@
     <row r="94" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
       <c r="B94" t="s">
-        <v>691</v>
+        <v>637</v>
       </c>
       <c r="C94" t="s">
-        <v>719</v>
+        <v>665</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>746</v>
+        <v>692</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7078,13 +7536,16 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
       <c r="B95" t="s">
-        <v>631</v>
+        <v>577</v>
       </c>
       <c r="C95" t="s">
-        <v>655</v>
+        <v>601</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>609</v>
+        <v>555</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7106,13 +7567,16 @@
     <row r="96" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
       <c r="B96" t="s">
-        <v>632</v>
+        <v>578</v>
       </c>
       <c r="C96" t="s">
-        <v>654</v>
+        <v>600</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>610</v>
+        <v>556</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -7136,13 +7600,16 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="29"/>
       <c r="B97" t="s">
-        <v>692</v>
+        <v>638</v>
       </c>
       <c r="C97" t="s">
-        <v>720</v>
+        <v>666</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>747</v>
+        <v>693</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -7164,13 +7631,16 @@
     <row r="98" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A98" s="29"/>
       <c r="B98" t="s">
-        <v>693</v>
+        <v>639</v>
       </c>
       <c r="C98" t="s">
-        <v>721</v>
+        <v>667</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>748</v>
+        <v>694</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7194,13 +7664,16 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
       <c r="B99" t="s">
-        <v>749</v>
+        <v>695</v>
       </c>
       <c r="C99" t="s">
-        <v>759</v>
+        <v>705</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>783</v>
+        <v>729</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7220,13 +7693,16 @@
     <row r="100" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
       <c r="B100" t="s">
-        <v>750</v>
+        <v>696</v>
       </c>
       <c r="C100" t="s">
-        <v>760</v>
+        <v>706</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>784</v>
+        <v>730</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -7242,19 +7718,22 @@
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="1" t="s">
-        <v>781</v>
+        <v>727</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="29"/>
       <c r="B101" t="s">
-        <v>751</v>
+        <v>697</v>
       </c>
       <c r="C101" t="s">
-        <v>761</v>
+        <v>707</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>785</v>
+        <v>731</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -7274,13 +7753,16 @@
     <row r="102" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A102" s="29"/>
       <c r="B102" t="s">
-        <v>752</v>
+        <v>698</v>
       </c>
       <c r="C102" t="s">
-        <v>762</v>
+        <v>708</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>786</v>
+        <v>732</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7296,19 +7778,22 @@
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="1" t="s">
-        <v>865</v>
+        <v>799</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A103" s="29"/>
       <c r="B103" t="s">
-        <v>753</v>
+        <v>699</v>
       </c>
       <c r="C103" t="s">
-        <v>763</v>
+        <v>709</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>787</v>
+        <v>733</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7324,19 +7809,22 @@
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="1" t="s">
-        <v>782</v>
+        <v>728</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="29"/>
       <c r="B104" t="s">
-        <v>754</v>
+        <v>700</v>
       </c>
       <c r="C104" t="s">
-        <v>764</v>
+        <v>710</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>788</v>
+        <v>734</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -7356,13 +7844,16 @@
     <row r="105" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A105" s="29"/>
       <c r="B105" t="s">
-        <v>755</v>
+        <v>701</v>
       </c>
       <c r="C105" t="s">
-        <v>768</v>
+        <v>714</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>789</v>
+        <v>735</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -7378,19 +7869,22 @@
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="1" t="s">
-        <v>782</v>
+        <v>728</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="29"/>
       <c r="B106" t="s">
-        <v>756</v>
+        <v>702</v>
       </c>
       <c r="C106" t="s">
-        <v>769</v>
+        <v>715</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>790</v>
+        <v>736</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7410,13 +7904,16 @@
     <row r="107" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A107" s="29"/>
       <c r="B107" t="s">
-        <v>765</v>
+        <v>711</v>
       </c>
       <c r="C107" t="s">
-        <v>771</v>
+        <v>717</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>791</v>
+        <v>737</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -7432,19 +7929,22 @@
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="1" t="s">
-        <v>782</v>
+        <v>728</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="29"/>
       <c r="B108" t="s">
-        <v>775</v>
+        <v>721</v>
       </c>
       <c r="C108" t="s">
-        <v>776</v>
+        <v>722</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>792</v>
+        <v>738</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -7464,13 +7964,16 @@
     <row r="109" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A109" s="29"/>
       <c r="B109" t="s">
-        <v>766</v>
+        <v>712</v>
       </c>
       <c r="C109" t="s">
-        <v>770</v>
+        <v>716</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>793</v>
+        <v>739</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -7486,19 +7989,22 @@
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="1" t="s">
-        <v>782</v>
+        <v>728</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="29"/>
       <c r="B110" t="s">
-        <v>777</v>
+        <v>723</v>
       </c>
       <c r="C110" t="s">
-        <v>778</v>
+        <v>724</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>794</v>
+        <v>740</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -7518,13 +8024,16 @@
     <row r="111" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A111" s="29"/>
       <c r="B111" t="s">
-        <v>757</v>
+        <v>703</v>
       </c>
       <c r="C111" t="s">
-        <v>772</v>
+        <v>718</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>795</v>
+        <v>741</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -7540,19 +8049,22 @@
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="1" t="s">
-        <v>782</v>
+        <v>728</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A112" s="29"/>
       <c r="B112" t="s">
-        <v>758</v>
+        <v>704</v>
       </c>
       <c r="C112" t="s">
-        <v>773</v>
+        <v>719</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>796</v>
+        <v>742</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -7571,19 +8083,22 @@
         <v>58</v>
       </c>
       <c r="L112" t="s">
-        <v>799</v>
+        <v>745</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A113" s="29"/>
       <c r="B113" t="s">
-        <v>767</v>
+        <v>713</v>
       </c>
       <c r="C113" t="s">
-        <v>774</v>
+        <v>720</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>797</v>
+        <v>743</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -7599,19 +8114,22 @@
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="1" t="s">
-        <v>782</v>
+        <v>728</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="29"/>
       <c r="B114" t="s">
-        <v>779</v>
+        <v>725</v>
       </c>
       <c r="C114" t="s">
-        <v>780</v>
+        <v>726</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>798</v>
+        <v>744</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -7652,7 +8170,10 @@
         <v>309</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -7670,7 +8191,7 @@
         <v>39</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -7679,10 +8200,13 @@
         <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -7712,7 +8236,10 @@
         <v>310</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -7727,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>809</v>
+        <v>751</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>41</v>
@@ -7739,10 +8266,13 @@
         <v>249</v>
       </c>
       <c r="C121" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -7757,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>810</v>
+        <v>752</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>197</v>
@@ -7775,7 +8305,10 @@
         <v>243</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -7790,10 +8323,10 @@
         <v>2</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>843</v>
+        <v>782</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>113</v>
@@ -7808,7 +8341,10 @@
         <v>244</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -7823,22 +8359,25 @@
         <v>3</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
       <c r="B124" t="s">
         <v>252</v>
       </c>
       <c r="C124" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -7853,7 +8392,7 @@
         <v>3</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>197</v>
@@ -7871,7 +8410,10 @@
         <v>238</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -7886,10 +8428,10 @@
         <v>4</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -7898,10 +8440,13 @@
         <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -7919,19 +8464,22 @@
         <v>39</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A127" s="28"/>
       <c r="B127" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="C127" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -7949,19 +8497,22 @@
         <v>39</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A128" s="28"/>
       <c r="B128" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="C128" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>379</v>
+        <v>374</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -7979,7 +8530,7 @@
         <v>42</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -7991,7 +8542,10 @@
         <v>311</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>380</v>
+        <v>375</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -8006,22 +8560,25 @@
         <v>9</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A130" s="28"/>
       <c r="B130" t="s">
         <v>254</v>
       </c>
       <c r="C130" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -8036,7 +8593,7 @@
         <v>9</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>197</v>
@@ -8054,7 +8611,10 @@
         <v>239</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>382</v>
+        <v>377</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -8069,10 +8629,10 @@
         <v>10</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -8081,10 +8641,13 @@
         <v>49</v>
       </c>
       <c r="C132" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>383</v>
+        <v>378</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -8102,7 +8665,7 @@
         <v>39</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -8114,7 +8677,10 @@
         <v>240</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -8132,7 +8698,7 @@
         <v>39</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -8141,10 +8707,13 @@
         <v>51</v>
       </c>
       <c r="C134" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -8162,7 +8731,7 @@
         <v>39</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -8174,7 +8743,10 @@
         <v>241</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -8192,7 +8764,7 @@
         <v>39</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -8204,7 +8776,10 @@
         <v>242</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -8222,7 +8797,7 @@
         <v>39</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="81" x14ac:dyDescent="0.3">
@@ -8234,7 +8809,10 @@
         <v>247</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>388</v>
+        <v>383</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -8252,7 +8830,7 @@
         <v>39</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
@@ -8264,7 +8842,10 @@
         <v>245</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -8282,7 +8863,7 @@
         <v>39</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>843</v>
+        <v>782</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>113</v>
@@ -8297,7 +8878,10 @@
         <v>246</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>390</v>
+        <v>385</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -8312,22 +8896,25 @@
         <v>15</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A140" s="28"/>
       <c r="B140" t="s">
         <v>257</v>
       </c>
       <c r="C140" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>391</v>
+        <v>386</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -8342,7 +8929,7 @@
         <v>15</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>40</v>
@@ -8365,7 +8952,10 @@
         <v>258</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>392</v>
+        <v>387</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -8380,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>56</v>
@@ -8392,10 +8982,13 @@
         <v>57</v>
       </c>
       <c r="C143" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -8425,7 +9018,10 @@
         <v>259</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>394</v>
+        <v>389</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -8455,7 +9051,10 @@
         <v>312</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>395</v>
+        <v>390</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -8470,22 +9069,25 @@
         <v>2</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A146" s="29"/>
       <c r="B146" t="s">
         <v>261</v>
       </c>
       <c r="C146" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -8500,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>40</v>
@@ -8515,10 +9117,13 @@
         <v>59</v>
       </c>
       <c r="C147" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>397</v>
+        <v>392</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -8533,7 +9138,7 @@
         <v>3</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>60</v>
@@ -8545,10 +9150,13 @@
         <v>61</v>
       </c>
       <c r="C148" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -8575,10 +9183,13 @@
         <v>62</v>
       </c>
       <c r="C149" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>402</v>
+        <v>397</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -8605,10 +9216,13 @@
         <v>63</v>
       </c>
       <c r="C150" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -8635,10 +9249,13 @@
         <v>67</v>
       </c>
       <c r="C151" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>404</v>
+        <v>399</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -8665,10 +9282,13 @@
         <v>68</v>
       </c>
       <c r="C152" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>405</v>
+        <v>400</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -8698,7 +9318,10 @@
         <v>313</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>406</v>
+        <v>401</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -8728,7 +9351,10 @@
         <v>314</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>407</v>
+        <v>402</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -8755,10 +9381,13 @@
         <v>315</v>
       </c>
       <c r="C155" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -8793,7 +9422,10 @@
         <v>262</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>409</v>
+        <v>404</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -8823,7 +9455,10 @@
         <v>265</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -8853,7 +9488,10 @@
         <v>263</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>411</v>
+        <v>406</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -8871,7 +9509,7 @@
         <v>42</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>564</v>
+        <v>521</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -8880,10 +9518,13 @@
         <v>76</v>
       </c>
       <c r="C160" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -8901,7 +9542,7 @@
         <v>42</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>565</v>
+        <v>522</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -8913,7 +9554,10 @@
         <v>264</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>413</v>
+        <v>408</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -8943,7 +9587,10 @@
         <v>266</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -8978,7 +9625,10 @@
         <v>267</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>416</v>
+        <v>857</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -9008,13 +9658,16 @@
         <v>268</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>417</v>
+        <v>858</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
       </c>
       <c r="F165">
         <v>1</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H165">
         <v>7</v>
@@ -9026,10 +9679,10 @@
         <v>39</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>90</v>
+        <v>855</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>888</v>
+        <v>856</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -9041,7 +9694,10 @@
         <v>269</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -9071,7 +9727,10 @@
         <v>270</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>419</v>
+        <v>412</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -9089,10 +9748,10 @@
         <v>39</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A168" s="29"/>
       <c r="B168" t="s">
         <v>91</v>
@@ -9101,7 +9760,10 @@
         <v>271</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>420</v>
+        <v>859</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -9119,25 +9781,31 @@
         <v>39</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+      <c r="L168" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A169" s="29"/>
       <c r="B169" t="s">
         <v>92</v>
       </c>
       <c r="C169" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>421</v>
+        <v>860</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169">
         <v>7</v>
@@ -9149,7 +9817,10 @@
         <v>39</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>58</v>
+        <v>851</v>
+      </c>
+      <c r="L169" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -9161,7 +9832,10 @@
         <v>272</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>422</v>
+        <v>413</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -9191,7 +9865,10 @@
         <v>273</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>423</v>
+        <v>414</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -9209,7 +9886,7 @@
         <v>39</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -9221,7 +9898,10 @@
         <v>274</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>424</v>
+        <v>415</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -9248,10 +9928,13 @@
         <v>95</v>
       </c>
       <c r="C173" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>425</v>
+        <v>416</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -9302,7 +9985,10 @@
         <v>275</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>426</v>
+        <v>417</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -9320,10 +10006,10 @@
         <v>39</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A177" s="28"/>
       <c r="B177" t="s">
         <v>104</v>
@@ -9332,7 +10018,10 @@
         <v>276</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>427</v>
+        <v>418</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -9350,13 +10039,13 @@
         <v>39</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>579</v>
+        <v>827</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="B178" t="s">
         <v>105</v>
@@ -9365,7 +10054,10 @@
         <v>277</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>428</v>
+        <v>863</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -9383,28 +10075,31 @@
         <v>39</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>577</v>
+        <v>827</v>
       </c>
       <c r="L178" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A179" s="28"/>
       <c r="B179" t="s">
         <v>106</v>
       </c>
       <c r="C179" t="s">
-        <v>434</v>
+        <v>834</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>429</v>
+        <v>884</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
       </c>
       <c r="F179">
         <v>1</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179">
         <v>8</v>
@@ -9416,22 +10111,25 @@
         <v>39</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>580</v>
+        <v>851</v>
       </c>
       <c r="L179" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A180" s="28"/>
       <c r="B180" t="s">
-        <v>107</v>
+        <v>836</v>
       </c>
       <c r="C180" t="s">
-        <v>316</v>
+        <v>832</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>430</v>
+        <v>866</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -9445,32 +10143,30 @@
       <c r="I180">
         <v>2</v>
       </c>
-      <c r="J180" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J180" s="4"/>
       <c r="K180" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="L180" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A181" s="28"/>
       <c r="B181" t="s">
-        <v>108</v>
+        <v>837</v>
       </c>
       <c r="C181" t="s">
-        <v>581</v>
+        <v>835</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>431</v>
+        <v>890</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
       </c>
       <c r="F181">
         <v>1</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181">
         <v>8</v>
@@ -9478,26 +10174,30 @@
       <c r="I181">
         <v>2</v>
       </c>
-      <c r="J181" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J181" s="4"/>
       <c r="K181" s="1" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="L181" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A182" s="28"/>
       <c r="B182" t="s">
-        <v>846</v>
+        <v>107</v>
       </c>
       <c r="C182" t="s">
-        <v>850</v>
+        <v>316</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -9512,22 +10212,31 @@
         <v>39</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+      <c r="L182" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A183" s="28"/>
       <c r="B183" t="s">
-        <v>847</v>
+        <v>108</v>
       </c>
       <c r="C183" t="s">
-        <v>851</v>
+        <v>533</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H183">
         <v>8</v>
@@ -9539,25 +10248,28 @@
         <v>39</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="L183" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A184" s="28"/>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>784</v>
       </c>
       <c r="C184" t="s">
-        <v>317</v>
+        <v>786</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>432</v>
+        <v>871</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -9566,61 +10278,67 @@
         <v>8</v>
       </c>
       <c r="I184">
-        <v>3</v>
-      </c>
-      <c r="J184" s="17" t="s">
-        <v>808</v>
+        <v>4</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A185" s="28"/>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>785</v>
       </c>
       <c r="C185" t="s">
-        <v>501</v>
+        <v>787</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>433</v>
+        <v>886</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185">
         <v>8</v>
       </c>
       <c r="I185">
-        <v>3</v>
-      </c>
-      <c r="J185" s="5" t="s">
-        <v>810</v>
+        <v>4</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>872</v>
+      </c>
+      <c r="L185" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A186" s="28"/>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C186" t="s">
-        <v>853</v>
+        <v>317</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>435</v>
+        <v>874</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -9629,31 +10347,37 @@
         <v>8</v>
       </c>
       <c r="I186">
-        <v>4</v>
-      </c>
-      <c r="J186" s="4" t="s">
-        <v>807</v>
+        <v>5</v>
+      </c>
+      <c r="J186" s="17" t="s">
+        <v>831</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="L186" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A187" s="28"/>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C187" t="s">
-        <v>283</v>
+        <v>462</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>436</v>
+        <v>887</v>
+      </c>
+      <c r="E187">
+        <v>4</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H187">
         <v>8</v>
@@ -9661,23 +10385,27 @@
       <c r="I187">
         <v>5</v>
       </c>
-      <c r="J187" s="17" t="s">
-        <v>808</v>
+      <c r="J187" s="5" t="s">
+        <v>833</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A188" s="28"/>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C188" t="s">
-        <v>502</v>
+        <v>789</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>437</v>
+        <v>876</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -9689,28 +10417,31 @@
         <v>8</v>
       </c>
       <c r="I188">
-        <v>5</v>
-      </c>
-      <c r="J188" s="5" t="s">
-        <v>810</v>
+        <v>6</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>830</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L188" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+      <c r="L188" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A189" s="28"/>
       <c r="B189" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="C189" t="s">
-        <v>852</v>
+        <v>283</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>438</v>
+        <v>419</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -9722,25 +10453,28 @@
         <v>8</v>
       </c>
       <c r="I189">
-        <v>6</v>
-      </c>
-      <c r="J189" s="4" t="s">
-        <v>807</v>
+        <v>7</v>
+      </c>
+      <c r="J189" s="17" t="s">
+        <v>831</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A190" s="28"/>
       <c r="B190" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="C190" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>439</v>
+        <v>420</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -9752,25 +10486,31 @@
         <v>8</v>
       </c>
       <c r="I190">
-        <v>6</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>833</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A191" s="28"/>
       <c r="B191" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C191" t="s">
-        <v>284</v>
+        <v>788</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>440</v>
+        <v>879</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -9782,58 +10522,67 @@
         <v>8</v>
       </c>
       <c r="I191">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>39</v>
+        <v>830</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>532</v>
+        <v>880</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A192" s="28"/>
       <c r="B192" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C192" t="s">
-        <v>582</v>
+        <v>464</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>441</v>
+        <v>888</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
       </c>
       <c r="F192">
         <v>1</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192">
         <v>8</v>
       </c>
       <c r="I192">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J192" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+      <c r="L192" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A193" s="28"/>
       <c r="B193" t="s">
-        <v>115</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>285</v>
+        <v>112</v>
+      </c>
+      <c r="C193" t="s">
+        <v>284</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>442</v>
+        <v>882</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -9842,94 +10591,152 @@
         <v>8</v>
       </c>
       <c r="I193">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J193" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K193" t="s">
-        <v>35</v>
+      <c r="K193" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A194" s="28"/>
       <c r="B194" t="s">
-        <v>116</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>504</v>
+        <v>114</v>
+      </c>
+      <c r="C194" t="s">
+        <v>534</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>443</v>
+        <v>889</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194">
         <v>8</v>
       </c>
       <c r="I194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>84</v>
+        <v>794</v>
+      </c>
+      <c r="L194" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="28"/>
-      <c r="B195" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="8"/>
-      <c r="J195" s="8"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="8"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>115</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>8</v>
+      </c>
+      <c r="I195">
+        <v>10</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K195" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A196" s="28"/>
+      <c r="B196" t="s">
+        <v>116</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>8</v>
+      </c>
+      <c r="I196">
+        <v>10</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="28"/>
-      <c r="B197" t="s">
-        <v>869</v>
-      </c>
-      <c r="C197" t="s">
-        <v>870</v>
-      </c>
-      <c r="J197" s="4"/>
-      <c r="K197" s="1"/>
-      <c r="L197" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B197" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C197" s="8"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="8"/>
+      <c r="J197" s="8"/>
+      <c r="K197" s="8"/>
+      <c r="L197" s="8"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="28"/>
       <c r="B198" t="s">
-        <v>148</v>
+        <v>838</v>
       </c>
       <c r="C198" t="s">
-        <v>286</v>
+        <v>839</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>444</v>
+        <v>891</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
       </c>
       <c r="F198">
         <v>1</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>8</v>
@@ -9941,52 +10748,61 @@
         <v>39</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+      <c r="L198" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A199" s="28"/>
       <c r="B199" t="s">
-        <v>149</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>505</v>
+        <v>148</v>
+      </c>
+      <c r="C199" t="s">
+        <v>286</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>445</v>
+        <v>894</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
         <v>8</v>
       </c>
       <c r="I199">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J199" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A200" s="28"/>
       <c r="B200" t="s">
-        <v>120</v>
-      </c>
-      <c r="C200" t="s">
-        <v>287</v>
+        <v>149</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>466</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>446</v>
+        <v>423</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -10001,28 +10817,28 @@
         <v>39</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L200" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A201" s="28"/>
       <c r="B201" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C201" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>447</v>
+        <v>424</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
       </c>
       <c r="F201">
         <v>1</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
         <v>8</v>
@@ -10040,52 +10856,61 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A202" s="28"/>
       <c r="B202" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C202" t="s">
-        <v>506</v>
+        <v>288</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>448</v>
+        <v>425</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>8</v>
       </c>
       <c r="I202">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J202" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="L202" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A203" s="28"/>
       <c r="B203" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C203" t="s">
-        <v>289</v>
+        <v>467</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>449</v>
+        <v>426</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>8</v>
@@ -10097,58 +10922,64 @@
         <v>39</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L203" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A204" s="28"/>
       <c r="B204" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C204" t="s">
-        <v>507</v>
+        <v>289</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>450</v>
+        <v>427</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>8</v>
       </c>
       <c r="I204">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J204" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="L204" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A205" s="28"/>
       <c r="B205" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C205" t="s">
-        <v>290</v>
+        <v>468</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>451</v>
+        <v>428</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>8</v>
@@ -10160,58 +10991,64 @@
         <v>39</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L205" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A206" s="28"/>
       <c r="B206" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C206" t="s">
-        <v>508</v>
+        <v>290</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>452</v>
+        <v>429</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>8</v>
       </c>
       <c r="I206">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J206" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="L206" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A207" s="28"/>
       <c r="B207" t="s">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="C207" t="s">
-        <v>305</v>
+        <v>469</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>453</v>
+        <v>430</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
         <v>8</v>
@@ -10219,55 +11056,63 @@
       <c r="I207">
         <v>21</v>
       </c>
-      <c r="J207" s="4"/>
+      <c r="J207" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K207" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A208" s="28"/>
       <c r="B208" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C208" t="s">
-        <v>509</v>
+        <v>305</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>454</v>
+        <v>431</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>8</v>
       </c>
       <c r="I208">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J208" s="4"/>
       <c r="K208" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A209" s="28"/>
       <c r="B209" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="C209" t="s">
-        <v>291</v>
+        <v>470</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>455</v>
+        <v>432</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
       </c>
       <c r="F209">
         <v>1</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
         <v>8</v>
@@ -10275,59 +11120,63 @@
       <c r="I209">
         <v>22</v>
       </c>
-      <c r="J209" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K209" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="J209" s="4"/>
+      <c r="K209" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="28"/>
       <c r="B210" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C210" t="s">
-        <v>510</v>
+        <v>291</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>456</v>
+        <v>433</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>8</v>
       </c>
       <c r="I210">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J210" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K210" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K210" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A211" s="28"/>
       <c r="B211" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C211" t="s">
-        <v>292</v>
+        <v>471</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>457</v>
+        <v>434</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>8</v>
@@ -10338,56 +11187,62 @@
       <c r="J211" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K211" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K211" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="28"/>
       <c r="B212" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C212" t="s">
-        <v>511</v>
+        <v>292</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>458</v>
+        <v>901</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>8</v>
       </c>
       <c r="I212">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J212" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K212" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K212" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A213" s="28"/>
       <c r="B213" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C213" t="s">
-        <v>293</v>
+        <v>472</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>459</v>
+        <v>902</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
       </c>
       <c r="F213">
         <v>1</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H213">
         <v>8</v>
@@ -10398,56 +11253,65 @@
       <c r="J213" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K213" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K213" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="L213" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="28"/>
       <c r="B214" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C214" t="s">
-        <v>512</v>
+        <v>293</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>460</v>
+        <v>435</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>8</v>
       </c>
       <c r="I214">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K214" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K214" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A215" s="28"/>
       <c r="B215" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C215" t="s">
-        <v>294</v>
+        <v>473</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>461</v>
+        <v>436</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
         <v>8</v>
@@ -10458,56 +11322,62 @@
       <c r="J215" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K215" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K215" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="28"/>
       <c r="B216" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C216" t="s">
-        <v>513</v>
+        <v>294</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>462</v>
+        <v>903</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>8</v>
       </c>
       <c r="I216">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J216" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K216" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K216" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A217" s="28"/>
       <c r="B217" t="s">
-        <v>559</v>
+        <v>136</v>
       </c>
       <c r="C217" t="s">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>463</v>
+        <v>904</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
       </c>
       <c r="F217">
         <v>1</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217">
         <v>8</v>
@@ -10519,19 +11389,25 @@
         <v>39</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+      <c r="L217" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="C218" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>464</v>
+        <v>437</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -10549,19 +11425,22 @@
         <v>39</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A219" s="28"/>
       <c r="B219" t="s">
-        <v>137</v>
+        <v>517</v>
       </c>
       <c r="C219" t="s">
-        <v>295</v>
+        <v>515</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>465</v>
+        <v>438</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -10579,22 +11458,22 @@
         <v>39</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A220" s="28"/>
       <c r="B220" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C220" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>466</v>
+        <v>439</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -10612,22 +11491,25 @@
         <v>39</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L220" t="s">
-        <v>140</v>
+        <v>495</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A221" s="28"/>
       <c r="B221" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C221" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>467</v>
+        <v>440</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -10645,28 +11527,31 @@
         <v>39</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L221" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A222" s="28"/>
       <c r="B222" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="C222" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>468</v>
+        <v>441</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
       </c>
       <c r="F222">
         <v>1</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
         <v>8</v>
@@ -10674,55 +11559,66 @@
       <c r="I222">
         <v>31</v>
       </c>
-      <c r="J222" s="4"/>
-      <c r="K222" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="J222" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L222" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="28"/>
       <c r="B223" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C223" t="s">
-        <v>514</v>
+        <v>306</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>469</v>
+        <v>442</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
         <v>8</v>
       </c>
       <c r="I223">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J223" s="4"/>
-      <c r="K223" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K223" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A224" s="28"/>
       <c r="B224" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C224" t="s">
-        <v>587</v>
+        <v>475</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>470</v>
+        <v>443</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
         <v>8</v>
@@ -10731,54 +11627,60 @@
         <v>32</v>
       </c>
       <c r="J224" s="4"/>
-      <c r="K224" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K224" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="28"/>
       <c r="B225" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C225" t="s">
-        <v>588</v>
+        <v>535</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>471</v>
+        <v>895</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>8</v>
       </c>
       <c r="I225">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J225" s="4"/>
-      <c r="K225" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K225" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" t="s">
-        <v>589</v>
+        <v>302</v>
       </c>
       <c r="C226" t="s">
-        <v>591</v>
+        <v>536</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>593</v>
+        <v>896</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H226">
         <v>8</v>
@@ -10787,100 +11689,113 @@
         <v>33</v>
       </c>
       <c r="J226" s="4"/>
-      <c r="K226" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="K226" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="L226" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="28"/>
       <c r="B227" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="C227" t="s">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>594</v>
+        <v>897</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
         <v>8</v>
       </c>
       <c r="I227">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J227" s="4"/>
-      <c r="K227" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K227" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A228" s="28"/>
-      <c r="B228" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C228" s="8"/>
-      <c r="D228" s="11"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
-      <c r="J228" s="8"/>
-      <c r="K228" s="8"/>
-      <c r="L228" s="8"/>
+      <c r="B228" t="s">
+        <v>538</v>
+      </c>
+      <c r="C228" t="s">
+        <v>540</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>2</v>
+      </c>
+      <c r="H228">
+        <v>8</v>
+      </c>
+      <c r="I228">
+        <v>34</v>
+      </c>
+      <c r="J228" s="4"/>
+      <c r="K228" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="L228" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="28"/>
-      <c r="B229" t="s">
-        <v>144</v>
-      </c>
-      <c r="C229" t="s">
-        <v>298</v>
-      </c>
-      <c r="D229" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="F229">
-        <v>1</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <v>8</v>
-      </c>
-      <c r="I229">
-        <v>48</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K229" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="B229" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C229" s="8"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="8"/>
+      <c r="H229" s="8"/>
+      <c r="I229" s="8"/>
+      <c r="J229" s="8"/>
+      <c r="K229" s="8"/>
+      <c r="L229" s="8"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="28"/>
       <c r="B230" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C230" t="s">
-        <v>515</v>
+        <v>298</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>473</v>
+        <v>905</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>8</v>
@@ -10891,59 +11806,65 @@
       <c r="J230" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K230" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="K230" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A231" s="28"/>
       <c r="B231" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C231" t="s">
-        <v>307</v>
+        <v>476</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>474</v>
+        <v>906</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H231">
         <v>8</v>
       </c>
       <c r="I231">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J231" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+      <c r="L231" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="162" x14ac:dyDescent="0.3">
       <c r="A232" s="28"/>
       <c r="B232" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C232" t="s">
-        <v>516</v>
+        <v>307</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>475</v>
+        <v>910</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>8</v>
@@ -10955,55 +11876,64 @@
         <v>39</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="178.2" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A233" s="28"/>
       <c r="B233" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C233" t="s">
-        <v>308</v>
+        <v>477</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>476</v>
+        <v>911</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H233">
         <v>8</v>
       </c>
       <c r="I233">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J233" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A234" s="28"/>
       <c r="B234" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C234" t="s">
-        <v>517</v>
+        <v>308</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>477</v>
+        <v>915</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>8</v>
@@ -11015,47 +11945,67 @@
         <v>39</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>538</v>
+        <v>912</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A235" s="28"/>
       <c r="B235" t="s">
-        <v>856</v>
+        <v>152</v>
       </c>
       <c r="C235" t="s">
-        <v>855</v>
+        <v>478</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H235">
         <v>8</v>
       </c>
       <c r="I235">
-        <v>51</v>
-      </c>
-      <c r="J235" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K235" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+      <c r="L235" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A236" s="28"/>
       <c r="B236" t="s">
-        <v>857</v>
+        <v>791</v>
       </c>
       <c r="C236" t="s">
-        <v>858</v>
+        <v>917</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
         <v>8</v>
@@ -11065,28 +12015,28 @@
       </c>
       <c r="J236" s="4"/>
       <c r="K236" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="L236" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A237" s="28"/>
       <c r="B237" t="s">
-        <v>539</v>
+        <v>792</v>
       </c>
       <c r="C237" t="s">
-        <v>318</v>
+        <v>918</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>478</v>
+        <v>920</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H237">
         <v>8</v>
@@ -11094,62 +12044,69 @@
       <c r="I237">
         <v>51</v>
       </c>
-      <c r="J237" s="17" t="s">
-        <v>808</v>
-      </c>
+      <c r="J237" s="4"/>
       <c r="K237" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+      <c r="L237" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A238" s="28"/>
       <c r="B238" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="C238" t="s">
-        <v>518</v>
+        <v>318</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>479</v>
+        <v>921</v>
+      </c>
+      <c r="E238">
+        <v>3</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
         <v>8</v>
       </c>
       <c r="I238">
-        <v>51</v>
-      </c>
-      <c r="J238" s="5" t="s">
-        <v>810</v>
+        <v>52</v>
+      </c>
+      <c r="J238" s="17" t="s">
+        <v>831</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L238" s="1" t="s">
-        <v>113</v>
+        <v>193</v>
+      </c>
+      <c r="L238" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A239" s="28"/>
       <c r="B239" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="C239" t="s">
-        <v>319</v>
+        <v>479</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>480</v>
+        <v>922</v>
+      </c>
+      <c r="E239">
+        <v>4</v>
       </c>
       <c r="F239">
         <v>1</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
         <v>8</v>
@@ -11157,29 +12114,33 @@
       <c r="I239">
         <v>52</v>
       </c>
-      <c r="J239" s="4" t="s">
-        <v>586</v>
+      <c r="J239" s="5" t="s">
+        <v>833</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L239" s="1"/>
+    </row>
+    <row r="240" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A240" s="28"/>
       <c r="B240" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="C240" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>481</v>
+        <v>923</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
         <v>8</v>
@@ -11187,62 +12148,68 @@
       <c r="I240">
         <v>53</v>
       </c>
-      <c r="J240" s="17" t="s">
-        <v>808</v>
+      <c r="J240" s="4" t="s">
+        <v>830</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+      <c r="L240" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A241" s="28"/>
       <c r="B241" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="C241" t="s">
-        <v>519</v>
+        <v>320</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>482</v>
+        <v>444</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>8</v>
       </c>
       <c r="I241">
-        <v>53</v>
-      </c>
-      <c r="J241" s="5" t="s">
-        <v>810</v>
+        <v>54</v>
+      </c>
+      <c r="J241" s="17" t="s">
+        <v>831</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L241" s="1" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
     </row>
     <row r="242" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A242" s="28"/>
       <c r="B242" t="s">
-        <v>157</v>
+        <v>501</v>
       </c>
       <c r="C242" t="s">
-        <v>321</v>
+        <v>480</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>483</v>
+        <v>445</v>
+      </c>
+      <c r="E242">
+        <v>4</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
         <v>8</v>
@@ -11250,290 +12217,300 @@
       <c r="I242">
         <v>54</v>
       </c>
-      <c r="J242" s="4" t="s">
-        <v>807</v>
+      <c r="J242" s="5" t="s">
+        <v>833</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="L242" s="1"/>
+    </row>
+    <row r="243" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A243" s="28"/>
       <c r="B243" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C243" t="s">
-        <v>520</v>
+        <v>321</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>484</v>
+        <v>924</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
         <v>8</v>
       </c>
       <c r="I243">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>39</v>
+        <v>830</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D244" s="9"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A245" s="25" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="28"/>
+      <c r="B244" t="s">
+        <v>158</v>
+      </c>
+      <c r="C244" t="s">
+        <v>481</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>8</v>
+      </c>
+      <c r="I244">
+        <v>55</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="L244" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D245" s="9"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A246" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B246" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C245" s="7"/>
-      <c r="D245" s="12"/>
-      <c r="E245" s="7"/>
-      <c r="F245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7"/>
-      <c r="I245" s="7"/>
-      <c r="J245" s="7"/>
-      <c r="K245" s="7"/>
-      <c r="L245" s="7"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A246" s="25"/>
-      <c r="B246" t="s">
-        <v>151</v>
-      </c>
+      <c r="C246" s="7"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
+      <c r="H246" s="7"/>
+      <c r="I246" s="7"/>
+      <c r="J246" s="7"/>
+      <c r="K246" s="7"/>
+      <c r="L246" s="7"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="25"/>
       <c r="B248" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="25"/>
       <c r="B249" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="25"/>
       <c r="B250" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
       <c r="B253" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
       <c r="B254" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="25"/>
       <c r="B255" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="25"/>
       <c r="B256" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="25"/>
       <c r="B257" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="25"/>
       <c r="B258" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="25"/>
-      <c r="B259" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C259" s="7"/>
-      <c r="D259" s="12"/>
-      <c r="E259" s="7"/>
-      <c r="F259" s="7"/>
-      <c r="G259" s="7"/>
-      <c r="H259" s="7"/>
-      <c r="I259" s="7"/>
-      <c r="J259" s="7"/>
-      <c r="K259" s="7"/>
-      <c r="L259" s="7"/>
+      <c r="B259" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="25"/>
-      <c r="B260" t="s">
-        <v>169</v>
-      </c>
+      <c r="B260" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C260" s="7"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" s="7"/>
+      <c r="H260" s="7"/>
+      <c r="I260" s="7"/>
+      <c r="J260" s="7"/>
+      <c r="K260" s="7"/>
+      <c r="L260" s="7"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="25"/>
       <c r="B261" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="25"/>
-      <c r="B262" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C262" s="7"/>
-      <c r="D262" s="12"/>
-      <c r="E262" s="7"/>
-      <c r="F262" s="7"/>
-      <c r="G262" s="7"/>
-      <c r="H262" s="7"/>
-      <c r="I262" s="7"/>
-      <c r="J262" s="7"/>
-      <c r="K262" s="7"/>
-      <c r="L262" s="7"/>
+      <c r="B262" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="25"/>
-      <c r="B263" t="s">
-        <v>172</v>
-      </c>
+      <c r="B263" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C263" s="7"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="7"/>
+      <c r="H263" s="7"/>
+      <c r="I263" s="7"/>
+      <c r="J263" s="7"/>
+      <c r="K263" s="7"/>
+      <c r="L263" s="7"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="25"/>
       <c r="B264" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A265" s="25"/>
+      <c r="B265" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="265" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D265" s="9"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A266" s="26" t="s">
+    <row r="266" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D266" s="9"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A267" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B266" t="s">
-        <v>872</v>
-      </c>
-      <c r="C266" t="s">
-        <v>873</v>
-      </c>
-      <c r="J266" s="4"/>
-      <c r="L266" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A267" s="26"/>
+      <c r="B267" t="s">
+        <v>801</v>
+      </c>
+      <c r="C267" t="s">
+        <v>802</v>
+      </c>
       <c r="J267" s="4"/>
-    </row>
-    <row r="268" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="L267" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="26"/>
-      <c r="B268" t="s">
-        <v>174</v>
-      </c>
-      <c r="C268" t="s">
-        <v>554</v>
-      </c>
-      <c r="E268">
-        <v>0</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
-      <c r="G268">
-        <v>0</v>
-      </c>
-      <c r="H268">
-        <v>10</v>
-      </c>
-      <c r="I268">
-        <v>0</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="K268" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="J268" s="4"/>
+    </row>
+    <row r="269" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A269" s="26"/>
       <c r="B269" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C269" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
         <v>10</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K269" s="1" t="s">
-        <v>58</v>
+        <v>830</v>
+      </c>
+      <c r="K269" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A270" s="26"/>
       <c r="B270" t="s">
-        <v>561</v>
+        <v>175</v>
       </c>
       <c r="C270" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -11545,25 +12522,25 @@
         <v>10</v>
       </c>
       <c r="I270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J270" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A271" s="26"/>
       <c r="B271" t="s">
-        <v>562</v>
+        <v>518</v>
       </c>
       <c r="C271" t="s">
-        <v>553</v>
+        <v>509</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -11575,31 +12552,28 @@
         <v>10</v>
       </c>
       <c r="I271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J271" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A272" s="26"/>
       <c r="B272" t="s">
-        <v>567</v>
+        <v>519</v>
       </c>
       <c r="C272" t="s">
-        <v>545</v>
-      </c>
-      <c r="D272" s="10" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -11608,31 +12582,28 @@
         <v>10</v>
       </c>
       <c r="I272">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J272" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="L272" t="s">
-        <v>549</v>
+        <v>508</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A273" s="26"/>
       <c r="B273" t="s">
-        <v>568</v>
+        <v>524</v>
       </c>
       <c r="C273" t="s">
-        <v>544</v>
+        <v>503</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -11644,31 +12615,31 @@
         <v>10</v>
       </c>
       <c r="I273">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J273" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L273" s="1" t="s">
-        <v>550</v>
+        <v>506</v>
+      </c>
+      <c r="L273" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A274" s="26"/>
       <c r="B274" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="C274" t="s">
-        <v>574</v>
+        <v>502</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>570</v>
+        <v>504</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -11680,142 +12651,178 @@
         <v>10</v>
       </c>
       <c r="I274">
+        <v>5</v>
+      </c>
+      <c r="J274" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A275" s="26"/>
+      <c r="B275" t="s">
+        <v>526</v>
+      </c>
+      <c r="C275" t="s">
+        <v>530</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>10</v>
+      </c>
+      <c r="I275">
         <v>6</v>
       </c>
-      <c r="J274" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K274" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="L274" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D275" s="9"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A276" s="27" t="s">
+      <c r="J275" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D276" s="9"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A277" s="27" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A277" s="27"/>
-      <c r="B277" t="s">
-        <v>875</v>
-      </c>
-      <c r="C277" t="s">
-        <v>876</v>
-      </c>
-      <c r="J277" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L277" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="27"/>
       <c r="B278" t="s">
-        <v>180</v>
+        <v>804</v>
+      </c>
+      <c r="C278" t="s">
+        <v>805</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L278" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="27"/>
       <c r="B279" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="27"/>
       <c r="B280" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="27"/>
       <c r="B281" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="27"/>
       <c r="B282" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="27"/>
       <c r="B283" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="27"/>
       <c r="B284" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="27"/>
       <c r="B285" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="27"/>
       <c r="B286" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="27"/>
       <c r="B287" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="27"/>
       <c r="B288" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="27"/>
       <c r="B289" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="27"/>
       <c r="B290" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="27"/>
       <c r="B291" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="27"/>
       <c r="B292" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="27"/>
+      <c r="B293" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A245:A264"/>
-    <mergeCell ref="A266:A274"/>
-    <mergeCell ref="A276:A292"/>
+    <mergeCell ref="A246:A265"/>
+    <mergeCell ref="A267:A275"/>
+    <mergeCell ref="A277:A293"/>
     <mergeCell ref="A4:A20"/>
     <mergeCell ref="A118:A140"/>
     <mergeCell ref="A142:A154"/>
     <mergeCell ref="A157:A162"/>
     <mergeCell ref="A164:A173"/>
-    <mergeCell ref="A175:A243"/>
+    <mergeCell ref="A175:A244"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="A42:A116"/>
     <mergeCell ref="A31:A40"/>
@@ -11828,9 +12835,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B3" t="s">
+        <v>933</v>
+      </c>
+      <c r="C3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D3" t="s">
+        <v>932</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="F3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B4" t="s">
+        <v>939</v>
+      </c>
+      <c r="C4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D4" t="s">
+        <v>938</v>
+      </c>
+      <c r="E4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B5" t="s">
+        <v>942</v>
+      </c>
+      <c r="C5" t="s">
+        <v>943</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>945</v>
+      </c>
+      <c r="B6" t="s">
+        <v>948</v>
+      </c>
+      <c r="C6" t="s">
+        <v>946</v>
+      </c>
+      <c r="D6" t="s">
+        <v>947</v>
+      </c>
+      <c r="E6" t="s">
+        <v>951</v>
+      </c>
+      <c r="F6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
@@ -11849,16 +12994,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>805</v>
+        <v>749</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>813</v>
+        <v>755</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>817</v>
+        <v>759</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>818</v>
+        <v>760</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -11885,10 +13030,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>811</v>
+        <v>753</v>
       </c>
       <c r="C4" t="s">
-        <v>816</v>
+        <v>758</v>
       </c>
       <c r="D4" t="s">
         <v>216</v>
@@ -11917,10 +13062,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>814</v>
+        <v>756</v>
       </c>
       <c r="C7" t="s">
-        <v>815</v>
+        <v>757</v>
       </c>
       <c r="D7" t="s">
         <v>226</v>
@@ -11983,37 +13128,37 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>819</v>
+        <v>761</v>
       </c>
       <c r="C14" t="s">
-        <v>824</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" t="s">
-        <v>820</v>
+        <v>762</v>
       </c>
       <c r="C15" t="s">
-        <v>823</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" t="s">
-        <v>821</v>
+        <v>763</v>
       </c>
       <c r="C16" t="s">
-        <v>825</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" t="s">
-        <v>822</v>
+        <v>764</v>
       </c>
       <c r="C17" t="s">
-        <v>826</v>
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -12036,10 +13181,10 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>827</v>
+        <v>769</v>
       </c>
       <c r="C20" t="s">
-        <v>828</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -12096,19 +13241,19 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>829</v>
+        <v>771</v>
       </c>
       <c r="C27" t="s">
-        <v>830</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" t="s">
-        <v>831</v>
+        <v>773</v>
       </c>
       <c r="C28" t="s">
-        <v>832</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -12117,28 +13262,28 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" t="s">
-        <v>833</v>
+        <v>775</v>
       </c>
       <c r="C30" t="s">
-        <v>834</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" t="s">
-        <v>835</v>
+        <v>777</v>
       </c>
       <c r="C31" t="s">
-        <v>836</v>
+        <v>778</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
-        <v>837</v>
+        <v>779</v>
       </c>
       <c r="C32" t="s">
-        <v>838</v>
+        <v>780</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
